--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Office\Project\ReferenceData\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8ED3C9-8FAF-44E3-90AE-2B37686DF547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B3EA0-25AB-4282-BB5A-0A66FDA4E347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1991">
   <si>
     <t>0010</t>
   </si>
@@ -3352,9 +3352,6 @@
     <t>2625</t>
   </si>
   <si>
-    <t>สนง.เขตปลอดอากรและคลังฯ(ดมพ.)</t>
-  </si>
-  <si>
     <t>2629</t>
   </si>
   <si>
@@ -5938,15 +5935,6 @@
     <t>สถานที่ตรวจปล่อยสำหรับเขตปลอดอากรในกำกับของ ฝบศ.2 สฉช. สกท.</t>
   </si>
   <si>
-    <t>สำนักงานศุลกากรมาบตาพุด (ศภ.5)</t>
-  </si>
-  <si>
-    <t>สนามบินนานาชาติอู่ตะเภา (ศภ.5)</t>
-  </si>
-  <si>
-    <t>งานตรวจปล่อยปิโตรเลียม สำนักงานศุลกากรมาบตาพุด (ศภ.5)</t>
-  </si>
-  <si>
     <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สมพ.</t>
   </si>
   <si>
@@ -6004,7 +5992,37 @@
     <t>บ.คิงเพาเวอร์ อินเตอร์เนชั่นแนล จก.ร้านค้าปลอดอากรขาเข้า-ภายในอาคารศูนย์ลูกเรือบ.การบินไทย จก.(มหาชน)ท่าอากาศยานสุวรรณภูมิ(B)</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 9 ธ.ค. 2563</t>
+    <t>อัพเดทข้มูลล่าสุด : 30 ธ.ค. 2563</t>
+  </si>
+  <si>
+    <t>สำนักงานศุลกากรมาบตาพุด (สมพ)</t>
+  </si>
+  <si>
+    <t>สนามบินนานาชาติอู่ตะเภา (สมพ)</t>
+  </si>
+  <si>
+    <t>งานตรวจปล่อยปิโตรเลียม สำนักงานศุลกากรมาบตาพุด</t>
+  </si>
+  <si>
+    <t>สนง.เขตปลอดอากรและคลังฯ(สมพ.)</t>
+  </si>
+  <si>
+    <t>3613</t>
+  </si>
+  <si>
+    <t>สถานประกอบการของเร่งด่วนทางบก บริษัท มุกดาหาร ลานทอง</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>ส่วนวิเคราะห์สินค้า  (สวส. กพก.)</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>ส่วนมาตรฐานวิเคราะห์สินค้า (สมศ.)</t>
   </si>
 </sst>
 </file>
@@ -6040,17 +6058,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6121,8 +6139,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6410,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F1005"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6421,9 +6439,9 @@
     <col min="3" max="6" width="14.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6431,7 +6449,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -6439,22 +6457,22 @@
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1953</v>
-      </c>
       <c r="C2" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1949</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.6">
@@ -10859,11 +10877,11 @@
     </row>
     <row r="223" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A223" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>1955</v>
-      </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
       </c>
@@ -10871,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>2</v>
@@ -10879,10 +10897,10 @@
     </row>
     <row r="224" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A224" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>1956</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>1957</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -11022,7 +11040,7 @@
         <v>454</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -16799,10 +16817,10 @@
     </row>
     <row r="520" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A520" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B520" s="4" t="s">
         <v>1958</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>1959</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2</v>
@@ -17502,7 +17520,7 @@
         <v>1096</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1962</v>
+        <v>1981</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>5</v>
@@ -17522,7 +17540,7 @@
         <v>1097</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1963</v>
+        <v>1982</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>5</v>
@@ -17542,7 +17560,7 @@
         <v>1098</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1964</v>
+        <v>1983</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>5</v>
@@ -17562,7 +17580,7 @@
         <v>1099</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1100</v>
+        <v>1984</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>2</v>
@@ -17579,10 +17597,10 @@
     </row>
     <row r="559" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A559" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B559" s="4" t="s">
         <v>1101</v>
-      </c>
-      <c r="B559" s="4" t="s">
-        <v>1102</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>2</v>
@@ -17599,10 +17617,10 @@
     </row>
     <row r="560" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A560" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B560" s="4" t="s">
         <v>1103</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>1104</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>5</v>
@@ -17619,10 +17637,10 @@
     </row>
     <row r="561" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A561" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B561" s="4" t="s">
         <v>1105</v>
-      </c>
-      <c r="B561" s="4" t="s">
-        <v>1106</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2</v>
@@ -17639,10 +17657,10 @@
     </row>
     <row r="562" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A562" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>1107</v>
-      </c>
-      <c r="B562" s="4" t="s">
-        <v>1108</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>5</v>
@@ -17659,10 +17677,10 @@
     </row>
     <row r="563" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A563" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B563" s="4" t="s">
         <v>1109</v>
-      </c>
-      <c r="B563" s="4" t="s">
-        <v>1110</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>2</v>
@@ -17679,10 +17697,10 @@
     </row>
     <row r="564" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A564" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B564" s="4" t="s">
         <v>1111</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>1112</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2</v>
@@ -17699,10 +17717,10 @@
     </row>
     <row r="565" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A565" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B565" s="4" t="s">
         <v>1113</v>
-      </c>
-      <c r="B565" s="4" t="s">
-        <v>1114</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>2</v>
@@ -17719,10 +17737,10 @@
     </row>
     <row r="566" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A566" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B566" s="4" t="s">
         <v>1115</v>
-      </c>
-      <c r="B566" s="4" t="s">
-        <v>1116</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -17739,10 +17757,10 @@
     </row>
     <row r="567" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A567" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B567" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="B567" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>2</v>
@@ -17759,10 +17777,10 @@
     </row>
     <row r="568" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A568" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B568" s="4" t="s">
         <v>1119</v>
-      </c>
-      <c r="B568" s="4" t="s">
-        <v>1120</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>2</v>
@@ -17779,10 +17797,10 @@
     </row>
     <row r="569" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A569" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B569" s="4" t="s">
         <v>1121</v>
-      </c>
-      <c r="B569" s="4" t="s">
-        <v>1122</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>2</v>
@@ -17799,10 +17817,10 @@
     </row>
     <row r="570" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A570" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B570" s="4" t="s">
         <v>1123</v>
-      </c>
-      <c r="B570" s="4" t="s">
-        <v>1124</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2</v>
@@ -17819,10 +17837,10 @@
     </row>
     <row r="571" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A571" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>2</v>
@@ -17839,10 +17857,10 @@
     </row>
     <row r="572" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A572" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>2</v>
@@ -17859,10 +17877,10 @@
     </row>
     <row r="573" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A573" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>2</v>
@@ -17879,10 +17897,10 @@
     </row>
     <row r="574" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A574" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B574" s="4" t="s">
         <v>1128</v>
-      </c>
-      <c r="B574" s="4" t="s">
-        <v>1129</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>5</v>
@@ -17899,10 +17917,10 @@
     </row>
     <row r="575" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A575" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B575" s="4" t="s">
         <v>1130</v>
-      </c>
-      <c r="B575" s="4" t="s">
-        <v>1131</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>2</v>
@@ -17919,10 +17937,10 @@
     </row>
     <row r="576" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A576" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>2</v>
@@ -17939,10 +17957,10 @@
     </row>
     <row r="577" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A577" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B577" s="4" t="s">
         <v>1133</v>
-      </c>
-      <c r="B577" s="4" t="s">
-        <v>1134</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>2</v>
@@ -17959,10 +17977,10 @@
     </row>
     <row r="578" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A578" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B578" s="4" t="s">
         <v>1135</v>
-      </c>
-      <c r="B578" s="4" t="s">
-        <v>1136</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>2</v>
@@ -17979,10 +17997,10 @@
     </row>
     <row r="579" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A579" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B579" s="4" t="s">
         <v>1137</v>
-      </c>
-      <c r="B579" s="4" t="s">
-        <v>1138</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>2</v>
@@ -17999,10 +18017,10 @@
     </row>
     <row r="580" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A580" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B580" s="4" t="s">
         <v>1139</v>
-      </c>
-      <c r="B580" s="4" t="s">
-        <v>1140</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>2</v>
@@ -18019,10 +18037,10 @@
     </row>
     <row r="581" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A581" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B581" s="4" t="s">
         <v>1141</v>
-      </c>
-      <c r="B581" s="4" t="s">
-        <v>1142</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>2</v>
@@ -18039,10 +18057,10 @@
     </row>
     <row r="582" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A582" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B582" s="4" t="s">
         <v>1143</v>
-      </c>
-      <c r="B582" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>2</v>
@@ -18059,10 +18077,10 @@
     </row>
     <row r="583" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A583" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B583" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B583" s="4" t="s">
-        <v>1146</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>2</v>
@@ -18079,10 +18097,10 @@
     </row>
     <row r="584" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A584" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B584" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="B584" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>2</v>
@@ -18099,10 +18117,10 @@
     </row>
     <row r="585" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A585" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B585" s="4" t="s">
         <v>1149</v>
-      </c>
-      <c r="B585" s="4" t="s">
-        <v>1150</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>2</v>
@@ -18119,10 +18137,10 @@
     </row>
     <row r="586" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A586" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B586" s="4" t="s">
         <v>1151</v>
-      </c>
-      <c r="B586" s="4" t="s">
-        <v>1152</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>5</v>
@@ -18139,10 +18157,10 @@
     </row>
     <row r="587" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A587" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B587" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="B587" s="4" t="s">
-        <v>1154</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>5</v>
@@ -18159,10 +18177,10 @@
     </row>
     <row r="588" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A588" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B588" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>1156</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>5</v>
@@ -18179,10 +18197,10 @@
     </row>
     <row r="589" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A589" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B589" s="4" t="s">
         <v>1157</v>
-      </c>
-      <c r="B589" s="4" t="s">
-        <v>1158</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>5</v>
@@ -18199,10 +18217,10 @@
     </row>
     <row r="590" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A590" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B590" s="4" t="s">
         <v>1159</v>
-      </c>
-      <c r="B590" s="4" t="s">
-        <v>1160</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>5</v>
@@ -18219,10 +18237,10 @@
     </row>
     <row r="591" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A591" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B591" s="4" t="s">
         <v>1161</v>
-      </c>
-      <c r="B591" s="4" t="s">
-        <v>1162</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>5</v>
@@ -18239,10 +18257,10 @@
     </row>
     <row r="592" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A592" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B592" s="4" t="s">
         <v>1163</v>
-      </c>
-      <c r="B592" s="4" t="s">
-        <v>1164</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>5</v>
@@ -18259,10 +18277,10 @@
     </row>
     <row r="593" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A593" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B593" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="B593" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>5</v>
@@ -18279,10 +18297,10 @@
     </row>
     <row r="594" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A594" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B594" s="4" t="s">
         <v>1167</v>
-      </c>
-      <c r="B594" s="4" t="s">
-        <v>1168</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>5</v>
@@ -18299,10 +18317,10 @@
     </row>
     <row r="595" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A595" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>1169</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>1170</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>5</v>
@@ -18319,10 +18337,10 @@
     </row>
     <row r="596" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A596" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B596" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="B596" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>2</v>
@@ -18339,10 +18357,10 @@
     </row>
     <row r="597" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A597" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B597" s="4" t="s">
         <v>1173</v>
-      </c>
-      <c r="B597" s="4" t="s">
-        <v>1174</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>5</v>
@@ -18359,10 +18377,10 @@
     </row>
     <row r="598" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A598" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B598" s="4" t="s">
         <v>1175</v>
-      </c>
-      <c r="B598" s="4" t="s">
-        <v>1176</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>5</v>
@@ -18379,10 +18397,10 @@
     </row>
     <row r="599" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A599" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B599" s="4" t="s">
         <v>1177</v>
-      </c>
-      <c r="B599" s="4" t="s">
-        <v>1178</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>5</v>
@@ -18399,10 +18417,10 @@
     </row>
     <row r="600" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A600" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B600" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="B600" s="4" t="s">
-        <v>1180</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>2</v>
@@ -18419,10 +18437,10 @@
     </row>
     <row r="601" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A601" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B601" s="4" t="s">
         <v>1181</v>
-      </c>
-      <c r="B601" s="4" t="s">
-        <v>1182</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>2</v>
@@ -18439,10 +18457,10 @@
     </row>
     <row r="602" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A602" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="B602" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>5</v>
@@ -18459,10 +18477,10 @@
     </row>
     <row r="603" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A603" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>1185</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>1186</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>2</v>
@@ -18479,10 +18497,10 @@
     </row>
     <row r="604" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A604" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B604" s="4" t="s">
         <v>1187</v>
-      </c>
-      <c r="B604" s="4" t="s">
-        <v>1188</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>2</v>
@@ -18499,10 +18517,10 @@
     </row>
     <row r="605" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A605" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B605" s="4" t="s">
         <v>1189</v>
-      </c>
-      <c r="B605" s="4" t="s">
-        <v>1190</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>5</v>
@@ -18519,10 +18537,10 @@
     </row>
     <row r="606" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A606" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>1191</v>
-      </c>
-      <c r="B606" s="4" t="s">
-        <v>1192</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>5</v>
@@ -18539,10 +18557,10 @@
     </row>
     <row r="607" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A607" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B607" s="4" t="s">
         <v>1193</v>
-      </c>
-      <c r="B607" s="4" t="s">
-        <v>1194</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>2</v>
@@ -18559,10 +18577,10 @@
     </row>
     <row r="608" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A608" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B608" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="B608" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>2</v>
@@ -18579,10 +18597,10 @@
     </row>
     <row r="609" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A609" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B609" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="B609" s="4" t="s">
-        <v>1198</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>2</v>
@@ -18599,10 +18617,10 @@
     </row>
     <row r="610" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A610" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B610" s="4" t="s">
         <v>1199</v>
-      </c>
-      <c r="B610" s="4" t="s">
-        <v>1200</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>5</v>
@@ -18619,10 +18637,10 @@
     </row>
     <row r="611" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A611" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B611" s="4" t="s">
         <v>1201</v>
-      </c>
-      <c r="B611" s="4" t="s">
-        <v>1202</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>5</v>
@@ -18639,10 +18657,10 @@
     </row>
     <row r="612" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A612" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B612" s="4" t="s">
         <v>1203</v>
-      </c>
-      <c r="B612" s="4" t="s">
-        <v>1204</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>5</v>
@@ -18659,10 +18677,10 @@
     </row>
     <row r="613" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A613" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B613" s="4" t="s">
         <v>1205</v>
-      </c>
-      <c r="B613" s="4" t="s">
-        <v>1206</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>5</v>
@@ -18679,10 +18697,10 @@
     </row>
     <row r="614" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A614" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B614" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="B614" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>2</v>
@@ -18699,10 +18717,10 @@
     </row>
     <row r="615" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A615" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B615" s="4" t="s">
         <v>1209</v>
-      </c>
-      <c r="B615" s="4" t="s">
-        <v>1210</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>5</v>
@@ -18719,10 +18737,10 @@
     </row>
     <row r="616" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A616" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B616" s="4" t="s">
         <v>1211</v>
-      </c>
-      <c r="B616" s="4" t="s">
-        <v>1212</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>2</v>
@@ -18739,10 +18757,10 @@
     </row>
     <row r="617" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A617" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B617" s="4" t="s">
         <v>1213</v>
-      </c>
-      <c r="B617" s="4" t="s">
-        <v>1214</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>2</v>
@@ -18759,10 +18777,10 @@
     </row>
     <row r="618" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A618" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B618" s="4" t="s">
         <v>1215</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>1216</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>2</v>
@@ -18779,10 +18797,10 @@
     </row>
     <row r="619" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A619" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B619" s="4" t="s">
         <v>1217</v>
-      </c>
-      <c r="B619" s="4" t="s">
-        <v>1218</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2</v>
@@ -18799,10 +18817,10 @@
     </row>
     <row r="620" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A620" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B620" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="B620" s="4" t="s">
-        <v>1220</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2</v>
@@ -18819,10 +18837,10 @@
     </row>
     <row r="621" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A621" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B621" s="4" t="s">
         <v>1221</v>
-      </c>
-      <c r="B621" s="4" t="s">
-        <v>1222</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>2</v>
@@ -18839,10 +18857,10 @@
     </row>
     <row r="622" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A622" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B622" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="B622" s="4" t="s">
-        <v>1224</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2</v>
@@ -18859,10 +18877,10 @@
     </row>
     <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A623" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B623" s="4" t="s">
         <v>1225</v>
-      </c>
-      <c r="B623" s="4" t="s">
-        <v>1226</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2</v>
@@ -18879,10 +18897,10 @@
     </row>
     <row r="624" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A624" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>2</v>
@@ -18899,10 +18917,10 @@
     </row>
     <row r="625" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A625" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B625" s="4" t="s">
         <v>1228</v>
-      </c>
-      <c r="B625" s="4" t="s">
-        <v>1229</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2</v>
@@ -18919,10 +18937,10 @@
     </row>
     <row r="626" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A626" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B626" s="4" t="s">
         <v>1230</v>
-      </c>
-      <c r="B626" s="4" t="s">
-        <v>1231</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>5</v>
@@ -18939,10 +18957,10 @@
     </row>
     <row r="627" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A627" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B627" s="4" t="s">
         <v>1232</v>
-      </c>
-      <c r="B627" s="4" t="s">
-        <v>1233</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>2</v>
@@ -18959,10 +18977,10 @@
     </row>
     <row r="628" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A628" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B628" s="4" t="s">
         <v>1234</v>
-      </c>
-      <c r="B628" s="4" t="s">
-        <v>1235</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>2</v>
@@ -18979,10 +18997,10 @@
     </row>
     <row r="629" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A629" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B629" s="4" t="s">
         <v>1236</v>
-      </c>
-      <c r="B629" s="4" t="s">
-        <v>1237</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>2</v>
@@ -18999,10 +19017,10 @@
     </row>
     <row r="630" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A630" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B630" s="4" t="s">
         <v>1238</v>
-      </c>
-      <c r="B630" s="4" t="s">
-        <v>1239</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>2</v>
@@ -19019,10 +19037,10 @@
     </row>
     <row r="631" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A631" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B631" s="4" t="s">
         <v>1240</v>
-      </c>
-      <c r="B631" s="4" t="s">
-        <v>1241</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>2</v>
@@ -19039,10 +19057,10 @@
     </row>
     <row r="632" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A632" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B632" s="4" t="s">
         <v>1242</v>
-      </c>
-      <c r="B632" s="4" t="s">
-        <v>1243</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>2</v>
@@ -19059,10 +19077,10 @@
     </row>
     <row r="633" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A633" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B633" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="B633" s="4" t="s">
-        <v>1245</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>5</v>
@@ -19079,10 +19097,10 @@
     </row>
     <row r="634" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A634" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B634" s="4" t="s">
         <v>1246</v>
-      </c>
-      <c r="B634" s="4" t="s">
-        <v>1247</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>2</v>
@@ -19099,10 +19117,10 @@
     </row>
     <row r="635" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A635" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B635" s="4" t="s">
         <v>1248</v>
-      </c>
-      <c r="B635" s="4" t="s">
-        <v>1249</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>2</v>
@@ -19119,10 +19137,10 @@
     </row>
     <row r="636" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A636" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B636" s="4" t="s">
         <v>1250</v>
-      </c>
-      <c r="B636" s="4" t="s">
-        <v>1251</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>2</v>
@@ -19139,10 +19157,10 @@
     </row>
     <row r="637" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A637" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B637" s="4" t="s">
         <v>1252</v>
-      </c>
-      <c r="B637" s="4" t="s">
-        <v>1253</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>2</v>
@@ -19159,10 +19177,10 @@
     </row>
     <row r="638" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A638" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B638" s="4" t="s">
         <v>1254</v>
-      </c>
-      <c r="B638" s="4" t="s">
-        <v>1255</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>2</v>
@@ -19179,10 +19197,10 @@
     </row>
     <row r="639" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A639" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B639" s="4" t="s">
         <v>1256</v>
-      </c>
-      <c r="B639" s="4" t="s">
-        <v>1257</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>2</v>
@@ -19199,10 +19217,10 @@
     </row>
     <row r="640" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A640" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B640" s="4" t="s">
         <v>1258</v>
-      </c>
-      <c r="B640" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>2</v>
@@ -19219,10 +19237,10 @@
     </row>
     <row r="641" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A641" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B641" s="4" t="s">
         <v>1260</v>
-      </c>
-      <c r="B641" s="4" t="s">
-        <v>1261</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>2</v>
@@ -19239,10 +19257,10 @@
     </row>
     <row r="642" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A642" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B642" s="4" t="s">
         <v>1262</v>
-      </c>
-      <c r="B642" s="4" t="s">
-        <v>1263</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>2</v>
@@ -19259,10 +19277,10 @@
     </row>
     <row r="643" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A643" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B643" s="4" t="s">
         <v>1264</v>
-      </c>
-      <c r="B643" s="4" t="s">
-        <v>1265</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>2</v>
@@ -19279,10 +19297,10 @@
     </row>
     <row r="644" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A644" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B644" s="4" t="s">
         <v>1266</v>
-      </c>
-      <c r="B644" s="4" t="s">
-        <v>1267</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>2</v>
@@ -19299,10 +19317,10 @@
     </row>
     <row r="645" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A645" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B645" s="4" t="s">
         <v>1268</v>
-      </c>
-      <c r="B645" s="4" t="s">
-        <v>1269</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>2</v>
@@ -19319,10 +19337,10 @@
     </row>
     <row r="646" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A646" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B646" s="4" t="s">
         <v>1270</v>
-      </c>
-      <c r="B646" s="4" t="s">
-        <v>1271</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>2</v>
@@ -19339,10 +19357,10 @@
     </row>
     <row r="647" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A647" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B647" s="4" t="s">
         <v>1272</v>
-      </c>
-      <c r="B647" s="4" t="s">
-        <v>1273</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2</v>
@@ -19359,10 +19377,10 @@
     </row>
     <row r="648" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A648" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B648" s="4" t="s">
         <v>1274</v>
-      </c>
-      <c r="B648" s="4" t="s">
-        <v>1275</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>2</v>
@@ -19379,10 +19397,10 @@
     </row>
     <row r="649" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A649" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B649" s="4" t="s">
         <v>1276</v>
-      </c>
-      <c r="B649" s="4" t="s">
-        <v>1277</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>2</v>
@@ -19399,10 +19417,10 @@
     </row>
     <row r="650" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A650" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B650" s="4" t="s">
         <v>1278</v>
-      </c>
-      <c r="B650" s="4" t="s">
-        <v>1279</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>2</v>
@@ -19419,10 +19437,10 @@
     </row>
     <row r="651" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A651" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B651" s="4" t="s">
         <v>1280</v>
-      </c>
-      <c r="B651" s="4" t="s">
-        <v>1281</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>2</v>
@@ -19439,10 +19457,10 @@
     </row>
     <row r="652" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A652" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B652" s="4" t="s">
         <v>1282</v>
-      </c>
-      <c r="B652" s="4" t="s">
-        <v>1283</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>2</v>
@@ -19459,10 +19477,10 @@
     </row>
     <row r="653" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A653" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B653" s="4" t="s">
         <v>1284</v>
-      </c>
-      <c r="B653" s="4" t="s">
-        <v>1285</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>2</v>
@@ -19479,10 +19497,10 @@
     </row>
     <row r="654" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A654" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B654" s="4" t="s">
         <v>1286</v>
-      </c>
-      <c r="B654" s="4" t="s">
-        <v>1287</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>2</v>
@@ -19499,10 +19517,10 @@
     </row>
     <row r="655" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A655" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>2</v>
@@ -19519,10 +19537,10 @@
     </row>
     <row r="656" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A656" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B656" s="4" t="s">
         <v>1289</v>
-      </c>
-      <c r="B656" s="4" t="s">
-        <v>1290</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>2</v>
@@ -19539,10 +19557,10 @@
     </row>
     <row r="657" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A657" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B657" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="B657" s="4" t="s">
-        <v>1292</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>2</v>
@@ -19559,10 +19577,10 @@
     </row>
     <row r="658" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A658" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B658" s="4" t="s">
         <v>1293</v>
-      </c>
-      <c r="B658" s="4" t="s">
-        <v>1294</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>2</v>
@@ -19579,10 +19597,10 @@
     </row>
     <row r="659" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A659" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B659" s="4" t="s">
         <v>1295</v>
-      </c>
-      <c r="B659" s="4" t="s">
-        <v>1296</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>2</v>
@@ -19599,10 +19617,10 @@
     </row>
     <row r="660" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A660" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B660" s="4" t="s">
         <v>1297</v>
-      </c>
-      <c r="B660" s="4" t="s">
-        <v>1298</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>2</v>
@@ -19619,10 +19637,10 @@
     </row>
     <row r="661" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A661" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B661" s="4" t="s">
         <v>1299</v>
-      </c>
-      <c r="B661" s="4" t="s">
-        <v>1300</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>2</v>
@@ -19639,10 +19657,10 @@
     </row>
     <row r="662" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A662" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B662" s="4" t="s">
         <v>1301</v>
-      </c>
-      <c r="B662" s="4" t="s">
-        <v>1302</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>2</v>
@@ -19659,10 +19677,10 @@
     </row>
     <row r="663" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A663" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B663" s="4" t="s">
         <v>1303</v>
-      </c>
-      <c r="B663" s="4" t="s">
-        <v>1304</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>2</v>
@@ -19679,10 +19697,10 @@
     </row>
     <row r="664" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A664" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B664" s="4" t="s">
         <v>1305</v>
-      </c>
-      <c r="B664" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2</v>
@@ -19699,10 +19717,10 @@
     </row>
     <row r="665" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A665" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B665" s="4" t="s">
         <v>1307</v>
-      </c>
-      <c r="B665" s="4" t="s">
-        <v>1308</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2</v>
@@ -19719,10 +19737,10 @@
     </row>
     <row r="666" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A666" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B666" s="4" t="s">
         <v>1309</v>
-      </c>
-      <c r="B666" s="4" t="s">
-        <v>1310</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>5</v>
@@ -19739,10 +19757,10 @@
     </row>
     <row r="667" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A667" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B667" s="4" t="s">
         <v>1311</v>
-      </c>
-      <c r="B667" s="4" t="s">
-        <v>1312</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2</v>
@@ -19759,10 +19777,10 @@
     </row>
     <row r="668" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A668" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B668" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="B668" s="4" t="s">
-        <v>1314</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2</v>
@@ -19779,10 +19797,10 @@
     </row>
     <row r="669" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A669" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B669" s="4" t="s">
         <v>1315</v>
-      </c>
-      <c r="B669" s="4" t="s">
-        <v>1316</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2</v>
@@ -19799,10 +19817,10 @@
     </row>
     <row r="670" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A670" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B670" s="4" t="s">
         <v>1317</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>1318</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>2</v>
@@ -19819,10 +19837,10 @@
     </row>
     <row r="671" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A671" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B671" s="4" t="s">
         <v>1319</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>1320</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2</v>
@@ -19839,10 +19857,10 @@
     </row>
     <row r="672" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A672" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B672" s="4" t="s">
         <v>1321</v>
-      </c>
-      <c r="B672" s="4" t="s">
-        <v>1322</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2</v>
@@ -19859,10 +19877,10 @@
     </row>
     <row r="673" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A673" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B673" s="4" t="s">
         <v>1323</v>
-      </c>
-      <c r="B673" s="4" t="s">
-        <v>1324</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2</v>
@@ -19879,10 +19897,10 @@
     </row>
     <row r="674" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A674" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B674" s="4" t="s">
         <v>1325</v>
-      </c>
-      <c r="B674" s="4" t="s">
-        <v>1326</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2</v>
@@ -19899,10 +19917,10 @@
     </row>
     <row r="675" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A675" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B675" s="4" t="s">
         <v>1327</v>
-      </c>
-      <c r="B675" s="4" t="s">
-        <v>1328</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2</v>
@@ -19919,10 +19937,10 @@
     </row>
     <row r="676" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A676" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B676" s="4" t="s">
         <v>1329</v>
-      </c>
-      <c r="B676" s="4" t="s">
-        <v>1330</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>5</v>
@@ -19939,10 +19957,10 @@
     </row>
     <row r="677" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A677" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B677" s="4" t="s">
         <v>1331</v>
-      </c>
-      <c r="B677" s="4" t="s">
-        <v>1332</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>5</v>
@@ -19959,10 +19977,10 @@
     </row>
     <row r="678" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A678" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B678" s="4" t="s">
         <v>1333</v>
-      </c>
-      <c r="B678" s="4" t="s">
-        <v>1334</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>5</v>
@@ -19979,10 +19997,10 @@
     </row>
     <row r="679" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A679" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B679" s="4" t="s">
         <v>1335</v>
-      </c>
-      <c r="B679" s="4" t="s">
-        <v>1336</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2</v>
@@ -19999,10 +20017,10 @@
     </row>
     <row r="680" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A680" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B680" s="4" t="s">
         <v>1337</v>
-      </c>
-      <c r="B680" s="4" t="s">
-        <v>1338</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>2</v>
@@ -20019,10 +20037,10 @@
     </row>
     <row r="681" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A681" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B681" s="4" t="s">
         <v>1339</v>
-      </c>
-      <c r="B681" s="4" t="s">
-        <v>1340</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>2</v>
@@ -20039,10 +20057,10 @@
     </row>
     <row r="682" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A682" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B682" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="B682" s="4" t="s">
-        <v>1342</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>2</v>
@@ -20059,10 +20077,10 @@
     </row>
     <row r="683" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A683" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B683" s="4" t="s">
         <v>1343</v>
-      </c>
-      <c r="B683" s="4" t="s">
-        <v>1344</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2</v>
@@ -20079,10 +20097,10 @@
     </row>
     <row r="684" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A684" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B684" s="4" t="s">
         <v>1345</v>
-      </c>
-      <c r="B684" s="4" t="s">
-        <v>1346</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2</v>
@@ -20099,10 +20117,10 @@
     </row>
     <row r="685" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A685" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B685" s="4" t="s">
         <v>1347</v>
-      </c>
-      <c r="B685" s="4" t="s">
-        <v>1348</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2</v>
@@ -20119,10 +20137,10 @@
     </row>
     <row r="686" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A686" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B686" s="4" t="s">
         <v>1349</v>
-      </c>
-      <c r="B686" s="4" t="s">
-        <v>1350</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>5</v>
@@ -20139,10 +20157,10 @@
     </row>
     <row r="687" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A687" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B687" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="B687" s="4" t="s">
-        <v>1352</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2</v>
@@ -20159,10 +20177,10 @@
     </row>
     <row r="688" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A688" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B688" s="4" t="s">
         <v>1353</v>
-      </c>
-      <c r="B688" s="4" t="s">
-        <v>1354</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2</v>
@@ -20179,10 +20197,10 @@
     </row>
     <row r="689" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A689" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B689" s="4" t="s">
         <v>1355</v>
-      </c>
-      <c r="B689" s="4" t="s">
-        <v>1356</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2</v>
@@ -20199,10 +20217,10 @@
     </row>
     <row r="690" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A690" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B690" s="4" t="s">
         <v>1357</v>
-      </c>
-      <c r="B690" s="4" t="s">
-        <v>1358</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>2</v>
@@ -20219,10 +20237,10 @@
     </row>
     <row r="691" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A691" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B691" s="4" t="s">
         <v>1359</v>
-      </c>
-      <c r="B691" s="4" t="s">
-        <v>1360</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2</v>
@@ -20239,10 +20257,10 @@
     </row>
     <row r="692" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A692" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B692" s="4" t="s">
         <v>1361</v>
-      </c>
-      <c r="B692" s="4" t="s">
-        <v>1362</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>5</v>
@@ -20259,10 +20277,10 @@
     </row>
     <row r="693" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A693" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B693" s="4" t="s">
         <v>1363</v>
-      </c>
-      <c r="B693" s="4" t="s">
-        <v>1364</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2</v>
@@ -20279,10 +20297,10 @@
     </row>
     <row r="694" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A694" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B694" s="4" t="s">
         <v>1365</v>
-      </c>
-      <c r="B694" s="4" t="s">
-        <v>1366</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2</v>
@@ -20299,10 +20317,10 @@
     </row>
     <row r="695" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A695" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B695" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="B695" s="4" t="s">
-        <v>1368</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2</v>
@@ -20319,16 +20337,16 @@
     </row>
     <row r="696" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A696" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B696" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="B696" s="4" t="s">
-        <v>1370</v>
-      </c>
       <c r="C696" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E696" s="2" t="s">
         <v>5</v>
@@ -20339,13 +20357,13 @@
     </row>
     <row r="697" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A697" s="3" t="s">
-        <v>1371</v>
+        <v>1985</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1372</v>
+        <v>1986</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D697" s="2" t="s">
         <v>2</v>
@@ -20359,19 +20377,19 @@
     </row>
     <row r="698" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A698" s="3" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D698" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F698" s="2" t="s">
         <v>2</v>
@@ -20379,19 +20397,19 @@
     </row>
     <row r="699" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A699" s="3" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F699" s="2" t="s">
         <v>2</v>
@@ -20399,33 +20417,33 @@
     </row>
     <row r="700" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A700" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E700" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A701" s="3" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D701" s="2" t="s">
         <v>5</v>
@@ -20434,15 +20452,15 @@
         <v>5</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A702" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>2</v>
@@ -20459,16 +20477,16 @@
     </row>
     <row r="703" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A703" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>5</v>
@@ -20479,33 +20497,33 @@
     </row>
     <row r="704" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A704" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E704" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A705" s="3" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D705" s="2" t="s">
         <v>5</v>
@@ -20514,21 +20532,21 @@
         <v>5</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A706" s="3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E706" s="2" t="s">
         <v>5</v>
@@ -20539,50 +20557,50 @@
     </row>
     <row r="707" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A707" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F707" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A708" s="3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A709" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>2</v>
@@ -20599,59 +20617,59 @@
     </row>
     <row r="710" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A710" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A711" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A712" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F712" s="2" t="s">
         <v>2</v>
@@ -20659,10 +20677,10 @@
     </row>
     <row r="713" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A713" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>2</v>
@@ -20679,10 +20697,10 @@
     </row>
     <row r="714" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A714" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2</v>
@@ -20699,16 +20717,16 @@
     </row>
     <row r="715" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A715" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>5</v>
@@ -20719,33 +20737,33 @@
     </row>
     <row r="716" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A716" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A717" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D717" s="2" t="s">
         <v>5</v>
@@ -20754,15 +20772,15 @@
         <v>5</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A718" s="3" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2</v>
@@ -20779,10 +20797,10 @@
     </row>
     <row r="719" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A719" s="3" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2</v>
@@ -20799,16 +20817,16 @@
     </row>
     <row r="720" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A720" s="3" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>5</v>
@@ -20819,10 +20837,10 @@
     </row>
     <row r="721" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A721" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2</v>
@@ -20831,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F721" s="2" t="s">
         <v>2</v>
@@ -20839,36 +20857,36 @@
     </row>
     <row r="722" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A722" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A723" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>5</v>
@@ -20879,10 +20897,10 @@
     </row>
     <row r="724" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A724" s="3" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2</v>
@@ -20894,55 +20912,55 @@
         <v>5</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A725" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A726" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A727" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>5</v>
@@ -20959,10 +20977,10 @@
     </row>
     <row r="728" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A728" s="3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>5</v>
@@ -20979,13 +20997,13 @@
     </row>
     <row r="729" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A729" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>2</v>
@@ -20999,33 +21017,33 @@
     </row>
     <row r="730" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A730" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F730" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A731" s="3" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D731" s="2" t="s">
         <v>5</v>
@@ -21034,15 +21052,15 @@
         <v>5</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A732" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>2</v>
@@ -21059,10 +21077,10 @@
     </row>
     <row r="733" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A733" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>2</v>
@@ -21079,10 +21097,10 @@
     </row>
     <row r="734" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A734" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>2</v>
@@ -21099,10 +21117,10 @@
     </row>
     <row r="735" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A735" s="3" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2</v>
@@ -21119,10 +21137,10 @@
     </row>
     <row r="736" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A736" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>2</v>
@@ -21139,10 +21157,10 @@
     </row>
     <row r="737" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A737" s="3" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2</v>
@@ -21159,10 +21177,10 @@
     </row>
     <row r="738" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A738" s="3" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2</v>
@@ -21179,16 +21197,16 @@
     </row>
     <row r="739" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A739" s="3" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>5</v>
@@ -21199,156 +21217,156 @@
     </row>
     <row r="740" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A740" s="3" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A741" s="3" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A742" s="3" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A743" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A744" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A745" s="3" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A746" s="3" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A747" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>5</v>
@@ -21359,10 +21377,10 @@
     </row>
     <row r="748" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A748" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>2</v>
@@ -21371,18 +21389,18 @@
         <v>2</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A749" s="3" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>2</v>
@@ -21391,18 +21409,18 @@
         <v>2</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A750" s="3" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>2</v>
@@ -21419,13 +21437,13 @@
     </row>
     <row r="751" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A751" s="3" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D751" s="2" t="s">
         <v>2</v>
@@ -21434,18 +21452,18 @@
         <v>5</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A752" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D752" s="2" t="s">
         <v>2</v>
@@ -21459,16 +21477,16 @@
     </row>
     <row r="753" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A753" s="3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E753" s="2" t="s">
         <v>5</v>
@@ -21479,16 +21497,16 @@
     </row>
     <row r="754" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A754" s="3" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E754" s="2" t="s">
         <v>5</v>
@@ -21499,36 +21517,36 @@
     </row>
     <row r="755" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A755" s="3" t="s">
-        <v>1970</v>
+        <v>1484</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1971</v>
+        <v>1485</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E755" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A756" s="3" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E756" s="2" t="s">
         <v>5</v>
@@ -21539,19 +21557,19 @@
     </row>
     <row r="757" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A757" s="3" t="s">
-        <v>1487</v>
+        <v>1968</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1488</v>
+        <v>1969</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>2</v>
@@ -21559,13 +21577,13 @@
     </row>
     <row r="758" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A758" s="3" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D758" s="2" t="s">
         <v>5</v>
@@ -21574,21 +21592,21 @@
         <v>5</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A759" s="3" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>5</v>
@@ -21599,13 +21617,13 @@
     </row>
     <row r="760" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A760" s="3" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D760" s="2" t="s">
         <v>5</v>
@@ -21614,21 +21632,21 @@
         <v>5</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A761" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>5</v>
@@ -21639,10 +21657,10 @@
     </row>
     <row r="762" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A762" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2</v>
@@ -21654,15 +21672,15 @@
         <v>5</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A763" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>5</v>
@@ -21674,15 +21692,15 @@
         <v>5</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="764" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A764" s="3" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2</v>
@@ -21699,10 +21717,10 @@
     </row>
     <row r="765" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A765" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2</v>
@@ -21714,21 +21732,21 @@
         <v>5</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A766" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>5</v>
@@ -21739,10 +21757,10 @@
     </row>
     <row r="767" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A767" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2</v>
@@ -21751,7 +21769,7 @@
         <v>2</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F767" s="2" t="s">
         <v>2</v>
@@ -21759,10 +21777,10 @@
     </row>
     <row r="768" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A768" s="3" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>2</v>
@@ -21779,10 +21797,10 @@
     </row>
     <row r="769" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A769" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2</v>
@@ -21791,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="E769" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F769" s="2" t="s">
         <v>2</v>
@@ -21799,10 +21817,10 @@
     </row>
     <row r="770" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A770" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2</v>
@@ -21819,10 +21837,10 @@
     </row>
     <row r="771" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A771" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>2</v>
@@ -21831,7 +21849,7 @@
         <v>2</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F771" s="2" t="s">
         <v>2</v>
@@ -21839,30 +21857,30 @@
     </row>
     <row r="772" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A772" s="3" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F772" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A773" s="3" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2</v>
@@ -21871,7 +21889,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>2</v>
@@ -21879,10 +21897,10 @@
     </row>
     <row r="774" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A774" s="3" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>2</v>
@@ -21899,10 +21917,10 @@
     </row>
     <row r="775" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A775" s="3" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>5</v>
@@ -21919,10 +21937,10 @@
     </row>
     <row r="776" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A776" s="3" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>2</v>
@@ -21939,10 +21957,10 @@
     </row>
     <row r="777" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A777" s="3" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1974</v>
+        <v>1525</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>2</v>
@@ -21951,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>2</v>
@@ -21959,10 +21977,10 @@
     </row>
     <row r="778" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A778" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1529</v>
+        <v>1970</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>5</v>
@@ -21979,10 +21997,10 @@
     </row>
     <row r="779" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A779" s="3" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2</v>
@@ -21999,170 +22017,170 @@
     </row>
     <row r="780" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A780" s="3" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1975</v>
+        <v>1530</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A781" s="3" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1534</v>
+        <v>1971</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A782" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1976</v>
+        <v>1533</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E782" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F782" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A783" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1537</v>
+        <v>1972</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E783" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="784" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A784" s="3" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E784" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A785" s="3" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A786" s="3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1977</v>
+        <v>1540</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A787" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1544</v>
+        <v>1973</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A788" s="3" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>2</v>
@@ -22179,16 +22197,16 @@
     </row>
     <row r="789" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A789" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>5</v>
@@ -22199,10 +22217,10 @@
     </row>
     <row r="790" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A790" s="3" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>2</v>
@@ -22219,10 +22237,10 @@
     </row>
     <row r="791" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A791" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2</v>
@@ -22239,10 +22257,10 @@
     </row>
     <row r="792" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A792" s="3" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>2</v>
@@ -22254,35 +22272,35 @@
         <v>5</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A793" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E793" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F793" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A794" s="3" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>2</v>
@@ -22299,10 +22317,10 @@
     </row>
     <row r="795" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A795" s="3" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2</v>
@@ -22319,10 +22337,10 @@
     </row>
     <row r="796" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A796" s="3" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>5</v>
@@ -22339,13 +22357,13 @@
     </row>
     <row r="797" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A797" s="3" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D797" s="2" t="s">
         <v>2</v>
@@ -22359,13 +22377,13 @@
     </row>
     <row r="798" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A798" s="3" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D798" s="2" t="s">
         <v>2</v>
@@ -22379,33 +22397,33 @@
     </row>
     <row r="799" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A799" s="3" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A800" s="3" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>2</v>
@@ -22414,18 +22432,18 @@
         <v>5</v>
       </c>
       <c r="F800" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A801" s="3" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D801" s="2" t="s">
         <v>2</v>
@@ -22439,30 +22457,30 @@
     </row>
     <row r="802" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A802" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E802" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F802" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A803" s="3" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2</v>
@@ -22474,15 +22492,15 @@
         <v>5</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A804" s="3" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>2</v>
@@ -22494,55 +22512,55 @@
         <v>5</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A805" s="3" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A806" s="3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E806" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A807" s="3" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>2</v>
@@ -22554,118 +22572,118 @@
         <v>5</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A808" s="3" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E808" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A809" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A810" s="3" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E810" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A811" s="3" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A812" s="3" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E812" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A813" s="3" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D813" s="2" t="s">
         <v>5</v>
@@ -22679,10 +22697,10 @@
     </row>
     <row r="814" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A814" s="3" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>2</v>
@@ -22699,10 +22717,10 @@
     </row>
     <row r="815" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A815" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>5</v>
@@ -22719,70 +22737,70 @@
     </row>
     <row r="816" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A816" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E816" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A817" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C817" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E817" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A818" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E818" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A819" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2</v>
@@ -22799,16 +22817,16 @@
     </row>
     <row r="820" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A820" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C820" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E820" s="2" t="s">
         <v>5</v>
@@ -22819,10 +22837,10 @@
     </row>
     <row r="821" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A821" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>2</v>
@@ -22839,10 +22857,10 @@
     </row>
     <row r="822" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A822" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>2</v>
@@ -22859,16 +22877,16 @@
     </row>
     <row r="823" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A823" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>5</v>
@@ -22879,10 +22897,10 @@
     </row>
     <row r="824" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A824" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>2</v>
@@ -22899,93 +22917,93 @@
     </row>
     <row r="825" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A825" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A826" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A827" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1978</v>
+        <v>1621</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E827" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F827" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A828" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1625</v>
+        <v>1974</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A829" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1979</v>
+        <v>1624</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D829" s="2" t="s">
         <v>2</v>
@@ -22999,30 +23017,30 @@
     </row>
     <row r="830" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A830" s="3" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1628</v>
+        <v>1975</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A831" s="3" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>2</v>
@@ -23039,33 +23057,33 @@
     </row>
     <row r="832" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A832" s="3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E832" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A833" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D833" s="2" t="s">
         <v>2</v>
@@ -23079,53 +23097,53 @@
     </row>
     <row r="834" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A834" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1980</v>
+        <v>1633</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E834" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F834" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A835" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1637</v>
+        <v>1976</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E835" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A836" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1981</v>
+        <v>1636</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D836" s="2" t="s">
         <v>2</v>
@@ -23139,53 +23157,53 @@
     </row>
     <row r="837" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A837" s="3" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1640</v>
+        <v>1977</v>
       </c>
       <c r="C837" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A838" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E838" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F838" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A839" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>2</v>
@@ -23199,90 +23217,90 @@
     </row>
     <row r="840" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A840" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A841" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A842" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A843" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A844" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>2</v>
@@ -23294,21 +23312,21 @@
         <v>5</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A845" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>5</v>
@@ -23319,10 +23337,10 @@
     </row>
     <row r="846" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A846" s="3" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>2</v>
@@ -23334,15 +23352,15 @@
         <v>5</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A847" s="3" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>2</v>
@@ -23359,10 +23377,10 @@
     </row>
     <row r="848" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A848" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>2</v>
@@ -23379,10 +23397,10 @@
     </row>
     <row r="849" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A849" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>2</v>
@@ -23399,10 +23417,10 @@
     </row>
     <row r="850" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A850" s="3" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>2</v>
@@ -23419,10 +23437,10 @@
     </row>
     <row r="851" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A851" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>2</v>
@@ -23431,18 +23449,18 @@
         <v>2</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A852" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>2</v>
@@ -23459,10 +23477,10 @@
     </row>
     <row r="853" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A853" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>2</v>
@@ -23479,10 +23497,10 @@
     </row>
     <row r="854" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A854" s="3" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>2</v>
@@ -23491,18 +23509,18 @@
         <v>2</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A855" s="3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>2</v>
@@ -23519,10 +23537,10 @@
     </row>
     <row r="856" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A856" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>2</v>
@@ -23539,10 +23557,10 @@
     </row>
     <row r="857" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A857" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>2</v>
@@ -23551,18 +23569,18 @@
         <v>2</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F857" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A858" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>2</v>
@@ -23579,10 +23597,10 @@
     </row>
     <row r="859" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A859" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>2</v>
@@ -23599,10 +23617,10 @@
     </row>
     <row r="860" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A860" s="3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>2</v>
@@ -23619,10 +23637,10 @@
     </row>
     <row r="861" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A861" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>2</v>
@@ -23639,10 +23657,10 @@
     </row>
     <row r="862" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A862" s="3" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>669</v>
+        <v>1663</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>2</v>
@@ -23659,10 +23677,10 @@
     </row>
     <row r="863" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A863" s="3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>1664</v>
+        <v>669</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>2</v>
@@ -23671,18 +23689,18 @@
         <v>2</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A864" s="3" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1690</v>
+        <v>1663</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>2</v>
@@ -23699,10 +23717,10 @@
     </row>
     <row r="865" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A865" s="3" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>2</v>
@@ -23719,10 +23737,10 @@
     </row>
     <row r="866" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A866" s="3" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>2</v>
@@ -23739,10 +23757,10 @@
     </row>
     <row r="867" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A867" s="3" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>2</v>
@@ -23759,10 +23777,10 @@
     </row>
     <row r="868" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A868" s="3" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>2</v>
@@ -23779,10 +23797,10 @@
     </row>
     <row r="869" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A869" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>2</v>
@@ -23799,10 +23817,10 @@
     </row>
     <row r="870" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A870" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>2</v>
@@ -23819,10 +23837,10 @@
     </row>
     <row r="871" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A871" s="3" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>2</v>
@@ -23839,10 +23857,10 @@
     </row>
     <row r="872" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A872" s="3" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>2</v>
@@ -23859,10 +23877,10 @@
     </row>
     <row r="873" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A873" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>2</v>
@@ -23879,10 +23897,10 @@
     </row>
     <row r="874" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A874" s="3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>2</v>
@@ -23899,10 +23917,10 @@
     </row>
     <row r="875" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A875" s="3" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>2</v>
@@ -23919,10 +23937,10 @@
     </row>
     <row r="876" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A876" s="3" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1664</v>
+        <v>1707</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>2</v>
@@ -23939,10 +23957,10 @@
     </row>
     <row r="877" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A877" s="3" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1711</v>
+        <v>1663</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>2</v>
@@ -23959,10 +23977,10 @@
     </row>
     <row r="878" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A878" s="3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>2</v>
@@ -23979,10 +23997,10 @@
     </row>
     <row r="879" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A879" s="3" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>2</v>
@@ -23999,10 +24017,10 @@
     </row>
     <row r="880" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A880" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>2</v>
@@ -24019,10 +24037,10 @@
     </row>
     <row r="881" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A881" s="3" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>2</v>
@@ -24039,10 +24057,10 @@
     </row>
     <row r="882" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A882" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>2</v>
@@ -24059,10 +24077,10 @@
     </row>
     <row r="883" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A883" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>2</v>
@@ -24079,10 +24097,10 @@
     </row>
     <row r="884" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A884" s="3" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>2</v>
@@ -24099,10 +24117,10 @@
     </row>
     <row r="885" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A885" s="3" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>2</v>
@@ -24119,10 +24137,10 @@
     </row>
     <row r="886" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A886" s="3" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>2</v>
@@ -24139,10 +24157,10 @@
     </row>
     <row r="887" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A887" s="3" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>2</v>
@@ -24159,10 +24177,10 @@
     </row>
     <row r="888" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A888" s="3" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>2</v>
@@ -24179,10 +24197,10 @@
     </row>
     <row r="889" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A889" s="3" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>2</v>
@@ -24199,10 +24217,10 @@
     </row>
     <row r="890" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A890" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>2</v>
@@ -24219,10 +24237,10 @@
     </row>
     <row r="891" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A891" s="3" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>2</v>
@@ -24239,10 +24257,10 @@
     </row>
     <row r="892" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A892" s="3" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>2</v>
@@ -24259,10 +24277,10 @@
     </row>
     <row r="893" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A893" s="3" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>2</v>
@@ -24279,10 +24297,10 @@
     </row>
     <row r="894" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A894" s="3" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>2</v>
@@ -24299,10 +24317,10 @@
     </row>
     <row r="895" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A895" s="3" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>2</v>
@@ -24319,10 +24337,10 @@
     </row>
     <row r="896" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A896" s="3" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>2</v>
@@ -24339,10 +24357,10 @@
     </row>
     <row r="897" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A897" s="3" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>2</v>
@@ -24359,10 +24377,10 @@
     </row>
     <row r="898" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A898" s="3" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>2</v>
@@ -24379,10 +24397,10 @@
     </row>
     <row r="899" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A899" s="3" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1739</v>
+        <v>1752</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>2</v>
@@ -24399,10 +24417,10 @@
     </row>
     <row r="900" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A900" s="3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1756</v>
+        <v>1738</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>2</v>
@@ -24419,10 +24437,10 @@
     </row>
     <row r="901" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A901" s="3" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1664</v>
+        <v>1755</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>2</v>
@@ -24439,10 +24457,10 @@
     </row>
     <row r="902" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A902" s="3" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1759</v>
+        <v>1663</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>2</v>
@@ -24459,10 +24477,10 @@
     </row>
     <row r="903" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A903" s="3" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>2</v>
@@ -24479,10 +24497,10 @@
     </row>
     <row r="904" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A904" s="3" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>2</v>
@@ -24499,10 +24517,10 @@
     </row>
     <row r="905" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A905" s="3" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1664</v>
+        <v>1762</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>2</v>
@@ -24511,18 +24529,18 @@
         <v>2</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A906" s="3" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1766</v>
+        <v>1663</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>2</v>
@@ -24539,10 +24557,10 @@
     </row>
     <row r="907" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A907" s="3" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>2</v>
@@ -24559,10 +24577,10 @@
     </row>
     <row r="908" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A908" s="3" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>2</v>
@@ -24571,18 +24589,18 @@
         <v>2</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A909" s="3" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>2</v>
@@ -24599,10 +24617,10 @@
     </row>
     <row r="910" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A910" s="3" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>2</v>
@@ -24619,10 +24637,10 @@
     </row>
     <row r="911" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A911" s="3" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>2</v>
@@ -24639,10 +24657,10 @@
     </row>
     <row r="912" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A912" s="3" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>2</v>
@@ -24659,10 +24677,10 @@
     </row>
     <row r="913" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A913" s="3" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>2</v>
@@ -24679,10 +24697,10 @@
     </row>
     <row r="914" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A914" s="3" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>2</v>
@@ -24699,10 +24717,10 @@
     </row>
     <row r="915" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A915" s="3" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>2</v>
@@ -24719,10 +24737,10 @@
     </row>
     <row r="916" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A916" s="3" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>2</v>
@@ -24739,10 +24757,10 @@
     </row>
     <row r="917" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A917" s="3" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1982</v>
+        <v>1785</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>2</v>
@@ -24759,10 +24777,10 @@
     </row>
     <row r="918" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A918" s="3" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>2</v>
@@ -24779,10 +24797,10 @@
     </row>
     <row r="919" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A919" s="3" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1790</v>
+        <v>1979</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>2</v>
@@ -24799,10 +24817,10 @@
     </row>
     <row r="920" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A920" s="3" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>2</v>
@@ -24819,10 +24837,10 @@
     </row>
     <row r="921" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A921" s="3" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>2</v>
@@ -24839,10 +24857,10 @@
     </row>
     <row r="922" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A922" s="3" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>2</v>
@@ -24859,10 +24877,10 @@
     </row>
     <row r="923" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A923" s="3" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>2</v>
@@ -24879,10 +24897,10 @@
     </row>
     <row r="924" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A924" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>2</v>
@@ -24899,10 +24917,10 @@
     </row>
     <row r="925" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A925" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>2</v>
@@ -24919,10 +24937,10 @@
     </row>
     <row r="926" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A926" s="3" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>2</v>
@@ -24939,10 +24957,10 @@
     </row>
     <row r="927" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A927" s="3" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>2</v>
@@ -24959,10 +24977,10 @@
     </row>
     <row r="928" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A928" s="3" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>2</v>
@@ -24979,10 +24997,10 @@
     </row>
     <row r="929" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A929" s="3" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>2</v>
@@ -24999,10 +25017,10 @@
     </row>
     <row r="930" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A930" s="3" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>2</v>
@@ -25019,10 +25037,10 @@
     </row>
     <row r="931" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A931" s="3" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>2</v>
@@ -25039,10 +25057,10 @@
     </row>
     <row r="932" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A932" s="3" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>2</v>
@@ -25059,10 +25077,10 @@
     </row>
     <row r="933" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A933" s="3" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>2</v>
@@ -25079,10 +25097,10 @@
     </row>
     <row r="934" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A934" s="3" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>2</v>
@@ -25099,10 +25117,10 @@
     </row>
     <row r="935" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A935" s="3" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>2</v>
@@ -25119,10 +25137,10 @@
     </row>
     <row r="936" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A936" s="3" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>2</v>
@@ -25139,10 +25157,10 @@
     </row>
     <row r="937" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A937" s="3" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>2</v>
@@ -25159,10 +25177,10 @@
     </row>
     <row r="938" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A938" s="3" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2</v>
@@ -25179,10 +25197,10 @@
     </row>
     <row r="939" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A939" s="3" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>2</v>
@@ -25199,10 +25217,10 @@
     </row>
     <row r="940" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A940" s="3" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>2</v>
@@ -25219,10 +25237,10 @@
     </row>
     <row r="941" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A941" s="3" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>2</v>
@@ -25239,10 +25257,10 @@
     </row>
     <row r="942" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A942" s="3" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>2</v>
@@ -25259,10 +25277,10 @@
     </row>
     <row r="943" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A943" s="3" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1796</v>
+        <v>1831</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>2</v>
@@ -25279,10 +25297,10 @@
     </row>
     <row r="944" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A944" s="3" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>2</v>
@@ -25299,10 +25317,10 @@
     </row>
     <row r="945" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A945" s="3" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>2</v>
@@ -25319,10 +25337,10 @@
     </row>
     <row r="946" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A946" s="3" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1814</v>
+        <v>1795</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>2</v>
@@ -25339,10 +25357,10 @@
     </row>
     <row r="947" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A947" s="3" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>2</v>
@@ -25359,10 +25377,10 @@
     </row>
     <row r="948" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A948" s="3" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1839</v>
+        <v>1795</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>2</v>
@@ -25379,10 +25397,10 @@
     </row>
     <row r="949" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A949" s="3" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>2</v>
@@ -25399,10 +25417,10 @@
     </row>
     <row r="950" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A950" s="3" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>2</v>
@@ -25419,10 +25437,10 @@
     </row>
     <row r="951" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A951" s="3" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>2</v>
@@ -25439,10 +25457,10 @@
     </row>
     <row r="952" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A952" s="3" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>2</v>
@@ -25451,18 +25469,18 @@
         <v>2</v>
       </c>
       <c r="E952" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F952" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A953" s="3" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>2</v>
@@ -25479,10 +25497,10 @@
     </row>
     <row r="954" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A954" s="3" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C954" s="2" t="s">
         <v>2</v>
@@ -25499,10 +25517,10 @@
     </row>
     <row r="955" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A955" s="3" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>2</v>
@@ -25511,18 +25529,18 @@
         <v>2</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A956" s="3" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>2</v>
@@ -25539,10 +25557,10 @@
     </row>
     <row r="957" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A957" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>2</v>
@@ -25551,18 +25569,18 @@
         <v>2</v>
       </c>
       <c r="E957" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F957" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A958" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>2</v>
@@ -25579,10 +25597,10 @@
     </row>
     <row r="959" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A959" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>2</v>
@@ -25599,10 +25617,10 @@
     </row>
     <row r="960" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A960" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>2</v>
@@ -25619,10 +25637,10 @@
     </row>
     <row r="961" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A961" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>2</v>
@@ -25631,18 +25649,18 @@
         <v>2</v>
       </c>
       <c r="E961" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F961" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A962" s="3" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>2</v>
@@ -25659,10 +25677,10 @@
     </row>
     <row r="963" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A963" s="3" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1713</v>
+        <v>1866</v>
       </c>
       <c r="C963" s="2" t="s">
         <v>2</v>
@@ -25671,18 +25689,18 @@
         <v>2</v>
       </c>
       <c r="E963" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A964" s="3" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1870</v>
+        <v>1712</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>2</v>
@@ -25691,18 +25709,18 @@
         <v>2</v>
       </c>
       <c r="E964" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A965" s="3" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>2</v>
@@ -25719,10 +25737,10 @@
     </row>
     <row r="966" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A966" s="3" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>2</v>
@@ -25739,10 +25757,10 @@
     </row>
     <row r="967" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A967" s="3" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>2</v>
@@ -25751,18 +25769,18 @@
         <v>2</v>
       </c>
       <c r="E967" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="968" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A968" s="3" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>2</v>
@@ -25771,18 +25789,18 @@
         <v>2</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A969" s="3" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1826</v>
+        <v>1877</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>2</v>
@@ -25791,18 +25809,18 @@
         <v>2</v>
       </c>
       <c r="E969" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A970" s="3" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>2</v>
@@ -25819,10 +25837,10 @@
     </row>
     <row r="971" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A971" s="3" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1882</v>
+        <v>1825</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>2</v>
@@ -25839,10 +25857,10 @@
     </row>
     <row r="972" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A972" s="3" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>2</v>
@@ -25859,10 +25877,10 @@
     </row>
     <row r="973" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A973" s="3" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>2</v>
@@ -25879,10 +25897,10 @@
     </row>
     <row r="974" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A974" s="3" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>2</v>
@@ -25899,10 +25917,10 @@
     </row>
     <row r="975" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A975" s="3" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>2</v>
@@ -25911,18 +25929,18 @@
         <v>2</v>
       </c>
       <c r="E975" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F975" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A976" s="3" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>2</v>
@@ -25931,18 +25949,18 @@
         <v>2</v>
       </c>
       <c r="E976" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A977" s="3" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>2</v>
@@ -25959,10 +25977,10 @@
     </row>
     <row r="978" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A978" s="3" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>2</v>
@@ -25979,10 +25997,10 @@
     </row>
     <row r="979" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A979" s="3" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>2</v>
@@ -25991,18 +26009,18 @@
         <v>2</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A980" s="3" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>2</v>
@@ -26019,10 +26037,10 @@
     </row>
     <row r="981" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A981" s="3" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>2</v>
@@ -26034,15 +26052,15 @@
         <v>5</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A982" s="3" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>2</v>
@@ -26051,7 +26069,7 @@
         <v>2</v>
       </c>
       <c r="E982" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F982" s="2" t="s">
         <v>2</v>
@@ -26059,10 +26077,10 @@
     </row>
     <row r="983" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A983" s="3" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>2</v>
@@ -26071,18 +26089,18 @@
         <v>2</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A984" s="3" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>2</v>
@@ -26094,15 +26112,15 @@
         <v>5</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A985" s="3" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>2</v>
@@ -26111,7 +26129,7 @@
         <v>2</v>
       </c>
       <c r="E985" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F985" s="2" t="s">
         <v>2</v>
@@ -26119,10 +26137,10 @@
     </row>
     <row r="986" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A986" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>2</v>
@@ -26139,10 +26157,10 @@
     </row>
     <row r="987" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A987" s="3" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>2</v>
@@ -26159,10 +26177,10 @@
     </row>
     <row r="988" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A988" s="3" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>2</v>
@@ -26171,18 +26189,18 @@
         <v>2</v>
       </c>
       <c r="E988" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F988" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A989" s="3" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>2</v>
@@ -26191,18 +26209,18 @@
         <v>2</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F989" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A990" s="3" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="B990" s="4" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>2</v>
@@ -26211,18 +26229,18 @@
         <v>2</v>
       </c>
       <c r="E990" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A991" s="3" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B991" s="4" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>2</v>
@@ -26239,10 +26257,10 @@
     </row>
     <row r="992" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A992" s="3" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>2</v>
@@ -26251,18 +26269,18 @@
         <v>2</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A993" s="3" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B993" s="4" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>2</v>
@@ -26271,18 +26289,18 @@
         <v>2</v>
       </c>
       <c r="E993" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F993" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A994" s="3" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>2</v>
@@ -26291,18 +26309,18 @@
         <v>2</v>
       </c>
       <c r="E994" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F994" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="995" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A995" s="3" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="B995" s="4" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>2</v>
@@ -26311,18 +26329,18 @@
         <v>2</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="996" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A996" s="3" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>2</v>
@@ -26331,18 +26349,18 @@
         <v>2</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F996" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A997" s="3" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>2</v>
@@ -26359,10 +26377,10 @@
     </row>
     <row r="998" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A998" s="3" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>2</v>
@@ -26379,10 +26397,10 @@
     </row>
     <row r="999" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A999" s="3" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>2</v>
@@ -26399,10 +26417,10 @@
     </row>
     <row r="1000" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1000" s="3" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>2</v>
@@ -26419,10 +26437,10 @@
     </row>
     <row r="1001" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1001" s="3" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>2</v>
@@ -26439,10 +26457,10 @@
     </row>
     <row r="1002" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1002" s="3" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>2</v>
@@ -26459,10 +26477,10 @@
     </row>
     <row r="1003" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1003" s="3" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>2</v>
@@ -26479,10 +26497,10 @@
     </row>
     <row r="1004" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1004" s="3" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>2</v>
@@ -26491,55 +26509,91 @@
         <v>2</v>
       </c>
       <c r="E1004" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1004" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1005" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1005" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+      <c r="A1006" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1006" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="B1005" s="4" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C1005" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1005" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1005" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1005" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1006" s="3"/>
-      <c r="B1006" s="4"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
+      <c r="C1006" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1007" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1007" s="3"/>
-      <c r="B1007" s="4"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
+      <c r="A1007" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1007" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1008" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1008" s="3"/>
-      <c r="B1008" s="4"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
+      <c r="A1008" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1009" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1009" s="3"/>
@@ -26714,7 +26768,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B3EA0-25AB-4282-BB5A-0A66FDA4E347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1E016-10C4-4C27-85B0-65088C00896C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5992,9 +5992,6 @@
     <t>บ.คิงเพาเวอร์ อินเตอร์เนชั่นแนล จก.ร้านค้าปลอดอากรขาเข้า-ภายในอาคารศูนย์ลูกเรือบ.การบินไทย จก.(มหาชน)ท่าอากาศยานสุวรรณภูมิ(B)</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 30 ธ.ค. 2563</t>
-  </si>
-  <si>
     <t>สำนักงานศุลกากรมาบตาพุด (สมพ)</t>
   </si>
   <si>
@@ -6023,6 +6020,9 @@
   </si>
   <si>
     <t>ส่วนมาตรฐานวิเคราะห์สินค้า (สมศ.)</t>
+  </si>
+  <si>
+    <t>อัพเดทข้มูลล่าสุด : 4 มี.ค. 2564</t>
   </si>
 </sst>
 </file>
@@ -6033,7 +6033,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6059,7 +6059,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6428,18 +6428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B1008"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1959</v>
       </c>
@@ -6449,13 +6449,13 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1951</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>1096</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>5</v>
@@ -17540,7 +17540,7 @@
         <v>1097</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>5</v>
@@ -17560,7 +17560,7 @@
         <v>1098</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>5</v>
@@ -17580,7 +17580,7 @@
         <v>1099</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>2</v>
@@ -20357,10 +20357,10 @@
     </row>
     <row r="697" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A697" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B697" s="4" t="s">
         <v>1985</v>
-      </c>
-      <c r="B697" s="4" t="s">
-        <v>1986</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>5</v>
@@ -26557,10 +26557,10 @@
     </row>
     <row r="1007" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1007" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1007" s="4" t="s">
         <v>1987</v>
-      </c>
-      <c r="B1007" s="4" t="s">
-        <v>1988</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>2</v>
@@ -26577,10 +26577,10 @@
     </row>
     <row r="1008" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1008" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1008" s="4" t="s">
         <v>1989</v>
-      </c>
-      <c r="B1008" s="4" t="s">
-        <v>1990</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>2</v>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1E016-10C4-4C27-85B0-65088C00896C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82F56E-E3DC-4F28-A2CC-38743F8183FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2001">
   <si>
     <t>0010</t>
   </si>
@@ -2983,15 +2983,9 @@
     <t>1500</t>
   </si>
   <si>
-    <t>สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1510</t>
   </si>
   <si>
-    <t>ฝ่ายบริการศุลกากร สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1511</t>
   </si>
   <si>
@@ -3007,15 +3001,9 @@
     <t>1520</t>
   </si>
   <si>
-    <t>ฝ่ายบริการผู้โดยสาร สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1555</t>
   </si>
   <si>
-    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1700</t>
   </si>
   <si>
@@ -6022,7 +6010,49 @@
     <t>ส่วนมาตรฐานวิเคราะห์สินค้า (สมศ.)</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 4 มี.ค. 2564</t>
+    <t>อัพเดทข้มูลล่าสุด : 31 มี.ค. 2564</t>
+  </si>
+  <si>
+    <t>สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>ส่วนบริการศุลกากร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>คลังสินค้า บ.เทคโนโลยี เอเชียแปซิฟิค จำกัด (EXPRESS)</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>คลังสินค้า บริษัท เอเซีย กราวด์ เซอร์วิส จำกัด (EXPRESS)</t>
+  </si>
+  <si>
+    <t>ส่วนบริการผู้โดยสาร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>ด่านพรมแดนสิงขร</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>ที่มั่นคง คอนเทนเนอร์ บ. สยามคอมเมอร์เชียล ซีพอร์ท จำกัด</t>
+  </si>
+  <si>
+    <t>3579</t>
+  </si>
+  <si>
+    <t>สถานประกอบการของเร่งด่วนทางบก บริษัท สมาร์ท อะเลิร์ท จำกัด</t>
   </si>
 </sst>
 </file>
@@ -6428,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B1008"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6441,7 +6471,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6449,7 +6479,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -6457,22 +6487,22 @@
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.6">
@@ -10877,10 +10907,10 @@
     </row>
     <row r="223" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A223" s="3" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -10897,10 +10927,10 @@
     </row>
     <row r="224" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A224" s="3" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -11040,7 +11070,7 @@
         <v>454</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -16300,7 +16330,7 @@
         <v>976</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>977</v>
+        <v>1987</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>2</v>
@@ -16317,10 +16347,10 @@
     </row>
     <row r="495" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A495" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>979</v>
+        <v>1988</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>5</v>
@@ -16337,10 +16367,10 @@
     </row>
     <row r="496" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A496" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>5</v>
@@ -16357,10 +16387,10 @@
     </row>
     <row r="497" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A497" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>5</v>
@@ -16377,10 +16407,10 @@
     </row>
     <row r="498" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A498" s="3" t="s">
-        <v>984</v>
+        <v>1989</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>985</v>
+        <v>1990</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>5</v>
@@ -16397,13 +16427,13 @@
     </row>
     <row r="499" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A499" s="3" t="s">
-        <v>986</v>
+        <v>1991</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>987</v>
+        <v>1992</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>2</v>
@@ -16417,13 +16447,13 @@
     </row>
     <row r="500" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A500" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>989</v>
+        <v>1993</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>2</v>
@@ -16432,15 +16462,15 @@
         <v>5</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A501" s="3" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>991</v>
+        <v>1994</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>2</v>
@@ -16452,15 +16482,15 @@
         <v>5</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A502" s="3" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>2</v>
@@ -16477,10 +16507,10 @@
     </row>
     <row r="503" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A503" s="3" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>2</v>
@@ -16489,18 +16519,18 @@
         <v>2</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A504" s="3" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>2</v>
@@ -16517,10 +16547,10 @@
     </row>
     <row r="505" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A505" s="3" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>2</v>
@@ -16529,18 +16559,18 @@
         <v>2</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A506" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>2</v>
@@ -16557,10 +16587,10 @@
     </row>
     <row r="507" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A507" s="3" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>2</v>
@@ -16577,10 +16607,10 @@
     </row>
     <row r="508" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A508" s="3" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>2</v>
@@ -16597,10 +16627,10 @@
     </row>
     <row r="509" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A509" s="3" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>2</v>
@@ -16617,10 +16647,10 @@
     </row>
     <row r="510" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A510" s="3" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>2</v>
@@ -16637,10 +16667,10 @@
     </row>
     <row r="511" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A511" s="3" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>2</v>
@@ -16657,10 +16687,10 @@
     </row>
     <row r="512" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A512" s="3" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>2</v>
@@ -16672,15 +16702,15 @@
         <v>5</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A513" s="3" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>2</v>
@@ -16692,15 +16722,15 @@
         <v>5</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A514" s="3" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>2</v>
@@ -16712,15 +16742,15 @@
         <v>5</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A515" s="3" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2</v>
@@ -16737,10 +16767,10 @@
     </row>
     <row r="516" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A516" s="3" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>2</v>
@@ -16752,15 +16782,15 @@
         <v>5</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A517" s="3" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>2</v>
@@ -16772,15 +16802,15 @@
         <v>5</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A518" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>2</v>
@@ -16792,15 +16822,15 @@
         <v>5</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A519" s="3" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>2</v>
@@ -16809,18 +16839,18 @@
         <v>2</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A520" s="3" t="s">
-        <v>1957</v>
+        <v>1020</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1958</v>
+        <v>1021</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2</v>
@@ -16829,18 +16859,18 @@
         <v>2</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A521" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>2</v>
@@ -16857,30 +16887,30 @@
     </row>
     <row r="522" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A522" s="3" t="s">
-        <v>1030</v>
+        <v>1953</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1031</v>
+        <v>1954</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A523" s="3" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>2</v>
@@ -16889,7 +16919,7 @@
         <v>2</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>2</v>
@@ -16897,16 +16927,16 @@
     </row>
     <row r="524" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A524" s="3" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>5</v>
@@ -16917,10 +16947,10 @@
     </row>
     <row r="525" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A525" s="3" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>2</v>
@@ -16937,16 +16967,16 @@
     </row>
     <row r="526" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A526" s="3" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>5</v>
@@ -16957,30 +16987,30 @@
     </row>
     <row r="527" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A527" s="3" t="s">
-        <v>1040</v>
+        <v>1995</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1041</v>
+        <v>1996</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A528" s="3" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>2</v>
@@ -16997,10 +17027,10 @@
     </row>
     <row r="529" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A529" s="3" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>5</v>
@@ -17017,13 +17047,13 @@
     </row>
     <row r="530" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A530" s="3" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>5</v>
@@ -17032,21 +17062,21 @@
         <v>5</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A531" s="3" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>5</v>
@@ -17057,13 +17087,13 @@
     </row>
     <row r="532" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A532" s="3" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>5</v>
@@ -17072,15 +17102,15 @@
         <v>5</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A533" s="3" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2</v>
@@ -17097,16 +17127,16 @@
     </row>
     <row r="534" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A534" s="3" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>5</v>
@@ -17117,16 +17147,16 @@
     </row>
     <row r="535" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A535" s="3" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>5</v>
@@ -17137,33 +17167,33 @@
     </row>
     <row r="536" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A536" s="3" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A537" s="3" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>2</v>
@@ -17177,10 +17207,10 @@
     </row>
     <row r="538" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A538" s="3" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2</v>
@@ -17197,16 +17227,16 @@
     </row>
     <row r="539" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A539" s="3" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>5</v>
@@ -17217,16 +17247,16 @@
     </row>
     <row r="540" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A540" s="3" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>5</v>
@@ -17237,16 +17267,16 @@
     </row>
     <row r="541" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A541" s="3" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>5</v>
@@ -17257,13 +17287,13 @@
     </row>
     <row r="542" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A542" s="3" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>5</v>
@@ -17272,15 +17302,15 @@
         <v>5</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A543" s="3" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>2</v>
@@ -17297,10 +17327,10 @@
     </row>
     <row r="544" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A544" s="3" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>2</v>
@@ -17317,16 +17347,16 @@
     </row>
     <row r="545" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A545" s="3" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>5</v>
@@ -17337,16 +17367,16 @@
     </row>
     <row r="546" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A546" s="3" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>5</v>
@@ -17357,16 +17387,16 @@
     </row>
     <row r="547" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A547" s="3" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>5</v>
@@ -17377,36 +17407,36 @@
     </row>
     <row r="548" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A548" s="3" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A549" s="3" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>5</v>
@@ -17417,16 +17447,16 @@
     </row>
     <row r="550" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A550" s="3" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>5</v>
@@ -17437,13 +17467,13 @@
     </row>
     <row r="551" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A551" s="3" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>5</v>
@@ -17452,15 +17482,15 @@
         <v>5</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A552" s="3" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>2</v>
@@ -17477,10 +17507,10 @@
     </row>
     <row r="553" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A553" s="3" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>2</v>
@@ -17497,16 +17527,16 @@
     </row>
     <row r="554" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A554" s="3" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>5</v>
@@ -17517,13 +17547,13 @@
     </row>
     <row r="555" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A555" s="3" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1980</v>
+        <v>1087</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>5</v>
@@ -17532,18 +17562,18 @@
         <v>5</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A556" s="3" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1981</v>
+        <v>1089</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>5</v>
@@ -17552,18 +17582,18 @@
         <v>5</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A557" s="3" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1982</v>
+        <v>1091</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>2</v>
@@ -17572,21 +17602,21 @@
         <v>5</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A558" s="3" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>5</v>
@@ -17597,30 +17627,30 @@
     </row>
     <row r="559" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A559" s="3" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1101</v>
+        <v>1977</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A560" s="3" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1103</v>
+        <v>1978</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>5</v>
@@ -17632,15 +17662,15 @@
         <v>5</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A561" s="3" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1105</v>
+        <v>1979</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2</v>
@@ -17657,13 +17687,13 @@
     </row>
     <row r="562" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A562" s="3" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>2</v>
@@ -17677,13 +17707,13 @@
     </row>
     <row r="563" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A563" s="3" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>2</v>
@@ -17697,10 +17727,10 @@
     </row>
     <row r="564" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A564" s="3" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2</v>
@@ -17712,18 +17742,18 @@
         <v>5</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A565" s="3" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>2</v>
@@ -17737,10 +17767,10 @@
     </row>
     <row r="566" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A566" s="3" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -17757,10 +17787,10 @@
     </row>
     <row r="567" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A567" s="3" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>2</v>
@@ -17777,10 +17807,10 @@
     </row>
     <row r="568" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A568" s="3" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>2</v>
@@ -17797,10 +17827,10 @@
     </row>
     <row r="569" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A569" s="3" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>2</v>
@@ -17817,10 +17847,10 @@
     </row>
     <row r="570" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A570" s="3" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2</v>
@@ -17837,10 +17867,10 @@
     </row>
     <row r="571" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A571" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1961</v>
+        <v>1115</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>2</v>
@@ -17857,10 +17887,10 @@
     </row>
     <row r="572" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A572" s="3" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1962</v>
+        <v>1117</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>2</v>
@@ -17869,7 +17899,7 @@
         <v>2</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>2</v>
@@ -17877,10 +17907,10 @@
     </row>
     <row r="573" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A573" s="3" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1963</v>
+        <v>1119</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>2</v>
@@ -17889,7 +17919,7 @@
         <v>2</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>2</v>
@@ -17897,39 +17927,39 @@
     </row>
     <row r="574" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A574" s="3" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1128</v>
+        <v>1957</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A575" s="3" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1130</v>
+        <v>1958</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>2</v>
@@ -17937,10 +17967,10 @@
     </row>
     <row r="576" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A576" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>2</v>
@@ -17949,7 +17979,7 @@
         <v>2</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>2</v>
@@ -17957,36 +17987,36 @@
     </row>
     <row r="577" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A577" s="3" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A578" s="3" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>5</v>
@@ -17997,10 +18027,10 @@
     </row>
     <row r="579" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A579" s="3" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1137</v>
+        <v>1960</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>2</v>
@@ -18012,35 +18042,35 @@
         <v>5</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A580" s="3" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A581" s="3" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>2</v>
@@ -18057,10 +18087,10 @@
     </row>
     <row r="582" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A582" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>2</v>
@@ -18072,35 +18102,35 @@
         <v>5</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A583" s="3" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A584" s="3" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>2</v>
@@ -18112,15 +18142,15 @@
         <v>5</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A585" s="3" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>2</v>
@@ -18129,7 +18159,7 @@
         <v>2</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>2</v>
@@ -18137,19 +18167,19 @@
     </row>
     <row r="586" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A586" s="3" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>2</v>
@@ -18157,16 +18187,16 @@
     </row>
     <row r="587" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A587" s="3" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>5</v>
@@ -18177,19 +18207,19 @@
     </row>
     <row r="588" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A588" s="3" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F588" s="2" t="s">
         <v>2</v>
@@ -18197,10 +18227,10 @@
     </row>
     <row r="589" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A589" s="3" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>5</v>
@@ -18217,30 +18247,30 @@
     </row>
     <row r="590" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A590" s="3" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A591" s="3" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>5</v>
@@ -18257,10 +18287,10 @@
     </row>
     <row r="592" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A592" s="3" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>5</v>
@@ -18277,10 +18307,10 @@
     </row>
     <row r="593" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A593" s="3" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>5</v>
@@ -18297,10 +18327,10 @@
     </row>
     <row r="594" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A594" s="3" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>5</v>
@@ -18317,10 +18347,10 @@
     </row>
     <row r="595" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A595" s="3" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>5</v>
@@ -18337,13 +18367,13 @@
     </row>
     <row r="596" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A596" s="3" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>2</v>
@@ -18357,10 +18387,10 @@
     </row>
     <row r="597" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A597" s="3" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>5</v>
@@ -18377,10 +18407,10 @@
     </row>
     <row r="598" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A598" s="3" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>5</v>
@@ -18397,13 +18427,13 @@
     </row>
     <row r="599" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A599" s="3" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>2</v>
@@ -18417,13 +18447,13 @@
     </row>
     <row r="600" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A600" s="3" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>2</v>
@@ -18432,18 +18462,18 @@
         <v>5</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A601" s="3" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>2</v>
@@ -18452,15 +18482,15 @@
         <v>5</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A602" s="3" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>5</v>
@@ -18477,10 +18507,10 @@
     </row>
     <row r="603" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A603" s="3" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>2</v>
@@ -18492,15 +18522,15 @@
         <v>5</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A604" s="3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>2</v>
@@ -18512,15 +18542,15 @@
         <v>5</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A605" s="3" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>5</v>
@@ -18537,13 +18567,13 @@
     </row>
     <row r="606" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A606" s="3" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>2</v>
@@ -18557,10 +18587,10 @@
     </row>
     <row r="607" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A607" s="3" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>2</v>
@@ -18577,13 +18607,13 @@
     </row>
     <row r="608" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A608" s="3" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>2</v>
@@ -18592,18 +18622,18 @@
         <v>5</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A609" s="3" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>2</v>
@@ -18617,13 +18647,13 @@
     </row>
     <row r="610" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A610" s="3" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>2</v>
@@ -18637,13 +18667,13 @@
     </row>
     <row r="611" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A611" s="3" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>2</v>
@@ -18652,18 +18682,18 @@
         <v>5</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A612" s="3" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>2</v>
@@ -18677,10 +18707,10 @@
     </row>
     <row r="613" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A613" s="3" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>5</v>
@@ -18697,13 +18727,13 @@
     </row>
     <row r="614" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A614" s="3" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>2</v>
@@ -18717,10 +18747,10 @@
     </row>
     <row r="615" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A615" s="3" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>5</v>
@@ -18737,13 +18767,13 @@
     </row>
     <row r="616" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A616" s="3" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>2</v>
@@ -18757,10 +18787,10 @@
     </row>
     <row r="617" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A617" s="3" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>2</v>
@@ -18772,18 +18802,18 @@
         <v>5</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A618" s="3" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>2</v>
@@ -18797,10 +18827,10 @@
     </row>
     <row r="619" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A619" s="3" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2</v>
@@ -18817,10 +18847,10 @@
     </row>
     <row r="620" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A620" s="3" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2</v>
@@ -18832,15 +18862,15 @@
         <v>5</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A621" s="3" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>2</v>
@@ -18857,10 +18887,10 @@
     </row>
     <row r="622" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A622" s="3" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2</v>
@@ -18877,10 +18907,10 @@
     </row>
     <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A623" s="3" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2</v>
@@ -18897,10 +18927,10 @@
     </row>
     <row r="624" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A624" s="3" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1950</v>
+        <v>1217</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>2</v>
@@ -18917,10 +18947,10 @@
     </row>
     <row r="625" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A625" s="3" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2</v>
@@ -18937,13 +18967,13 @@
     </row>
     <row r="626" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A626" s="3" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>2</v>
@@ -18957,10 +18987,10 @@
     </row>
     <row r="627" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A627" s="3" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1232</v>
+        <v>1946</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>2</v>
@@ -18969,7 +18999,7 @@
         <v>2</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>2</v>
@@ -18977,10 +19007,10 @@
     </row>
     <row r="628" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A628" s="3" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>2</v>
@@ -18989,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>2</v>
@@ -18997,19 +19027,19 @@
     </row>
     <row r="629" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A629" s="3" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>2</v>
@@ -19017,10 +19047,10 @@
     </row>
     <row r="630" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A630" s="3" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>2</v>
@@ -19037,10 +19067,10 @@
     </row>
     <row r="631" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A631" s="3" t="s">
-        <v>1239</v>
+        <v>1997</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1240</v>
+        <v>1998</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>2</v>
@@ -19057,10 +19087,10 @@
     </row>
     <row r="632" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A632" s="3" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>2</v>
@@ -19069,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>2</v>
@@ -19077,19 +19107,19 @@
     </row>
     <row r="633" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A633" s="3" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F633" s="2" t="s">
         <v>2</v>
@@ -19097,10 +19127,10 @@
     </row>
     <row r="634" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A634" s="3" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>2</v>
@@ -19109,7 +19139,7 @@
         <v>2</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>2</v>
@@ -19117,10 +19147,10 @@
     </row>
     <row r="635" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A635" s="3" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>2</v>
@@ -19132,15 +19162,15 @@
         <v>5</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A636" s="3" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>2</v>
@@ -19157,13 +19187,13 @@
     </row>
     <row r="637" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A637" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>2</v>
@@ -19172,15 +19202,15 @@
         <v>5</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A638" s="3" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>2</v>
@@ -19197,10 +19227,10 @@
     </row>
     <row r="639" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A639" s="3" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>2</v>
@@ -19212,15 +19242,15 @@
         <v>5</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A640" s="3" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>2</v>
@@ -19237,10 +19267,10 @@
     </row>
     <row r="641" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A641" s="3" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>2</v>
@@ -19252,15 +19282,15 @@
         <v>5</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A642" s="3" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>2</v>
@@ -19277,10 +19307,10 @@
     </row>
     <row r="643" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A643" s="3" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>2</v>
@@ -19297,10 +19327,10 @@
     </row>
     <row r="644" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A644" s="3" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>2</v>
@@ -19317,10 +19347,10 @@
     </row>
     <row r="645" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A645" s="3" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>2</v>
@@ -19337,10 +19367,10 @@
     </row>
     <row r="646" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A646" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>2</v>
@@ -19357,10 +19387,10 @@
     </row>
     <row r="647" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A647" s="3" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2</v>
@@ -19377,10 +19407,10 @@
     </row>
     <row r="648" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A648" s="3" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>2</v>
@@ -19397,10 +19427,10 @@
     </row>
     <row r="649" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A649" s="3" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>2</v>
@@ -19417,10 +19447,10 @@
     </row>
     <row r="650" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A650" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>2</v>
@@ -19437,10 +19467,10 @@
     </row>
     <row r="651" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A651" s="3" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>2</v>
@@ -19457,10 +19487,10 @@
     </row>
     <row r="652" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A652" s="3" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>2</v>
@@ -19469,7 +19499,7 @@
         <v>2</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>2</v>
@@ -19477,10 +19507,10 @@
     </row>
     <row r="653" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A653" s="3" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>2</v>
@@ -19489,7 +19519,7 @@
         <v>2</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>2</v>
@@ -19497,10 +19527,10 @@
     </row>
     <row r="654" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A654" s="3" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>2</v>
@@ -19509,7 +19539,7 @@
         <v>2</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>2</v>
@@ -19517,10 +19547,10 @@
     </row>
     <row r="655" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A655" s="3" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1965</v>
+        <v>1276</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>2</v>
@@ -19537,10 +19567,10 @@
     </row>
     <row r="656" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A656" s="3" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>2</v>
@@ -19549,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>2</v>
@@ -19557,10 +19587,10 @@
     </row>
     <row r="657" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A657" s="3" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>2</v>
@@ -19569,7 +19599,7 @@
         <v>2</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>2</v>
@@ -19577,10 +19607,10 @@
     </row>
     <row r="658" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A658" s="3" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>2</v>
@@ -19589,7 +19619,7 @@
         <v>2</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>2</v>
@@ -19597,10 +19627,10 @@
     </row>
     <row r="659" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A659" s="3" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1295</v>
+        <v>1961</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>2</v>
@@ -19617,10 +19647,10 @@
     </row>
     <row r="660" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A660" s="3" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>2</v>
@@ -19637,10 +19667,10 @@
     </row>
     <row r="661" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A661" s="3" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>2</v>
@@ -19657,10 +19687,10 @@
     </row>
     <row r="662" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A662" s="3" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>2</v>
@@ -19672,15 +19702,15 @@
         <v>5</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A663" s="3" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>2</v>
@@ -19697,10 +19727,10 @@
     </row>
     <row r="664" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A664" s="3" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2</v>
@@ -19717,10 +19747,10 @@
     </row>
     <row r="665" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A665" s="3" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2</v>
@@ -19729,7 +19759,7 @@
         <v>2</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F665" s="2" t="s">
         <v>2</v>
@@ -19737,16 +19767,16 @@
     </row>
     <row r="666" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A666" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>5</v>
@@ -19757,19 +19787,19 @@
     </row>
     <row r="667" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A667" s="3" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F667" s="2" t="s">
         <v>2</v>
@@ -19777,16 +19807,16 @@
     </row>
     <row r="668" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A668" s="3" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>5</v>
@@ -19797,16 +19827,16 @@
     </row>
     <row r="669" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A669" s="3" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>2</v>
@@ -19817,30 +19847,30 @@
     </row>
     <row r="670" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A670" s="3" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A671" s="3" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2</v>
@@ -19857,30 +19887,30 @@
     </row>
     <row r="672" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A672" s="3" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A673" s="3" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2</v>
@@ -19889,7 +19919,7 @@
         <v>5</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>2</v>
@@ -19897,39 +19927,39 @@
     </row>
     <row r="674" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A674" s="3" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A675" s="3" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>2</v>
@@ -19937,33 +19967,33 @@
     </row>
     <row r="676" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A676" s="3" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A677" s="3" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>5</v>
@@ -19972,21 +20002,21 @@
         <v>5</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A678" s="3" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>5</v>
@@ -19997,10 +20027,10 @@
     </row>
     <row r="679" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A679" s="3" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2</v>
@@ -20009,7 +20039,7 @@
         <v>2</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>2</v>
@@ -20017,13 +20047,13 @@
     </row>
     <row r="680" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A680" s="3" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>5</v>
@@ -20037,50 +20067,50 @@
     </row>
     <row r="681" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A681" s="3" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A682" s="3" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D682" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A683" s="3" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2</v>
@@ -20089,7 +20119,7 @@
         <v>2</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>2</v>
@@ -20097,16 +20127,16 @@
     </row>
     <row r="684" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A684" s="3" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>5</v>
@@ -20117,19 +20147,19 @@
     </row>
     <row r="685" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A685" s="3" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>2</v>
@@ -20137,39 +20167,39 @@
     </row>
     <row r="686" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A686" s="3" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A687" s="3" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>2</v>
@@ -20177,19 +20207,19 @@
     </row>
     <row r="688" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A688" s="3" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>2</v>
@@ -20197,19 +20227,19 @@
     </row>
     <row r="689" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A689" s="3" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F689" s="2" t="s">
         <v>2</v>
@@ -20217,39 +20247,39 @@
     </row>
     <row r="690" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A690" s="3" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D690" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A691" s="3" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>2</v>
@@ -20257,30 +20287,30 @@
     </row>
     <row r="692" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A692" s="3" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D692" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A693" s="3" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2</v>
@@ -20289,7 +20319,7 @@
         <v>5</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F693" s="2" t="s">
         <v>2</v>
@@ -20297,19 +20327,19 @@
     </row>
     <row r="694" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A694" s="3" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F694" s="2" t="s">
         <v>2</v>
@@ -20317,10 +20347,10 @@
     </row>
     <row r="695" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A695" s="3" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2</v>
@@ -20337,13 +20367,13 @@
     </row>
     <row r="696" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A696" s="3" t="s">
-        <v>1368</v>
+        <v>1999</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1369</v>
+        <v>2000</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D696" s="2" t="s">
         <v>2</v>
@@ -20357,36 +20387,36 @@
     </row>
     <row r="697" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A697" s="3" t="s">
-        <v>1984</v>
+        <v>1356</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1985</v>
+        <v>1357</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A698" s="3" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>5</v>
@@ -20397,19 +20427,19 @@
     </row>
     <row r="699" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A699" s="3" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F699" s="2" t="s">
         <v>2</v>
@@ -20417,10 +20447,10 @@
     </row>
     <row r="700" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A700" s="3" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>2</v>
@@ -20437,36 +20467,36 @@
     </row>
     <row r="701" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A701" s="3" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A702" s="3" t="s">
-        <v>1378</v>
+        <v>1980</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1379</v>
+        <v>1981</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>5</v>
@@ -20477,16 +20507,16 @@
     </row>
     <row r="703" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A703" s="3" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>5</v>
@@ -20497,19 +20527,19 @@
     </row>
     <row r="704" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A704" s="3" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F704" s="2" t="s">
         <v>2</v>
@@ -20517,33 +20547,33 @@
     </row>
     <row r="705" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A705" s="3" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A706" s="3" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>5</v>
@@ -20552,21 +20582,21 @@
         <v>5</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A707" s="3" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>5</v>
@@ -20577,13 +20607,13 @@
     </row>
     <row r="708" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A708" s="3" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>5</v>
@@ -20592,15 +20622,15 @@
         <v>5</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A709" s="3" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>2</v>
@@ -20617,33 +20647,33 @@
     </row>
     <row r="710" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A710" s="3" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A711" s="3" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>5</v>
@@ -20652,15 +20682,15 @@
         <v>5</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A712" s="3" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2</v>
@@ -20669,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F712" s="2" t="s">
         <v>2</v>
@@ -20677,13 +20707,13 @@
     </row>
     <row r="713" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A713" s="3" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D713" s="2" t="s">
         <v>5</v>
@@ -20692,21 +20722,21 @@
         <v>5</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A714" s="3" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>5</v>
@@ -20717,16 +20747,16 @@
     </row>
     <row r="715" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A715" s="3" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>5</v>
@@ -20737,50 +20767,50 @@
     </row>
     <row r="716" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A716" s="3" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A717" s="3" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A718" s="3" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2</v>
@@ -20797,10 +20827,10 @@
     </row>
     <row r="719" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A719" s="3" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2</v>
@@ -20817,10 +20847,10 @@
     </row>
     <row r="720" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A720" s="3" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2</v>
@@ -20837,10 +20867,10 @@
     </row>
     <row r="721" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A721" s="3" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2</v>
@@ -20857,33 +20887,33 @@
     </row>
     <row r="722" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A722" s="3" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A723" s="3" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D723" s="2" t="s">
         <v>5</v>
@@ -20892,41 +20922,41 @@
         <v>5</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A724" s="3" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A725" s="3" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>5</v>
@@ -20937,39 +20967,39 @@
     </row>
     <row r="726" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A726" s="3" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A727" s="3" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F727" s="2" t="s">
         <v>2</v>
@@ -20977,33 +21007,33 @@
     </row>
     <row r="728" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A728" s="3" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A729" s="3" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>2</v>
@@ -21012,15 +21042,15 @@
         <v>5</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A730" s="3" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>2</v>
@@ -21037,10 +21067,10 @@
     </row>
     <row r="731" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A731" s="3" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>5</v>
@@ -21057,16 +21087,16 @@
     </row>
     <row r="732" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A732" s="3" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>5</v>
@@ -21077,16 +21107,16 @@
     </row>
     <row r="733" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A733" s="3" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>5</v>
@@ -21097,16 +21127,16 @@
     </row>
     <row r="734" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A734" s="3" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>5</v>
@@ -21117,16 +21147,16 @@
     </row>
     <row r="735" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A735" s="3" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>5</v>
@@ -21137,13 +21167,13 @@
     </row>
     <row r="736" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A736" s="3" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D736" s="2" t="s">
         <v>5</v>
@@ -21152,15 +21182,15 @@
         <v>5</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A737" s="3" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2</v>
@@ -21177,10 +21207,10 @@
     </row>
     <row r="738" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A738" s="3" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2</v>
@@ -21197,10 +21227,10 @@
     </row>
     <row r="739" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A739" s="3" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2</v>
@@ -21217,16 +21247,16 @@
     </row>
     <row r="740" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A740" s="3" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>5</v>
@@ -21237,13 +21267,13 @@
     </row>
     <row r="741" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A741" s="3" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>5</v>
@@ -21252,21 +21282,21 @@
         <v>5</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A742" s="3" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>5</v>
@@ -21277,13 +21307,13 @@
     </row>
     <row r="743" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A743" s="3" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D743" s="2" t="s">
         <v>5</v>
@@ -21292,21 +21322,21 @@
         <v>5</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A744" s="3" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>5</v>
@@ -21317,76 +21347,76 @@
     </row>
     <row r="745" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A745" s="3" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A746" s="3" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A747" s="3" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A748" s="3" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>5</v>
@@ -21397,10 +21427,10 @@
     </row>
     <row r="749" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A749" s="3" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>2</v>
@@ -21409,7 +21439,7 @@
         <v>2</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F749" s="2" t="s">
         <v>2</v>
@@ -21417,16 +21447,16 @@
     </row>
     <row r="750" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A750" s="3" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>5</v>
@@ -21437,10 +21467,10 @@
     </row>
     <row r="751" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A751" s="3" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>2</v>
@@ -21452,35 +21482,35 @@
         <v>5</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A752" s="3" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A753" s="3" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>2</v>
@@ -21492,24 +21522,24 @@
         <v>5</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A754" s="3" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>2</v>
@@ -21517,10 +21547,10 @@
     </row>
     <row r="755" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A755" s="3" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>2</v>
@@ -21532,15 +21562,15 @@
         <v>5</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A756" s="3" t="s">
-        <v>1966</v>
+        <v>1472</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1967</v>
+        <v>1473</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>2</v>
@@ -21552,24 +21582,24 @@
         <v>5</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A757" s="3" t="s">
-        <v>1968</v>
+        <v>1474</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1969</v>
+        <v>1475</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D757" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>2</v>
@@ -21577,33 +21607,33 @@
     </row>
     <row r="758" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A758" s="3" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A759" s="3" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>5</v>
@@ -21617,16 +21647,16 @@
     </row>
     <row r="760" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A760" s="3" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>5</v>
@@ -21637,16 +21667,16 @@
     </row>
     <row r="761" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A761" s="3" t="s">
-        <v>1492</v>
+        <v>1962</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1493</v>
+        <v>1963</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>5</v>
@@ -21657,10 +21687,10 @@
     </row>
     <row r="762" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A762" s="3" t="s">
-        <v>1494</v>
+        <v>1964</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1495</v>
+        <v>1965</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2</v>
@@ -21669,7 +21699,7 @@
         <v>2</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F762" s="2" t="s">
         <v>2</v>
@@ -21677,10 +21707,10 @@
     </row>
     <row r="763" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A763" s="3" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>5</v>
@@ -21697,16 +21727,16 @@
     </row>
     <row r="764" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A764" s="3" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>5</v>
@@ -21717,33 +21747,33 @@
     </row>
     <row r="765" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A765" s="3" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A766" s="3" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>5</v>
@@ -21757,10 +21787,10 @@
     </row>
     <row r="767" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A767" s="3" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2</v>
@@ -21777,30 +21807,30 @@
     </row>
     <row r="768" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A768" s="3" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A769" s="3" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2</v>
@@ -21817,10 +21847,10 @@
     </row>
     <row r="770" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A770" s="3" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2</v>
@@ -21829,24 +21859,24 @@
         <v>2</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A771" s="3" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>5</v>
@@ -21857,10 +21887,10 @@
     </row>
     <row r="772" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A772" s="3" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>2</v>
@@ -21869,7 +21899,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F772" s="2" t="s">
         <v>2</v>
@@ -21877,10 +21907,10 @@
     </row>
     <row r="773" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A773" s="3" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2</v>
@@ -21889,7 +21919,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>2</v>
@@ -21897,10 +21927,10 @@
     </row>
     <row r="774" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A774" s="3" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>2</v>
@@ -21909,7 +21939,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>2</v>
@@ -21917,30 +21947,30 @@
     </row>
     <row r="775" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A775" s="3" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A776" s="3" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>2</v>
@@ -21957,10 +21987,10 @@
     </row>
     <row r="777" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A777" s="3" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>2</v>
@@ -21969,7 +21999,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>2</v>
@@ -21977,30 +22007,30 @@
     </row>
     <row r="778" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A778" s="3" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1970</v>
+        <v>1513</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A779" s="3" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2</v>
@@ -22009,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F779" s="2" t="s">
         <v>2</v>
@@ -22017,50 +22047,50 @@
     </row>
     <row r="780" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A780" s="3" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A781" s="3" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1971</v>
+        <v>1519</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A782" s="3" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>2</v>
@@ -22069,7 +22099,7 @@
         <v>2</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F782" s="2" t="s">
         <v>2</v>
@@ -22077,10 +22107,10 @@
     </row>
     <row r="783" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A783" s="3" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>5</v>
@@ -22097,10 +22127,10 @@
     </row>
     <row r="784" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A784" s="3" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>2</v>
@@ -22117,130 +22147,130 @@
     </row>
     <row r="785" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A785" s="3" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A786" s="3" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1540</v>
+        <v>1967</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A787" s="3" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1973</v>
+        <v>1529</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A788" s="3" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1543</v>
+        <v>1968</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A789" s="3" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A790" s="3" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A791" s="3" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2</v>
@@ -22257,16 +22287,16 @@
     </row>
     <row r="792" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A792" s="3" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1551</v>
+        <v>1969</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>5</v>
@@ -22277,10 +22307,10 @@
     </row>
     <row r="793" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A793" s="3" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>2</v>
@@ -22297,30 +22327,30 @@
     </row>
     <row r="794" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A794" s="3" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A795" s="3" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2</v>
@@ -22337,30 +22367,30 @@
     </row>
     <row r="796" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A796" s="3" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A797" s="3" t="s">
-        <v>1560</v>
+        <v>1546</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>2</v>
@@ -22372,15 +22402,15 @@
         <v>5</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A798" s="3" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>2</v>
@@ -22397,33 +22427,33 @@
     </row>
     <row r="799" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A799" s="3" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A800" s="3" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>2</v>
@@ -22437,33 +22467,33 @@
     </row>
     <row r="801" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A801" s="3" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A802" s="3" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D802" s="2" t="s">
         <v>2</v>
@@ -22477,10 +22507,10 @@
     </row>
     <row r="803" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A803" s="3" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2</v>
@@ -22492,58 +22522,58 @@
         <v>5</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A804" s="3" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A805" s="3" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A806" s="3" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D806" s="2" t="s">
         <v>2</v>
@@ -22557,13 +22587,13 @@
     </row>
     <row r="807" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A807" s="3" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D807" s="2" t="s">
         <v>2</v>
@@ -22572,15 +22602,15 @@
         <v>5</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A808" s="3" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>2</v>
@@ -22592,75 +22622,75 @@
         <v>5</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A809" s="3" t="s">
-        <v>1584</v>
+        <v>1570</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A810" s="3" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E810" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A811" s="3" t="s">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1589</v>
+        <v>1575</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A812" s="3" t="s">
-        <v>1590</v>
+        <v>1576</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>2</v>
@@ -22672,78 +22702,78 @@
         <v>5</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A813" s="3" t="s">
-        <v>1592</v>
+        <v>1578</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A814" s="3" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A815" s="3" t="s">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1597</v>
+        <v>1583</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E815" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A816" s="3" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D816" s="2" t="s">
         <v>5</v>
@@ -22757,10 +22787,10 @@
     </row>
     <row r="817" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A817" s="3" t="s">
-        <v>1600</v>
+        <v>1586</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1601</v>
+        <v>1587</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>2</v>
@@ -22777,10 +22807,10 @@
     </row>
     <row r="818" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A818" s="3" t="s">
-        <v>1602</v>
+        <v>1588</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1603</v>
+        <v>1589</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>5</v>
@@ -22797,10 +22827,10 @@
     </row>
     <row r="819" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A819" s="3" t="s">
-        <v>1604</v>
+        <v>1590</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1605</v>
+        <v>1591</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2</v>
@@ -22817,10 +22847,10 @@
     </row>
     <row r="820" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A820" s="3" t="s">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1607</v>
+        <v>1593</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>5</v>
@@ -22837,30 +22867,30 @@
     </row>
     <row r="821" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A821" s="3" t="s">
-        <v>1608</v>
+        <v>1594</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1609</v>
+        <v>1595</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A822" s="3" t="s">
-        <v>1610</v>
+        <v>1596</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1611</v>
+        <v>1597</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>2</v>
@@ -22877,16 +22907,16 @@
     </row>
     <row r="823" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A823" s="3" t="s">
-        <v>1612</v>
+        <v>1598</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1613</v>
+        <v>1599</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>5</v>
@@ -22897,10 +22927,10 @@
     </row>
     <row r="824" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A824" s="3" t="s">
-        <v>1614</v>
+        <v>1600</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1615</v>
+        <v>1601</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>2</v>
@@ -22917,50 +22947,50 @@
     </row>
     <row r="825" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A825" s="3" t="s">
-        <v>1616</v>
+        <v>1602</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1617</v>
+        <v>1603</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A826" s="3" t="s">
-        <v>1618</v>
+        <v>1604</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A827" s="3" t="s">
-        <v>1620</v>
+        <v>1606</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1621</v>
+        <v>1607</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>2</v>
@@ -22977,16 +23007,16 @@
     </row>
     <row r="828" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A828" s="3" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1974</v>
+        <v>1609</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>5</v>
@@ -22997,10 +23027,10 @@
     </row>
     <row r="829" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A829" s="3" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>2</v>
@@ -23017,53 +23047,53 @@
     </row>
     <row r="830" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A830" s="3" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1975</v>
+        <v>1613</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A831" s="3" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A832" s="3" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D832" s="2" t="s">
         <v>2</v>
@@ -23077,30 +23107,30 @@
     </row>
     <row r="833" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A833" s="3" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1631</v>
+        <v>1970</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="834" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A834" s="3" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>2</v>
@@ -23117,10 +23147,10 @@
     </row>
     <row r="835" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A835" s="3" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>5</v>
@@ -23137,10 +23167,10 @@
     </row>
     <row r="836" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A836" s="3" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>2</v>
@@ -23157,30 +23187,30 @@
     </row>
     <row r="837" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A837" s="3" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1977</v>
+        <v>1625</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A838" s="3" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>5</v>
@@ -23197,13 +23227,13 @@
     </row>
     <row r="839" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A839" s="3" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>2</v>
@@ -23217,93 +23247,93 @@
     </row>
     <row r="840" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A840" s="3" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1643</v>
+        <v>1972</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A841" s="3" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A842" s="3" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1647</v>
+        <v>1973</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A843" s="3" t="s">
-        <v>1648</v>
+        <v>1634</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A844" s="3" t="s">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1651</v>
+        <v>1637</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D844" s="2" t="s">
         <v>2</v>
@@ -23317,50 +23347,50 @@
     </row>
     <row r="845" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A845" s="3" t="s">
-        <v>1652</v>
+        <v>1638</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A846" s="3" t="s">
-        <v>1654</v>
+        <v>1640</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1655</v>
+        <v>1641</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A847" s="3" t="s">
-        <v>1656</v>
+        <v>1642</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1657</v>
+        <v>1643</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>2</v>
@@ -23372,21 +23402,21 @@
         <v>5</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A848" s="3" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>5</v>
@@ -23397,10 +23427,10 @@
     </row>
     <row r="849" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A849" s="3" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>2</v>
@@ -23412,21 +23442,21 @@
         <v>5</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A850" s="3" t="s">
-        <v>1662</v>
+        <v>1648</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E850" s="2" t="s">
         <v>5</v>
@@ -23437,10 +23467,10 @@
     </row>
     <row r="851" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A851" s="3" t="s">
-        <v>1664</v>
+        <v>1650</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>2</v>
@@ -23452,15 +23482,15 @@
         <v>5</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A852" s="3" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>2</v>
@@ -23477,10 +23507,10 @@
     </row>
     <row r="853" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A853" s="3" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>2</v>
@@ -23497,10 +23527,10 @@
     </row>
     <row r="854" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A854" s="3" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>2</v>
@@ -23509,18 +23539,18 @@
         <v>2</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A855" s="3" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>2</v>
@@ -23537,10 +23567,10 @@
     </row>
     <row r="856" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A856" s="3" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>2</v>
@@ -23557,10 +23587,10 @@
     </row>
     <row r="857" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A857" s="3" t="s">
-        <v>1675</v>
+        <v>1661</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1676</v>
+        <v>1662</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>2</v>
@@ -23577,10 +23607,10 @@
     </row>
     <row r="858" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A858" s="3" t="s">
-        <v>1677</v>
+        <v>1663</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1678</v>
+        <v>1664</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>2</v>
@@ -23597,10 +23627,10 @@
     </row>
     <row r="859" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A859" s="3" t="s">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1680</v>
+        <v>1666</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>2</v>
@@ -23609,18 +23639,18 @@
         <v>2</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A860" s="3" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>2</v>
@@ -23629,18 +23659,18 @@
         <v>2</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A861" s="3" t="s">
-        <v>1683</v>
+        <v>1669</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1684</v>
+        <v>1670</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>2</v>
@@ -23657,10 +23687,10 @@
     </row>
     <row r="862" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A862" s="3" t="s">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1663</v>
+        <v>1672</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>2</v>
@@ -23677,10 +23707,10 @@
     </row>
     <row r="863" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A863" s="3" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>669</v>
+        <v>1674</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>2</v>
@@ -23689,18 +23719,18 @@
         <v>2</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A864" s="3" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>2</v>
@@ -23717,10 +23747,10 @@
     </row>
     <row r="865" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A865" s="3" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>2</v>
@@ -23729,18 +23759,18 @@
         <v>2</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A866" s="3" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>2</v>
@@ -23757,10 +23787,10 @@
     </row>
     <row r="867" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A867" s="3" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1693</v>
+        <v>1659</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>2</v>
@@ -23777,10 +23807,10 @@
     </row>
     <row r="868" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A868" s="3" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1695</v>
+        <v>669</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>2</v>
@@ -23789,18 +23819,18 @@
         <v>2</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A869" s="3" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1695</v>
+        <v>1659</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>2</v>
@@ -23817,10 +23847,10 @@
     </row>
     <row r="870" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A870" s="3" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>2</v>
@@ -23837,10 +23867,10 @@
     </row>
     <row r="871" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A871" s="3" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>2</v>
@@ -23857,10 +23887,10 @@
     </row>
     <row r="872" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A872" s="3" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>2</v>
@@ -23877,10 +23907,10 @@
     </row>
     <row r="873" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A873" s="3" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>2</v>
@@ -23897,10 +23927,10 @@
     </row>
     <row r="874" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A874" s="3" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>2</v>
@@ -23917,10 +23947,10 @@
     </row>
     <row r="875" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A875" s="3" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>2</v>
@@ -23937,10 +23967,10 @@
     </row>
     <row r="876" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A876" s="3" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>2</v>
@@ -23957,10 +23987,10 @@
     </row>
     <row r="877" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A877" s="3" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1663</v>
+        <v>1695</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>2</v>
@@ -23977,10 +24007,10 @@
     </row>
     <row r="878" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A878" s="3" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>2</v>
@@ -23997,10 +24027,10 @@
     </row>
     <row r="879" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A879" s="3" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>2</v>
@@ -24017,10 +24047,10 @@
     </row>
     <row r="880" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A880" s="3" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>2</v>
@@ -24037,10 +24067,10 @@
     </row>
     <row r="881" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A881" s="3" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>2</v>
@@ -24057,10 +24087,10 @@
     </row>
     <row r="882" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A882" s="3" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1718</v>
+        <v>1659</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>2</v>
@@ -24077,10 +24107,10 @@
     </row>
     <row r="883" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A883" s="3" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1720</v>
+        <v>1706</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>2</v>
@@ -24097,10 +24127,10 @@
     </row>
     <row r="884" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A884" s="3" t="s">
-        <v>1721</v>
+        <v>1707</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1722</v>
+        <v>1708</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>2</v>
@@ -24117,10 +24147,10 @@
     </row>
     <row r="885" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A885" s="3" t="s">
-        <v>1723</v>
+        <v>1709</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1724</v>
+        <v>1710</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>2</v>
@@ -24137,10 +24167,10 @@
     </row>
     <row r="886" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A886" s="3" t="s">
-        <v>1725</v>
+        <v>1711</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1726</v>
+        <v>1712</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>2</v>
@@ -24157,10 +24187,10 @@
     </row>
     <row r="887" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A887" s="3" t="s">
-        <v>1727</v>
+        <v>1713</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1728</v>
+        <v>1714</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>2</v>
@@ -24177,10 +24207,10 @@
     </row>
     <row r="888" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A888" s="3" t="s">
-        <v>1729</v>
+        <v>1715</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1730</v>
+        <v>1716</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>2</v>
@@ -24197,10 +24227,10 @@
     </row>
     <row r="889" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A889" s="3" t="s">
-        <v>1731</v>
+        <v>1717</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1732</v>
+        <v>1718</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>2</v>
@@ -24217,10 +24247,10 @@
     </row>
     <row r="890" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A890" s="3" t="s">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1734</v>
+        <v>1720</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>2</v>
@@ -24237,10 +24267,10 @@
     </row>
     <row r="891" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A891" s="3" t="s">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1736</v>
+        <v>1722</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>2</v>
@@ -24257,10 +24287,10 @@
     </row>
     <row r="892" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A892" s="3" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>2</v>
@@ -24277,10 +24307,10 @@
     </row>
     <row r="893" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A893" s="3" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1740</v>
+        <v>1726</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>2</v>
@@ -24297,10 +24327,10 @@
     </row>
     <row r="894" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A894" s="3" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>2</v>
@@ -24317,10 +24347,10 @@
     </row>
     <row r="895" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A895" s="3" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1744</v>
+        <v>1730</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>2</v>
@@ -24337,10 +24367,10 @@
     </row>
     <row r="896" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A896" s="3" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>2</v>
@@ -24357,10 +24387,10 @@
     </row>
     <row r="897" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A897" s="3" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>2</v>
@@ -24377,10 +24407,10 @@
     </row>
     <row r="898" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A898" s="3" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>2</v>
@@ -24397,10 +24427,10 @@
     </row>
     <row r="899" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A899" s="3" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>2</v>
@@ -24417,10 +24447,10 @@
     </row>
     <row r="900" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A900" s="3" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>2</v>
@@ -24437,10 +24467,10 @@
     </row>
     <row r="901" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A901" s="3" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>2</v>
@@ -24457,10 +24487,10 @@
     </row>
     <row r="902" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A902" s="3" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1663</v>
+        <v>1744</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>2</v>
@@ -24477,10 +24507,10 @@
     </row>
     <row r="903" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A903" s="3" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>2</v>
@@ -24497,10 +24527,10 @@
     </row>
     <row r="904" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A904" s="3" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>2</v>
@@ -24517,10 +24547,10 @@
     </row>
     <row r="905" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A905" s="3" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1762</v>
+        <v>1734</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>2</v>
@@ -24537,10 +24567,10 @@
     </row>
     <row r="906" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A906" s="3" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1663</v>
+        <v>1751</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>2</v>
@@ -24557,10 +24587,10 @@
     </row>
     <row r="907" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A907" s="3" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1765</v>
+        <v>1659</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>2</v>
@@ -24577,10 +24607,10 @@
     </row>
     <row r="908" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A908" s="3" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>2</v>
@@ -24589,18 +24619,18 @@
         <v>2</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A909" s="3" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>2</v>
@@ -24617,10 +24647,10 @@
     </row>
     <row r="910" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A910" s="3" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>2</v>
@@ -24637,10 +24667,10 @@
     </row>
     <row r="911" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A911" s="3" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1773</v>
+        <v>1659</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>2</v>
@@ -24657,10 +24687,10 @@
     </row>
     <row r="912" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A912" s="3" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>2</v>
@@ -24677,10 +24707,10 @@
     </row>
     <row r="913" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A913" s="3" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>2</v>
@@ -24689,18 +24719,18 @@
         <v>2</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A914" s="3" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1779</v>
+        <v>1765</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>2</v>
@@ -24717,10 +24747,10 @@
     </row>
     <row r="915" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A915" s="3" t="s">
-        <v>1780</v>
+        <v>1766</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1781</v>
+        <v>1767</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>2</v>
@@ -24737,10 +24767,10 @@
     </row>
     <row r="916" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A916" s="3" t="s">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1783</v>
+        <v>1769</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>2</v>
@@ -24757,10 +24787,10 @@
     </row>
     <row r="917" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A917" s="3" t="s">
-        <v>1784</v>
+        <v>1770</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>2</v>
@@ -24777,10 +24807,10 @@
     </row>
     <row r="918" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A918" s="3" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1978</v>
+        <v>1773</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>2</v>
@@ -24797,10 +24827,10 @@
     </row>
     <row r="919" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A919" s="3" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1979</v>
+        <v>1775</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>2</v>
@@ -24817,10 +24847,10 @@
     </row>
     <row r="920" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A920" s="3" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>2</v>
@@ -24837,10 +24867,10 @@
     </row>
     <row r="921" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A921" s="3" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>2</v>
@@ -24857,10 +24887,10 @@
     </row>
     <row r="922" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A922" s="3" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>2</v>
@@ -24877,10 +24907,10 @@
     </row>
     <row r="923" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A923" s="3" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1795</v>
+        <v>1974</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>2</v>
@@ -24897,10 +24927,10 @@
     </row>
     <row r="924" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A924" s="3" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1795</v>
+        <v>1975</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>2</v>
@@ -24917,10 +24947,10 @@
     </row>
     <row r="925" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A925" s="3" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>2</v>
@@ -24937,10 +24967,10 @@
     </row>
     <row r="926" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A926" s="3" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>2</v>
@@ -24957,10 +24987,10 @@
     </row>
     <row r="927" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A927" s="3" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>2</v>
@@ -24977,10 +25007,10 @@
     </row>
     <row r="928" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A928" s="3" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>2</v>
@@ -24997,10 +25027,10 @@
     </row>
     <row r="929" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A929" s="3" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>2</v>
@@ -25017,10 +25047,10 @@
     </row>
     <row r="930" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A930" s="3" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>2</v>
@@ -25037,10 +25067,10 @@
     </row>
     <row r="931" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A931" s="3" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>2</v>
@@ -25057,10 +25087,10 @@
     </row>
     <row r="932" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A932" s="3" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>2</v>
@@ -25077,10 +25107,10 @@
     </row>
     <row r="933" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A933" s="3" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>2</v>
@@ -25097,10 +25127,10 @@
     </row>
     <row r="934" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A934" s="3" t="s">
-        <v>1812</v>
+        <v>1798</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>2</v>
@@ -25117,10 +25147,10 @@
     </row>
     <row r="935" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A935" s="3" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>2</v>
@@ -25137,10 +25167,10 @@
     </row>
     <row r="936" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A936" s="3" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>2</v>
@@ -25157,10 +25187,10 @@
     </row>
     <row r="937" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A937" s="3" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>2</v>
@@ -25177,10 +25207,10 @@
     </row>
     <row r="938" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A938" s="3" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2</v>
@@ -25197,10 +25227,10 @@
     </row>
     <row r="939" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A939" s="3" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>2</v>
@@ -25217,10 +25247,10 @@
     </row>
     <row r="940" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A940" s="3" t="s">
-        <v>1824</v>
+        <v>1810</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1825</v>
+        <v>1811</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>2</v>
@@ -25237,10 +25267,10 @@
     </row>
     <row r="941" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A941" s="3" t="s">
-        <v>1826</v>
+        <v>1812</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1827</v>
+        <v>1813</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>2</v>
@@ -25257,10 +25287,10 @@
     </row>
     <row r="942" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A942" s="3" t="s">
-        <v>1828</v>
+        <v>1814</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>2</v>
@@ -25277,10 +25307,10 @@
     </row>
     <row r="943" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A943" s="3" t="s">
-        <v>1830</v>
+        <v>1816</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>2</v>
@@ -25297,10 +25327,10 @@
     </row>
     <row r="944" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A944" s="3" t="s">
-        <v>1832</v>
+        <v>1818</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1795</v>
+        <v>1819</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>2</v>
@@ -25317,10 +25347,10 @@
     </row>
     <row r="945" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A945" s="3" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1795</v>
+        <v>1821</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>2</v>
@@ -25337,10 +25367,10 @@
     </row>
     <row r="946" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A946" s="3" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1795</v>
+        <v>1823</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>2</v>
@@ -25357,10 +25387,10 @@
     </row>
     <row r="947" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A947" s="3" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1813</v>
+        <v>1825</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>2</v>
@@ -25377,10 +25407,10 @@
     </row>
     <row r="948" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A948" s="3" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1795</v>
+        <v>1827</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>2</v>
@@ -25397,10 +25427,10 @@
     </row>
     <row r="949" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A949" s="3" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1838</v>
+        <v>1791</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>2</v>
@@ -25417,10 +25447,10 @@
     </row>
     <row r="950" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A950" s="3" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1840</v>
+        <v>1791</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>2</v>
@@ -25437,10 +25467,10 @@
     </row>
     <row r="951" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A951" s="3" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1842</v>
+        <v>1791</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>2</v>
@@ -25457,10 +25487,10 @@
     </row>
     <row r="952" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A952" s="3" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1844</v>
+        <v>1809</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>2</v>
@@ -25477,10 +25507,10 @@
     </row>
     <row r="953" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A953" s="3" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1846</v>
+        <v>1791</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>2</v>
@@ -25497,10 +25527,10 @@
     </row>
     <row r="954" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A954" s="3" t="s">
-        <v>1847</v>
+        <v>1833</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1848</v>
+        <v>1834</v>
       </c>
       <c r="C954" s="2" t="s">
         <v>2</v>
@@ -25517,10 +25547,10 @@
     </row>
     <row r="955" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A955" s="3" t="s">
-        <v>1849</v>
+        <v>1835</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1850</v>
+        <v>1836</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>2</v>
@@ -25529,18 +25559,18 @@
         <v>2</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A956" s="3" t="s">
-        <v>1851</v>
+        <v>1837</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1852</v>
+        <v>1838</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>2</v>
@@ -25557,10 +25587,10 @@
     </row>
     <row r="957" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A957" s="3" t="s">
-        <v>1853</v>
+        <v>1839</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1854</v>
+        <v>1840</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>2</v>
@@ -25577,10 +25607,10 @@
     </row>
     <row r="958" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A958" s="3" t="s">
-        <v>1855</v>
+        <v>1841</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1856</v>
+        <v>1842</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>2</v>
@@ -25597,10 +25627,10 @@
     </row>
     <row r="959" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A959" s="3" t="s">
-        <v>1857</v>
+        <v>1843</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>2</v>
@@ -25617,10 +25647,10 @@
     </row>
     <row r="960" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A960" s="3" t="s">
-        <v>1859</v>
+        <v>1845</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1860</v>
+        <v>1846</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>2</v>
@@ -25637,10 +25667,10 @@
     </row>
     <row r="961" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A961" s="3" t="s">
-        <v>1861</v>
+        <v>1847</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1862</v>
+        <v>1848</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>2</v>
@@ -25657,10 +25687,10 @@
     </row>
     <row r="962" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A962" s="3" t="s">
-        <v>1863</v>
+        <v>1849</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1864</v>
+        <v>1850</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>2</v>
@@ -25677,10 +25707,10 @@
     </row>
     <row r="963" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A963" s="3" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="C963" s="2" t="s">
         <v>2</v>
@@ -25689,18 +25719,18 @@
         <v>2</v>
       </c>
       <c r="E963" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A964" s="3" t="s">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1712</v>
+        <v>1854</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>2</v>
@@ -25709,18 +25739,18 @@
         <v>2</v>
       </c>
       <c r="E964" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A965" s="3" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>2</v>
@@ -25729,18 +25759,18 @@
         <v>2</v>
       </c>
       <c r="E965" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A966" s="3" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>2</v>
@@ -25757,10 +25787,10 @@
     </row>
     <row r="967" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A967" s="3" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>2</v>
@@ -25777,10 +25807,10 @@
     </row>
     <row r="968" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A968" s="3" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>2</v>
@@ -25789,18 +25819,18 @@
         <v>2</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A969" s="3" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1877</v>
+        <v>1708</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>2</v>
@@ -25809,18 +25839,18 @@
         <v>2</v>
       </c>
       <c r="E969" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A970" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1825</v>
+        <v>1865</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>2</v>
@@ -25829,18 +25859,18 @@
         <v>2</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A971" s="3" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1825</v>
+        <v>1867</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>2</v>
@@ -25849,18 +25879,18 @@
         <v>2</v>
       </c>
       <c r="E971" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F971" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A972" s="3" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>2</v>
@@ -25869,18 +25899,18 @@
         <v>2</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F972" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A973" s="3" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>2</v>
@@ -25889,18 +25919,18 @@
         <v>2</v>
       </c>
       <c r="E973" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F973" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A974" s="3" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>2</v>
@@ -25909,18 +25939,18 @@
         <v>2</v>
       </c>
       <c r="E974" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F974" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A975" s="3" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1887</v>
+        <v>1821</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>2</v>
@@ -25937,10 +25967,10 @@
     </row>
     <row r="976" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A976" s="3" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1887</v>
+        <v>1821</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>2</v>
@@ -25957,10 +25987,10 @@
     </row>
     <row r="977" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A977" s="3" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>2</v>
@@ -25977,10 +26007,10 @@
     </row>
     <row r="978" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A978" s="3" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>2</v>
@@ -25989,18 +26019,18 @@
         <v>2</v>
       </c>
       <c r="E978" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A979" s="3" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>2</v>
@@ -26009,18 +26039,18 @@
         <v>2</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A980" s="3" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>2</v>
@@ -26037,10 +26067,10 @@
     </row>
     <row r="981" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A981" s="3" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>2</v>
@@ -26049,18 +26079,18 @@
         <v>2</v>
       </c>
       <c r="E981" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A982" s="3" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1897</v>
+        <v>1883</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>2</v>
@@ -26077,10 +26107,10 @@
     </row>
     <row r="983" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A983" s="3" t="s">
-        <v>1898</v>
+        <v>1886</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>2</v>
@@ -26089,18 +26119,18 @@
         <v>2</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A984" s="3" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1901</v>
+        <v>1883</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>2</v>
@@ -26112,15 +26142,15 @@
         <v>5</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A985" s="3" t="s">
-        <v>1902</v>
+        <v>1888</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1903</v>
+        <v>1889</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>2</v>
@@ -26129,7 +26159,7 @@
         <v>2</v>
       </c>
       <c r="E985" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F985" s="2" t="s">
         <v>2</v>
@@ -26137,10 +26167,10 @@
     </row>
     <row r="986" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A986" s="3" t="s">
-        <v>1904</v>
+        <v>1890</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1905</v>
+        <v>1891</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>2</v>
@@ -26157,10 +26187,10 @@
     </row>
     <row r="987" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A987" s="3" t="s">
-        <v>1906</v>
+        <v>1892</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1907</v>
+        <v>1893</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>2</v>
@@ -26169,18 +26199,18 @@
         <v>2</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F987" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A988" s="3" t="s">
-        <v>1908</v>
+        <v>1894</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1909</v>
+        <v>1895</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>2</v>
@@ -26197,10 +26227,10 @@
     </row>
     <row r="989" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A989" s="3" t="s">
-        <v>1910</v>
+        <v>1896</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>1911</v>
+        <v>1897</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>2</v>
@@ -26212,15 +26242,15 @@
         <v>5</v>
       </c>
       <c r="F989" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A990" s="3" t="s">
-        <v>1912</v>
+        <v>1898</v>
       </c>
       <c r="B990" s="4" t="s">
-        <v>1913</v>
+        <v>1899</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>2</v>
@@ -26232,15 +26262,15 @@
         <v>5</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A991" s="3" t="s">
-        <v>1914</v>
+        <v>1900</v>
       </c>
       <c r="B991" s="4" t="s">
-        <v>1915</v>
+        <v>1901</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>2</v>
@@ -26257,10 +26287,10 @@
     </row>
     <row r="992" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A992" s="3" t="s">
-        <v>1916</v>
+        <v>1902</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>1917</v>
+        <v>1903</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>2</v>
@@ -26269,18 +26299,18 @@
         <v>2</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A993" s="3" t="s">
-        <v>1918</v>
+        <v>1904</v>
       </c>
       <c r="B993" s="4" t="s">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>2</v>
@@ -26297,10 +26327,10 @@
     </row>
     <row r="994" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A994" s="3" t="s">
-        <v>1920</v>
+        <v>1906</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>1921</v>
+        <v>1907</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>2</v>
@@ -26317,10 +26347,10 @@
     </row>
     <row r="995" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A995" s="3" t="s">
-        <v>1922</v>
+        <v>1908</v>
       </c>
       <c r="B995" s="4" t="s">
-        <v>1923</v>
+        <v>1909</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>2</v>
@@ -26337,10 +26367,10 @@
     </row>
     <row r="996" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A996" s="3" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>1925</v>
+        <v>1911</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>2</v>
@@ -26357,10 +26387,10 @@
     </row>
     <row r="997" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A997" s="3" t="s">
-        <v>1926</v>
+        <v>1912</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1927</v>
+        <v>1913</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>2</v>
@@ -26377,10 +26407,10 @@
     </row>
     <row r="998" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A998" s="3" t="s">
-        <v>1928</v>
+        <v>1914</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>1929</v>
+        <v>1915</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>2</v>
@@ -26397,10 +26427,10 @@
     </row>
     <row r="999" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A999" s="3" t="s">
-        <v>1930</v>
+        <v>1916</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>1931</v>
+        <v>1917</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>2</v>
@@ -26409,18 +26439,18 @@
         <v>2</v>
       </c>
       <c r="E999" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F999" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1000" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1000" s="3" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>1933</v>
+        <v>1919</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>2</v>
@@ -26429,18 +26459,18 @@
         <v>2</v>
       </c>
       <c r="E1000" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1001" s="3" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>2</v>
@@ -26449,18 +26479,18 @@
         <v>2</v>
       </c>
       <c r="E1001" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1002" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1002" s="3" t="s">
-        <v>1936</v>
+        <v>1922</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>2</v>
@@ -26477,10 +26507,10 @@
     </row>
     <row r="1003" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1003" s="3" t="s">
-        <v>1938</v>
+        <v>1924</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>2</v>
@@ -26497,10 +26527,10 @@
     </row>
     <row r="1004" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1004" s="3" t="s">
-        <v>1940</v>
+        <v>1926</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1941</v>
+        <v>1927</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>2</v>
@@ -26517,10 +26547,10 @@
     </row>
     <row r="1005" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1005" s="3" t="s">
-        <v>1942</v>
+        <v>1928</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="C1005" s="2" t="s">
         <v>2</v>
@@ -26537,10 +26567,10 @@
     </row>
     <row r="1006" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1006" s="3" t="s">
-        <v>1944</v>
+        <v>1930</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1945</v>
+        <v>1931</v>
       </c>
       <c r="C1006" s="2" t="s">
         <v>2</v>
@@ -26557,10 +26587,10 @@
     </row>
     <row r="1007" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1007" s="3" t="s">
-        <v>1986</v>
+        <v>1932</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>1987</v>
+        <v>1933</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>2</v>
@@ -26569,18 +26599,18 @@
         <v>2</v>
       </c>
       <c r="E1007" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1007" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1008" s="3" t="s">
-        <v>1988</v>
+        <v>1934</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>1989</v>
+        <v>1935</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>2</v>
@@ -26589,51 +26619,111 @@
         <v>2</v>
       </c>
       <c r="E1008" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1008" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1009" s="3"/>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
+      <c r="A1009" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1010" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1010" s="3"/>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="2"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="2"/>
-      <c r="F1010" s="2"/>
+      <c r="A1010" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1011" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1011" s="3"/>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="2"/>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
+      <c r="A1011" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1012" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1012" s="3"/>
-      <c r="B1012" s="4"/>
-      <c r="C1012" s="2"/>
-      <c r="D1012" s="2"/>
-      <c r="E1012" s="2"/>
-      <c r="F1012" s="2"/>
+      <c r="A1012" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1013" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1013" s="3"/>
-      <c r="B1013" s="4"/>
-      <c r="C1013" s="2"/>
-      <c r="D1013" s="2"/>
-      <c r="E1013" s="2"/>
-      <c r="F1013" s="2"/>
+      <c r="A1013" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1014" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1014" s="3"/>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82F56E-E3DC-4F28-A2CC-38743F8183FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1E016-10C4-4C27-85B0-65088C00896C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1991">
   <si>
     <t>0010</t>
   </si>
@@ -2983,9 +2983,15 @@
     <t>1500</t>
   </si>
   <si>
+    <t>สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>1510</t>
   </si>
   <si>
+    <t>ฝ่ายบริการศุลกากร สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>1511</t>
   </si>
   <si>
@@ -3001,9 +3007,15 @@
     <t>1520</t>
   </si>
   <si>
+    <t>ฝ่ายบริการผู้โดยสาร สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>1555</t>
   </si>
   <si>
+    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>1700</t>
   </si>
   <si>
@@ -6010,49 +6022,7 @@
     <t>ส่วนมาตรฐานวิเคราะห์สินค้า (สมศ.)</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 31 มี.ค. 2564</t>
-  </si>
-  <si>
-    <t>สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
-  </si>
-  <si>
-    <t>ส่วนบริการศุลกากร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
-  </si>
-  <si>
-    <t>1513</t>
-  </si>
-  <si>
-    <t>คลังสินค้า บ.เทคโนโลยี เอเชียแปซิฟิค จำกัด (EXPRESS)</t>
-  </si>
-  <si>
-    <t>1514</t>
-  </si>
-  <si>
-    <t>คลังสินค้า บริษัท เอเซีย กราวด์ เซอร์วิส จำกัด (EXPRESS)</t>
-  </si>
-  <si>
-    <t>ส่วนบริการผู้โดยสาร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
-  </si>
-  <si>
-    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>ด่านพรมแดนสิงขร</t>
-  </si>
-  <si>
-    <t>2853</t>
-  </si>
-  <si>
-    <t>ที่มั่นคง คอนเทนเนอร์ บ. สยามคอมเมอร์เชียล ซีพอร์ท จำกัด</t>
-  </si>
-  <si>
-    <t>3579</t>
-  </si>
-  <si>
-    <t>สถานประกอบการของเร่งด่วนทางบก บริษัท สมาร์ท อะเลิร์ท จำกัด</t>
+    <t>อัพเดทข้มูลล่าสุด : 4 มี.ค. 2564</t>
   </si>
 </sst>
 </file>
@@ -6458,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6471,7 +6441,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6479,7 +6449,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -6487,22 +6457,22 @@
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1944</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.6">
@@ -10907,10 +10877,10 @@
     </row>
     <row r="223" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A223" s="3" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -10927,10 +10897,10 @@
     </row>
     <row r="224" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A224" s="3" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -11070,7 +11040,7 @@
         <v>454</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -16330,7 +16300,7 @@
         <v>976</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1987</v>
+        <v>977</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>2</v>
@@ -16347,10 +16317,10 @@
     </row>
     <row r="495" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A495" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1988</v>
+        <v>979</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>5</v>
@@ -16367,10 +16337,10 @@
     </row>
     <row r="496" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A496" s="3" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>5</v>
@@ -16387,10 +16357,10 @@
     </row>
     <row r="497" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A497" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>5</v>
@@ -16407,10 +16377,10 @@
     </row>
     <row r="498" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A498" s="3" t="s">
-        <v>1989</v>
+        <v>984</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1990</v>
+        <v>985</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>5</v>
@@ -16427,13 +16397,13 @@
     </row>
     <row r="499" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A499" s="3" t="s">
-        <v>1991</v>
+        <v>986</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1992</v>
+        <v>987</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>2</v>
@@ -16447,13 +16417,13 @@
     </row>
     <row r="500" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A500" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1993</v>
+        <v>989</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>2</v>
@@ -16462,15 +16432,15 @@
         <v>5</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A501" s="3" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1994</v>
+        <v>991</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>2</v>
@@ -16482,15 +16452,15 @@
         <v>5</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A502" s="3" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>2</v>
@@ -16507,10 +16477,10 @@
     </row>
     <row r="503" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A503" s="3" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>2</v>
@@ -16519,18 +16489,18 @@
         <v>2</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A504" s="3" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>2</v>
@@ -16547,10 +16517,10 @@
     </row>
     <row r="505" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A505" s="3" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>2</v>
@@ -16559,18 +16529,18 @@
         <v>2</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A506" s="3" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>2</v>
@@ -16587,10 +16557,10 @@
     </row>
     <row r="507" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A507" s="3" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>2</v>
@@ -16607,10 +16577,10 @@
     </row>
     <row r="508" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A508" s="3" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>2</v>
@@ -16627,10 +16597,10 @@
     </row>
     <row r="509" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A509" s="3" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>2</v>
@@ -16647,10 +16617,10 @@
     </row>
     <row r="510" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A510" s="3" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>2</v>
@@ -16667,10 +16637,10 @@
     </row>
     <row r="511" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A511" s="3" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>2</v>
@@ -16687,10 +16657,10 @@
     </row>
     <row r="512" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A512" s="3" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>2</v>
@@ -16702,15 +16672,15 @@
         <v>5</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A513" s="3" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>2</v>
@@ -16722,15 +16692,15 @@
         <v>5</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A514" s="3" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>2</v>
@@ -16742,15 +16712,15 @@
         <v>5</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A515" s="3" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2</v>
@@ -16767,10 +16737,10 @@
     </row>
     <row r="516" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A516" s="3" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>2</v>
@@ -16782,15 +16752,15 @@
         <v>5</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A517" s="3" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>2</v>
@@ -16802,15 +16772,15 @@
         <v>5</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A518" s="3" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>2</v>
@@ -16822,15 +16792,15 @@
         <v>5</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A519" s="3" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>2</v>
@@ -16839,18 +16809,18 @@
         <v>2</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A520" s="3" t="s">
-        <v>1020</v>
+        <v>1957</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1021</v>
+        <v>1958</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2</v>
@@ -16859,18 +16829,18 @@
         <v>2</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A521" s="3" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>2</v>
@@ -16887,30 +16857,30 @@
     </row>
     <row r="522" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A522" s="3" t="s">
-        <v>1953</v>
+        <v>1030</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1954</v>
+        <v>1031</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A523" s="3" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>2</v>
@@ -16919,7 +16889,7 @@
         <v>2</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>2</v>
@@ -16927,16 +16897,16 @@
     </row>
     <row r="524" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A524" s="3" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>5</v>
@@ -16947,10 +16917,10 @@
     </row>
     <row r="525" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A525" s="3" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>2</v>
@@ -16967,16 +16937,16 @@
     </row>
     <row r="526" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A526" s="3" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>5</v>
@@ -16987,30 +16957,30 @@
     </row>
     <row r="527" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A527" s="3" t="s">
-        <v>1995</v>
+        <v>1040</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1996</v>
+        <v>1041</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A528" s="3" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>2</v>
@@ -17027,10 +16997,10 @@
     </row>
     <row r="529" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A529" s="3" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>5</v>
@@ -17047,13 +17017,13 @@
     </row>
     <row r="530" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A530" s="3" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>5</v>
@@ -17062,21 +17032,21 @@
         <v>5</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A531" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>5</v>
@@ -17087,13 +17057,13 @@
     </row>
     <row r="532" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A532" s="3" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>5</v>
@@ -17102,15 +17072,15 @@
         <v>5</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A533" s="3" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2</v>
@@ -17127,16 +17097,16 @@
     </row>
     <row r="534" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A534" s="3" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>5</v>
@@ -17147,16 +17117,16 @@
     </row>
     <row r="535" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A535" s="3" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>5</v>
@@ -17167,33 +17137,33 @@
     </row>
     <row r="536" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A536" s="3" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A537" s="3" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>2</v>
@@ -17207,10 +17177,10 @@
     </row>
     <row r="538" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A538" s="3" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2</v>
@@ -17227,16 +17197,16 @@
     </row>
     <row r="539" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A539" s="3" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>5</v>
@@ -17247,16 +17217,16 @@
     </row>
     <row r="540" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A540" s="3" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>5</v>
@@ -17267,16 +17237,16 @@
     </row>
     <row r="541" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A541" s="3" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>5</v>
@@ -17287,13 +17257,13 @@
     </row>
     <row r="542" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A542" s="3" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>5</v>
@@ -17302,15 +17272,15 @@
         <v>5</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A543" s="3" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>2</v>
@@ -17327,10 +17297,10 @@
     </row>
     <row r="544" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A544" s="3" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>2</v>
@@ -17347,16 +17317,16 @@
     </row>
     <row r="545" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A545" s="3" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>5</v>
@@ -17367,16 +17337,16 @@
     </row>
     <row r="546" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A546" s="3" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>5</v>
@@ -17387,16 +17357,16 @@
     </row>
     <row r="547" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A547" s="3" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>5</v>
@@ -17407,36 +17377,36 @@
     </row>
     <row r="548" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A548" s="3" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A549" s="3" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>5</v>
@@ -17447,16 +17417,16 @@
     </row>
     <row r="550" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A550" s="3" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>5</v>
@@ -17467,13 +17437,13 @@
     </row>
     <row r="551" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A551" s="3" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>5</v>
@@ -17482,15 +17452,15 @@
         <v>5</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A552" s="3" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>2</v>
@@ -17507,10 +17477,10 @@
     </row>
     <row r="553" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A553" s="3" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>2</v>
@@ -17527,16 +17497,16 @@
     </row>
     <row r="554" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A554" s="3" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>5</v>
@@ -17547,13 +17517,13 @@
     </row>
     <row r="555" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A555" s="3" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1087</v>
+        <v>1980</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>5</v>
@@ -17562,18 +17532,18 @@
         <v>5</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A556" s="3" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1089</v>
+        <v>1981</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>5</v>
@@ -17582,18 +17552,18 @@
         <v>5</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A557" s="3" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1091</v>
+        <v>1982</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>2</v>
@@ -17602,21 +17572,21 @@
         <v>5</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A558" s="3" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>5</v>
@@ -17627,30 +17597,30 @@
     </row>
     <row r="559" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A559" s="3" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1977</v>
+        <v>1101</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A560" s="3" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1978</v>
+        <v>1103</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>5</v>
@@ -17662,15 +17632,15 @@
         <v>5</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A561" s="3" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1979</v>
+        <v>1105</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2</v>
@@ -17687,13 +17657,13 @@
     </row>
     <row r="562" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A562" s="3" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>2</v>
@@ -17707,13 +17677,13 @@
     </row>
     <row r="563" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A563" s="3" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>2</v>
@@ -17727,10 +17697,10 @@
     </row>
     <row r="564" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A564" s="3" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2</v>
@@ -17742,18 +17712,18 @@
         <v>5</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A565" s="3" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>2</v>
@@ -17767,10 +17737,10 @@
     </row>
     <row r="566" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A566" s="3" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -17787,10 +17757,10 @@
     </row>
     <row r="567" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A567" s="3" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>2</v>
@@ -17807,10 +17777,10 @@
     </row>
     <row r="568" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A568" s="3" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>2</v>
@@ -17827,10 +17797,10 @@
     </row>
     <row r="569" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A569" s="3" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>2</v>
@@ -17847,10 +17817,10 @@
     </row>
     <row r="570" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A570" s="3" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2</v>
@@ -17867,10 +17837,10 @@
     </row>
     <row r="571" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A571" s="3" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1115</v>
+        <v>1961</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>2</v>
@@ -17887,10 +17857,10 @@
     </row>
     <row r="572" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A572" s="3" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1117</v>
+        <v>1962</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>2</v>
@@ -17899,7 +17869,7 @@
         <v>2</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>2</v>
@@ -17907,10 +17877,10 @@
     </row>
     <row r="573" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A573" s="3" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1119</v>
+        <v>1963</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>2</v>
@@ -17919,7 +17889,7 @@
         <v>2</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>2</v>
@@ -17927,39 +17897,39 @@
     </row>
     <row r="574" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A574" s="3" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1957</v>
+        <v>1128</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A575" s="3" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1958</v>
+        <v>1130</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>2</v>
@@ -17967,10 +17937,10 @@
     </row>
     <row r="576" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A576" s="3" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>2</v>
@@ -17979,7 +17949,7 @@
         <v>2</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>2</v>
@@ -17987,36 +17957,36 @@
     </row>
     <row r="577" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A577" s="3" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A578" s="3" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>5</v>
@@ -18027,10 +17997,10 @@
     </row>
     <row r="579" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A579" s="3" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1960</v>
+        <v>1137</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>2</v>
@@ -18042,35 +18012,35 @@
         <v>5</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A580" s="3" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A581" s="3" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>2</v>
@@ -18087,10 +18057,10 @@
     </row>
     <row r="582" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A582" s="3" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>2</v>
@@ -18102,35 +18072,35 @@
         <v>5</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A583" s="3" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A584" s="3" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>2</v>
@@ -18142,15 +18112,15 @@
         <v>5</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A585" s="3" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>2</v>
@@ -18159,7 +18129,7 @@
         <v>2</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>2</v>
@@ -18167,19 +18137,19 @@
     </row>
     <row r="586" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A586" s="3" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>2</v>
@@ -18187,16 +18157,16 @@
     </row>
     <row r="587" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A587" s="3" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>5</v>
@@ -18207,19 +18177,19 @@
     </row>
     <row r="588" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A588" s="3" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F588" s="2" t="s">
         <v>2</v>
@@ -18227,10 +18197,10 @@
     </row>
     <row r="589" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A589" s="3" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>5</v>
@@ -18247,30 +18217,30 @@
     </row>
     <row r="590" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A590" s="3" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A591" s="3" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>5</v>
@@ -18287,10 +18257,10 @@
     </row>
     <row r="592" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A592" s="3" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>5</v>
@@ -18307,10 +18277,10 @@
     </row>
     <row r="593" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A593" s="3" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>5</v>
@@ -18327,10 +18297,10 @@
     </row>
     <row r="594" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A594" s="3" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>5</v>
@@ -18347,10 +18317,10 @@
     </row>
     <row r="595" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A595" s="3" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>5</v>
@@ -18367,13 +18337,13 @@
     </row>
     <row r="596" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A596" s="3" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>2</v>
@@ -18387,10 +18357,10 @@
     </row>
     <row r="597" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A597" s="3" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>5</v>
@@ -18407,10 +18377,10 @@
     </row>
     <row r="598" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A598" s="3" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>5</v>
@@ -18427,13 +18397,13 @@
     </row>
     <row r="599" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A599" s="3" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>2</v>
@@ -18447,13 +18417,13 @@
     </row>
     <row r="600" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A600" s="3" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>2</v>
@@ -18462,18 +18432,18 @@
         <v>5</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A601" s="3" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>2</v>
@@ -18482,15 +18452,15 @@
         <v>5</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A602" s="3" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>5</v>
@@ -18507,10 +18477,10 @@
     </row>
     <row r="603" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A603" s="3" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>2</v>
@@ -18522,15 +18492,15 @@
         <v>5</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A604" s="3" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>2</v>
@@ -18542,15 +18512,15 @@
         <v>5</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A605" s="3" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>5</v>
@@ -18567,13 +18537,13 @@
     </row>
     <row r="606" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A606" s="3" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>2</v>
@@ -18587,10 +18557,10 @@
     </row>
     <row r="607" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A607" s="3" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>2</v>
@@ -18607,13 +18577,13 @@
     </row>
     <row r="608" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A608" s="3" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>2</v>
@@ -18622,18 +18592,18 @@
         <v>5</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A609" s="3" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>2</v>
@@ -18647,13 +18617,13 @@
     </row>
     <row r="610" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A610" s="3" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>2</v>
@@ -18667,13 +18637,13 @@
     </row>
     <row r="611" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A611" s="3" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>2</v>
@@ -18682,18 +18652,18 @@
         <v>5</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A612" s="3" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>2</v>
@@ -18707,10 +18677,10 @@
     </row>
     <row r="613" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A613" s="3" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>5</v>
@@ -18727,13 +18697,13 @@
     </row>
     <row r="614" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A614" s="3" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>2</v>
@@ -18747,10 +18717,10 @@
     </row>
     <row r="615" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A615" s="3" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1199</v>
+        <v>1209</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>5</v>
@@ -18767,13 +18737,13 @@
     </row>
     <row r="616" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A616" s="3" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>2</v>
@@ -18787,10 +18757,10 @@
     </row>
     <row r="617" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A617" s="3" t="s">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>2</v>
@@ -18802,18 +18772,18 @@
         <v>5</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A618" s="3" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1205</v>
+        <v>1215</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>2</v>
@@ -18827,10 +18797,10 @@
     </row>
     <row r="619" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A619" s="3" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2</v>
@@ -18847,10 +18817,10 @@
     </row>
     <row r="620" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A620" s="3" t="s">
-        <v>1208</v>
+        <v>1218</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2</v>
@@ -18862,15 +18832,15 @@
         <v>5</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A621" s="3" t="s">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>2</v>
@@ -18887,10 +18857,10 @@
     </row>
     <row r="622" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A622" s="3" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2</v>
@@ -18907,10 +18877,10 @@
     </row>
     <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A623" s="3" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2</v>
@@ -18927,10 +18897,10 @@
     </row>
     <row r="624" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A624" s="3" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1217</v>
+        <v>1950</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>2</v>
@@ -18947,10 +18917,10 @@
     </row>
     <row r="625" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A625" s="3" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2</v>
@@ -18967,13 +18937,13 @@
     </row>
     <row r="626" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A626" s="3" t="s">
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>2</v>
@@ -18987,10 +18957,10 @@
     </row>
     <row r="627" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A627" s="3" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1946</v>
+        <v>1232</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>2</v>
@@ -18999,7 +18969,7 @@
         <v>2</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>2</v>
@@ -19007,10 +18977,10 @@
     </row>
     <row r="628" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A628" s="3" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>2</v>
@@ -19019,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>2</v>
@@ -19027,19 +18997,19 @@
     </row>
     <row r="629" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A629" s="3" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1226</v>
+        <v>1236</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>2</v>
@@ -19047,10 +19017,10 @@
     </row>
     <row r="630" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A630" s="3" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>2</v>
@@ -19067,10 +19037,10 @@
     </row>
     <row r="631" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A631" s="3" t="s">
-        <v>1997</v>
+        <v>1239</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1998</v>
+        <v>1240</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>2</v>
@@ -19087,10 +19057,10 @@
     </row>
     <row r="632" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A632" s="3" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>2</v>
@@ -19099,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>2</v>
@@ -19107,19 +19077,19 @@
     </row>
     <row r="633" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A633" s="3" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F633" s="2" t="s">
         <v>2</v>
@@ -19127,10 +19097,10 @@
     </row>
     <row r="634" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A634" s="3" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>2</v>
@@ -19139,7 +19109,7 @@
         <v>2</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>2</v>
@@ -19147,10 +19117,10 @@
     </row>
     <row r="635" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A635" s="3" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>2</v>
@@ -19162,15 +19132,15 @@
         <v>5</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A636" s="3" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>2</v>
@@ -19187,13 +19157,13 @@
     </row>
     <row r="637" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A637" s="3" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>2</v>
@@ -19202,15 +19172,15 @@
         <v>5</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A638" s="3" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>2</v>
@@ -19227,10 +19197,10 @@
     </row>
     <row r="639" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A639" s="3" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>2</v>
@@ -19242,15 +19212,15 @@
         <v>5</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A640" s="3" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>2</v>
@@ -19267,10 +19237,10 @@
     </row>
     <row r="641" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A641" s="3" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>2</v>
@@ -19282,15 +19252,15 @@
         <v>5</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A642" s="3" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>2</v>
@@ -19307,10 +19277,10 @@
     </row>
     <row r="643" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A643" s="3" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>2</v>
@@ -19327,10 +19297,10 @@
     </row>
     <row r="644" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A644" s="3" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>2</v>
@@ -19347,10 +19317,10 @@
     </row>
     <row r="645" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A645" s="3" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>2</v>
@@ -19367,10 +19337,10 @@
     </row>
     <row r="646" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A646" s="3" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>2</v>
@@ -19387,10 +19357,10 @@
     </row>
     <row r="647" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A647" s="3" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2</v>
@@ -19407,10 +19377,10 @@
     </row>
     <row r="648" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A648" s="3" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>2</v>
@@ -19427,10 +19397,10 @@
     </row>
     <row r="649" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A649" s="3" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>2</v>
@@ -19447,10 +19417,10 @@
     </row>
     <row r="650" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A650" s="3" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>2</v>
@@ -19467,10 +19437,10 @@
     </row>
     <row r="651" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A651" s="3" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>2</v>
@@ -19487,10 +19457,10 @@
     </row>
     <row r="652" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A652" s="3" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>2</v>
@@ -19499,7 +19469,7 @@
         <v>2</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>2</v>
@@ -19507,10 +19477,10 @@
     </row>
     <row r="653" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A653" s="3" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>2</v>
@@ -19519,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>2</v>
@@ -19527,10 +19497,10 @@
     </row>
     <row r="654" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A654" s="3" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>2</v>
@@ -19539,7 +19509,7 @@
         <v>2</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>2</v>
@@ -19547,10 +19517,10 @@
     </row>
     <row r="655" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A655" s="3" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1276</v>
+        <v>1965</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>2</v>
@@ -19567,10 +19537,10 @@
     </row>
     <row r="656" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A656" s="3" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>2</v>
@@ -19579,7 +19549,7 @@
         <v>2</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>2</v>
@@ -19587,10 +19557,10 @@
     </row>
     <row r="657" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A657" s="3" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>2</v>
@@ -19599,7 +19569,7 @@
         <v>2</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>2</v>
@@ -19607,10 +19577,10 @@
     </row>
     <row r="658" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A658" s="3" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>2</v>
@@ -19619,7 +19589,7 @@
         <v>2</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>2</v>
@@ -19627,10 +19597,10 @@
     </row>
     <row r="659" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A659" s="3" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1961</v>
+        <v>1295</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>2</v>
@@ -19647,10 +19617,10 @@
     </row>
     <row r="660" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A660" s="3" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>2</v>
@@ -19667,10 +19637,10 @@
     </row>
     <row r="661" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A661" s="3" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>2</v>
@@ -19687,10 +19657,10 @@
     </row>
     <row r="662" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A662" s="3" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>2</v>
@@ -19702,15 +19672,15 @@
         <v>5</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A663" s="3" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>2</v>
@@ -19727,10 +19697,10 @@
     </row>
     <row r="664" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A664" s="3" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2</v>
@@ -19747,10 +19717,10 @@
     </row>
     <row r="665" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A665" s="3" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2</v>
@@ -19759,7 +19729,7 @@
         <v>2</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F665" s="2" t="s">
         <v>2</v>
@@ -19767,16 +19737,16 @@
     </row>
     <row r="666" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A666" s="3" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>5</v>
@@ -19787,19 +19757,19 @@
     </row>
     <row r="667" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A667" s="3" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F667" s="2" t="s">
         <v>2</v>
@@ -19807,16 +19777,16 @@
     </row>
     <row r="668" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A668" s="3" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>5</v>
@@ -19827,16 +19797,16 @@
     </row>
     <row r="669" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A669" s="3" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>2</v>
@@ -19847,30 +19817,30 @@
     </row>
     <row r="670" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A670" s="3" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A671" s="3" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2</v>
@@ -19887,30 +19857,30 @@
     </row>
     <row r="672" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A672" s="3" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A673" s="3" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2</v>
@@ -19919,7 +19889,7 @@
         <v>5</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>2</v>
@@ -19927,39 +19897,39 @@
     </row>
     <row r="674" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A674" s="3" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A675" s="3" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>2</v>
@@ -19967,33 +19937,33 @@
     </row>
     <row r="676" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A676" s="3" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A677" s="3" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>5</v>
@@ -20002,21 +19972,21 @@
         <v>5</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A678" s="3" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>5</v>
@@ -20027,10 +19997,10 @@
     </row>
     <row r="679" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A679" s="3" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2</v>
@@ -20039,7 +20009,7 @@
         <v>2</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>2</v>
@@ -20047,13 +20017,13 @@
     </row>
     <row r="680" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A680" s="3" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>5</v>
@@ -20067,50 +20037,50 @@
     </row>
     <row r="681" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A681" s="3" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A682" s="3" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D682" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A683" s="3" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2</v>
@@ -20119,7 +20089,7 @@
         <v>2</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>2</v>
@@ -20127,16 +20097,16 @@
     </row>
     <row r="684" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A684" s="3" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>5</v>
@@ -20147,19 +20117,19 @@
     </row>
     <row r="685" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A685" s="3" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>2</v>
@@ -20167,39 +20137,39 @@
     </row>
     <row r="686" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A686" s="3" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A687" s="3" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>2</v>
@@ -20207,19 +20177,19 @@
     </row>
     <row r="688" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A688" s="3" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>2</v>
@@ -20227,19 +20197,19 @@
     </row>
     <row r="689" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A689" s="3" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F689" s="2" t="s">
         <v>2</v>
@@ -20247,39 +20217,39 @@
     </row>
     <row r="690" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A690" s="3" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D690" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A691" s="3" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>2</v>
@@ -20287,30 +20257,30 @@
     </row>
     <row r="692" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A692" s="3" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D692" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A693" s="3" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2</v>
@@ -20319,7 +20289,7 @@
         <v>5</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F693" s="2" t="s">
         <v>2</v>
@@ -20327,19 +20297,19 @@
     </row>
     <row r="694" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A694" s="3" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F694" s="2" t="s">
         <v>2</v>
@@ -20347,10 +20317,10 @@
     </row>
     <row r="695" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A695" s="3" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2</v>
@@ -20367,13 +20337,13 @@
     </row>
     <row r="696" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A696" s="3" t="s">
-        <v>1999</v>
+        <v>1368</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>2000</v>
+        <v>1369</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D696" s="2" t="s">
         <v>2</v>
@@ -20387,36 +20357,36 @@
     </row>
     <row r="697" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A697" s="3" t="s">
-        <v>1356</v>
+        <v>1984</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1357</v>
+        <v>1985</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A698" s="3" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>5</v>
@@ -20427,19 +20397,19 @@
     </row>
     <row r="699" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A699" s="3" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F699" s="2" t="s">
         <v>2</v>
@@ -20447,10 +20417,10 @@
     </row>
     <row r="700" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A700" s="3" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>2</v>
@@ -20467,36 +20437,36 @@
     </row>
     <row r="701" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A701" s="3" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A702" s="3" t="s">
-        <v>1980</v>
+        <v>1378</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1981</v>
+        <v>1379</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>5</v>
@@ -20507,16 +20477,16 @@
     </row>
     <row r="703" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A703" s="3" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>5</v>
@@ -20527,19 +20497,19 @@
     </row>
     <row r="704" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A704" s="3" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F704" s="2" t="s">
         <v>2</v>
@@ -20547,33 +20517,33 @@
     </row>
     <row r="705" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A705" s="3" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A706" s="3" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>5</v>
@@ -20582,21 +20552,21 @@
         <v>5</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A707" s="3" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>5</v>
@@ -20607,13 +20577,13 @@
     </row>
     <row r="708" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A708" s="3" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>5</v>
@@ -20622,15 +20592,15 @@
         <v>5</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A709" s="3" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>2</v>
@@ -20647,33 +20617,33 @@
     </row>
     <row r="710" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A710" s="3" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A711" s="3" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>5</v>
@@ -20682,15 +20652,15 @@
         <v>5</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A712" s="3" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2</v>
@@ -20699,7 +20669,7 @@
         <v>2</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F712" s="2" t="s">
         <v>2</v>
@@ -20707,13 +20677,13 @@
     </row>
     <row r="713" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A713" s="3" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D713" s="2" t="s">
         <v>5</v>
@@ -20722,21 +20692,21 @@
         <v>5</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A714" s="3" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>5</v>
@@ -20747,16 +20717,16 @@
     </row>
     <row r="715" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A715" s="3" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>5</v>
@@ -20767,50 +20737,50 @@
     </row>
     <row r="716" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A716" s="3" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A717" s="3" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A718" s="3" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2</v>
@@ -20827,10 +20797,10 @@
     </row>
     <row r="719" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A719" s="3" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2</v>
@@ -20847,10 +20817,10 @@
     </row>
     <row r="720" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A720" s="3" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2</v>
@@ -20867,10 +20837,10 @@
     </row>
     <row r="721" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A721" s="3" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2</v>
@@ -20887,33 +20857,33 @@
     </row>
     <row r="722" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A722" s="3" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A723" s="3" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D723" s="2" t="s">
         <v>5</v>
@@ -20922,41 +20892,41 @@
         <v>5</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A724" s="3" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A725" s="3" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>5</v>
@@ -20967,39 +20937,39 @@
     </row>
     <row r="726" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A726" s="3" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A727" s="3" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F727" s="2" t="s">
         <v>2</v>
@@ -21007,33 +20977,33 @@
     </row>
     <row r="728" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A728" s="3" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A729" s="3" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>2</v>
@@ -21042,15 +21012,15 @@
         <v>5</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A730" s="3" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>2</v>
@@ -21067,10 +21037,10 @@
     </row>
     <row r="731" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A731" s="3" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>5</v>
@@ -21087,16 +21057,16 @@
     </row>
     <row r="732" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A732" s="3" t="s">
-        <v>1424</v>
+        <v>1438</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>5</v>
@@ -21107,16 +21077,16 @@
     </row>
     <row r="733" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A733" s="3" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>5</v>
@@ -21127,16 +21097,16 @@
     </row>
     <row r="734" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A734" s="3" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1429</v>
+        <v>1443</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>5</v>
@@ -21147,16 +21117,16 @@
     </row>
     <row r="735" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A735" s="3" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>5</v>
@@ -21167,13 +21137,13 @@
     </row>
     <row r="736" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A736" s="3" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D736" s="2" t="s">
         <v>5</v>
@@ -21182,15 +21152,15 @@
         <v>5</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A737" s="3" t="s">
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2</v>
@@ -21207,10 +21177,10 @@
     </row>
     <row r="738" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A738" s="3" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2</v>
@@ -21227,10 +21197,10 @@
     </row>
     <row r="739" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A739" s="3" t="s">
-        <v>1438</v>
+        <v>1452</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2</v>
@@ -21247,16 +21217,16 @@
     </row>
     <row r="740" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A740" s="3" t="s">
-        <v>1440</v>
+        <v>1454</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>5</v>
@@ -21267,13 +21237,13 @@
     </row>
     <row r="741" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A741" s="3" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1443</v>
+        <v>1457</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>5</v>
@@ -21282,21 +21252,21 @@
         <v>5</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A742" s="3" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>5</v>
@@ -21307,13 +21277,13 @@
     </row>
     <row r="743" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A743" s="3" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D743" s="2" t="s">
         <v>5</v>
@@ -21322,21 +21292,21 @@
         <v>5</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A744" s="3" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>5</v>
@@ -21347,76 +21317,76 @@
     </row>
     <row r="745" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A745" s="3" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A746" s="3" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A747" s="3" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A748" s="3" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>5</v>
@@ -21427,10 +21397,10 @@
     </row>
     <row r="749" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A749" s="3" t="s">
-        <v>1458</v>
+        <v>1472</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>2</v>
@@ -21439,7 +21409,7 @@
         <v>2</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F749" s="2" t="s">
         <v>2</v>
@@ -21447,16 +21417,16 @@
     </row>
     <row r="750" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A750" s="3" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>5</v>
@@ -21467,10 +21437,10 @@
     </row>
     <row r="751" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A751" s="3" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>2</v>
@@ -21482,35 +21452,35 @@
         <v>5</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A752" s="3" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A753" s="3" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1467</v>
+        <v>1481</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>2</v>
@@ -21522,24 +21492,24 @@
         <v>5</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A754" s="3" t="s">
-        <v>1468</v>
+        <v>1482</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>2</v>
@@ -21547,10 +21517,10 @@
     </row>
     <row r="755" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A755" s="3" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>2</v>
@@ -21562,15 +21532,15 @@
         <v>5</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A756" s="3" t="s">
-        <v>1472</v>
+        <v>1966</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1473</v>
+        <v>1967</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>2</v>
@@ -21582,24 +21552,24 @@
         <v>5</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A757" s="3" t="s">
-        <v>1474</v>
+        <v>1968</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1475</v>
+        <v>1969</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D757" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>2</v>
@@ -21607,33 +21577,33 @@
     </row>
     <row r="758" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A758" s="3" t="s">
-        <v>1476</v>
+        <v>1486</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1477</v>
+        <v>1487</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A759" s="3" t="s">
-        <v>1478</v>
+        <v>1488</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1479</v>
+        <v>1489</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>5</v>
@@ -21647,16 +21617,16 @@
     </row>
     <row r="760" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A760" s="3" t="s">
-        <v>1480</v>
+        <v>1490</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1481</v>
+        <v>1491</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>5</v>
@@ -21667,16 +21637,16 @@
     </row>
     <row r="761" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A761" s="3" t="s">
-        <v>1962</v>
+        <v>1492</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1963</v>
+        <v>1493</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>5</v>
@@ -21687,10 +21657,10 @@
     </row>
     <row r="762" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A762" s="3" t="s">
-        <v>1964</v>
+        <v>1494</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1965</v>
+        <v>1495</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2</v>
@@ -21699,7 +21669,7 @@
         <v>2</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F762" s="2" t="s">
         <v>2</v>
@@ -21707,10 +21677,10 @@
     </row>
     <row r="763" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A763" s="3" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>5</v>
@@ -21727,16 +21697,16 @@
     </row>
     <row r="764" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A764" s="3" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>5</v>
@@ -21747,33 +21717,33 @@
     </row>
     <row r="765" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A765" s="3" t="s">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1487</v>
+        <v>1501</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A766" s="3" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>5</v>
@@ -21787,10 +21757,10 @@
     </row>
     <row r="767" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A767" s="3" t="s">
-        <v>1490</v>
+        <v>1504</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2</v>
@@ -21807,30 +21777,30 @@
     </row>
     <row r="768" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A768" s="3" t="s">
-        <v>1492</v>
+        <v>1506</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1493</v>
+        <v>1507</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A769" s="3" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2</v>
@@ -21847,10 +21817,10 @@
     </row>
     <row r="770" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A770" s="3" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2</v>
@@ -21859,24 +21829,24 @@
         <v>2</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A771" s="3" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>5</v>
@@ -21887,10 +21857,10 @@
     </row>
     <row r="772" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A772" s="3" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>2</v>
@@ -21899,7 +21869,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F772" s="2" t="s">
         <v>2</v>
@@ -21907,10 +21877,10 @@
     </row>
     <row r="773" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A773" s="3" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2</v>
@@ -21919,7 +21889,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>2</v>
@@ -21927,10 +21897,10 @@
     </row>
     <row r="774" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A774" s="3" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>2</v>
@@ -21939,7 +21909,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>2</v>
@@ -21947,30 +21917,30 @@
     </row>
     <row r="775" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A775" s="3" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A776" s="3" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>2</v>
@@ -21987,10 +21957,10 @@
     </row>
     <row r="777" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A777" s="3" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>2</v>
@@ -21999,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>2</v>
@@ -22007,30 +21977,30 @@
     </row>
     <row r="778" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A778" s="3" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1513</v>
+        <v>1970</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A779" s="3" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1515</v>
+        <v>1528</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2</v>
@@ -22039,7 +22009,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F779" s="2" t="s">
         <v>2</v>
@@ -22047,50 +22017,50 @@
     </row>
     <row r="780" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A780" s="3" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1517</v>
+        <v>1530</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A781" s="3" t="s">
-        <v>1518</v>
+        <v>1531</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1519</v>
+        <v>1971</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A782" s="3" t="s">
-        <v>1520</v>
+        <v>1532</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1521</v>
+        <v>1533</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>2</v>
@@ -22099,7 +22069,7 @@
         <v>2</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F782" s="2" t="s">
         <v>2</v>
@@ -22107,10 +22077,10 @@
     </row>
     <row r="783" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A783" s="3" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>5</v>
@@ -22127,10 +22097,10 @@
     </row>
     <row r="784" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A784" s="3" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>2</v>
@@ -22147,130 +22117,130 @@
     </row>
     <row r="785" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A785" s="3" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A786" s="3" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1967</v>
+        <v>1540</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A787" s="3" t="s">
-        <v>1528</v>
+        <v>1541</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1529</v>
+        <v>1973</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A788" s="3" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1968</v>
+        <v>1543</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A789" s="3" t="s">
-        <v>1531</v>
+        <v>1544</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A790" s="3" t="s">
-        <v>1533</v>
+        <v>1546</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1534</v>
+        <v>1547</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A791" s="3" t="s">
-        <v>1535</v>
+        <v>1548</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1536</v>
+        <v>1549</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2</v>
@@ -22287,16 +22257,16 @@
     </row>
     <row r="792" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A792" s="3" t="s">
-        <v>1537</v>
+        <v>1550</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1969</v>
+        <v>1551</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>5</v>
@@ -22307,10 +22277,10 @@
     </row>
     <row r="793" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A793" s="3" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>2</v>
@@ -22327,30 +22297,30 @@
     </row>
     <row r="794" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A794" s="3" t="s">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A795" s="3" t="s">
-        <v>1542</v>
+        <v>1556</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2</v>
@@ -22367,30 +22337,30 @@
     </row>
     <row r="796" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A796" s="3" t="s">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A797" s="3" t="s">
-        <v>1546</v>
+        <v>1560</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>2</v>
@@ -22402,15 +22372,15 @@
         <v>5</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A798" s="3" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1549</v>
+        <v>1563</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>2</v>
@@ -22427,33 +22397,33 @@
     </row>
     <row r="799" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A799" s="3" t="s">
-        <v>1550</v>
+        <v>1564</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A800" s="3" t="s">
-        <v>1552</v>
+        <v>1566</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>2</v>
@@ -22467,33 +22437,33 @@
     </row>
     <row r="801" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A801" s="3" t="s">
-        <v>1554</v>
+        <v>1568</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1555</v>
+        <v>1569</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A802" s="3" t="s">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1557</v>
+        <v>1571</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
         <v>2</v>
@@ -22507,10 +22477,10 @@
     </row>
     <row r="803" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A803" s="3" t="s">
-        <v>1558</v>
+        <v>1572</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1559</v>
+        <v>1573</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2</v>
@@ -22522,58 +22492,58 @@
         <v>5</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A804" s="3" t="s">
-        <v>1560</v>
+        <v>1574</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1561</v>
+        <v>1575</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A805" s="3" t="s">
-        <v>1562</v>
+        <v>1576</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1563</v>
+        <v>1577</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A806" s="3" t="s">
-        <v>1564</v>
+        <v>1578</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1565</v>
+        <v>1579</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D806" s="2" t="s">
         <v>2</v>
@@ -22587,13 +22557,13 @@
     </row>
     <row r="807" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A807" s="3" t="s">
-        <v>1566</v>
+        <v>1580</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1567</v>
+        <v>1581</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D807" s="2" t="s">
         <v>2</v>
@@ -22602,15 +22572,15 @@
         <v>5</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A808" s="3" t="s">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1569</v>
+        <v>1583</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>2</v>
@@ -22622,75 +22592,75 @@
         <v>5</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A809" s="3" t="s">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A810" s="3" t="s">
-        <v>1572</v>
+        <v>1586</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1573</v>
+        <v>1587</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E810" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A811" s="3" t="s">
-        <v>1574</v>
+        <v>1588</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A812" s="3" t="s">
-        <v>1576</v>
+        <v>1590</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1577</v>
+        <v>1591</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>2</v>
@@ -22702,78 +22672,78 @@
         <v>5</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A813" s="3" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A814" s="3" t="s">
-        <v>1580</v>
+        <v>1594</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A815" s="3" t="s">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E815" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="816" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A816" s="3" t="s">
-        <v>1584</v>
+        <v>1598</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D816" s="2" t="s">
         <v>5</v>
@@ -22787,10 +22757,10 @@
     </row>
     <row r="817" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A817" s="3" t="s">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1587</v>
+        <v>1601</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>2</v>
@@ -22807,10 +22777,10 @@
     </row>
     <row r="818" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A818" s="3" t="s">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1589</v>
+        <v>1603</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>5</v>
@@ -22827,10 +22797,10 @@
     </row>
     <row r="819" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A819" s="3" t="s">
-        <v>1590</v>
+        <v>1604</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1591</v>
+        <v>1605</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2</v>
@@ -22847,10 +22817,10 @@
     </row>
     <row r="820" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A820" s="3" t="s">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1593</v>
+        <v>1607</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>5</v>
@@ -22867,30 +22837,30 @@
     </row>
     <row r="821" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A821" s="3" t="s">
-        <v>1594</v>
+        <v>1608</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A822" s="3" t="s">
-        <v>1596</v>
+        <v>1610</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1597</v>
+        <v>1611</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>2</v>
@@ -22907,16 +22877,16 @@
     </row>
     <row r="823" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A823" s="3" t="s">
-        <v>1598</v>
+        <v>1612</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>5</v>
@@ -22927,10 +22897,10 @@
     </row>
     <row r="824" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A824" s="3" t="s">
-        <v>1600</v>
+        <v>1614</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>2</v>
@@ -22947,50 +22917,50 @@
     </row>
     <row r="825" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A825" s="3" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A826" s="3" t="s">
-        <v>1604</v>
+        <v>1618</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1605</v>
+        <v>1619</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A827" s="3" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>2</v>
@@ -23007,16 +22977,16 @@
     </row>
     <row r="828" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A828" s="3" t="s">
-        <v>1608</v>
+        <v>1622</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1609</v>
+        <v>1974</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>5</v>
@@ -23027,10 +22997,10 @@
     </row>
     <row r="829" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A829" s="3" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1611</v>
+        <v>1624</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>2</v>
@@ -23047,53 +23017,53 @@
     </row>
     <row r="830" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A830" s="3" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1613</v>
+        <v>1975</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A831" s="3" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A832" s="3" t="s">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1617</v>
+        <v>1629</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D832" s="2" t="s">
         <v>2</v>
@@ -23107,30 +23077,30 @@
     </row>
     <row r="833" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A833" s="3" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1970</v>
+        <v>1631</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A834" s="3" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>2</v>
@@ -23147,10 +23117,10 @@
     </row>
     <row r="835" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A835" s="3" t="s">
-        <v>1621</v>
+        <v>1634</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>5</v>
@@ -23167,10 +23137,10 @@
     </row>
     <row r="836" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A836" s="3" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>2</v>
@@ -23187,30 +23157,30 @@
     </row>
     <row r="837" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A837" s="3" t="s">
-        <v>1624</v>
+        <v>1637</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1625</v>
+        <v>1977</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A838" s="3" t="s">
-        <v>1626</v>
+        <v>1638</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1627</v>
+        <v>1639</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>5</v>
@@ -23227,13 +23197,13 @@
     </row>
     <row r="839" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A839" s="3" t="s">
-        <v>1628</v>
+        <v>1640</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>2</v>
@@ -23247,93 +23217,93 @@
     </row>
     <row r="840" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A840" s="3" t="s">
-        <v>1630</v>
+        <v>1642</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1972</v>
+        <v>1643</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A841" s="3" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A842" s="3" t="s">
-        <v>1633</v>
+        <v>1646</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1973</v>
+        <v>1647</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A843" s="3" t="s">
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A844" s="3" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D844" s="2" t="s">
         <v>2</v>
@@ -23347,50 +23317,50 @@
     </row>
     <row r="845" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A845" s="3" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A846" s="3" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A847" s="3" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>2</v>
@@ -23402,21 +23372,21 @@
         <v>5</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A848" s="3" t="s">
-        <v>1644</v>
+        <v>1658</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1645</v>
+        <v>1659</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>5</v>
@@ -23427,10 +23397,10 @@
     </row>
     <row r="849" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A849" s="3" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1647</v>
+        <v>1661</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>2</v>
@@ -23442,21 +23412,21 @@
         <v>5</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A850" s="3" t="s">
-        <v>1648</v>
+        <v>1662</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E850" s="2" t="s">
         <v>5</v>
@@ -23467,10 +23437,10 @@
     </row>
     <row r="851" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A851" s="3" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1651</v>
+        <v>1663</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>2</v>
@@ -23482,15 +23452,15 @@
         <v>5</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A852" s="3" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1653</v>
+        <v>1666</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>2</v>
@@ -23507,10 +23477,10 @@
     </row>
     <row r="853" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A853" s="3" t="s">
-        <v>1654</v>
+        <v>1667</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>2</v>
@@ -23527,10 +23497,10 @@
     </row>
     <row r="854" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A854" s="3" t="s">
-        <v>1656</v>
+        <v>1669</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1657</v>
+        <v>1670</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>2</v>
@@ -23539,18 +23509,18 @@
         <v>2</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A855" s="3" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1659</v>
+        <v>1672</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>2</v>
@@ -23567,10 +23537,10 @@
     </row>
     <row r="856" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A856" s="3" t="s">
-        <v>1660</v>
+        <v>1673</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1659</v>
+        <v>1674</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>2</v>
@@ -23587,10 +23557,10 @@
     </row>
     <row r="857" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A857" s="3" t="s">
-        <v>1661</v>
+        <v>1675</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>2</v>
@@ -23607,10 +23577,10 @@
     </row>
     <row r="858" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A858" s="3" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1664</v>
+        <v>1678</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>2</v>
@@ -23627,10 +23597,10 @@
     </row>
     <row r="859" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A859" s="3" t="s">
-        <v>1665</v>
+        <v>1679</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1666</v>
+        <v>1680</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>2</v>
@@ -23639,18 +23609,18 @@
         <v>2</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A860" s="3" t="s">
-        <v>1667</v>
+        <v>1681</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1668</v>
+        <v>1682</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>2</v>
@@ -23659,18 +23629,18 @@
         <v>2</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A861" s="3" t="s">
-        <v>1669</v>
+        <v>1683</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1670</v>
+        <v>1684</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>2</v>
@@ -23687,10 +23657,10 @@
     </row>
     <row r="862" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A862" s="3" t="s">
-        <v>1671</v>
+        <v>1685</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>2</v>
@@ -23707,10 +23677,10 @@
     </row>
     <row r="863" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A863" s="3" t="s">
-        <v>1673</v>
+        <v>1686</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>1674</v>
+        <v>669</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>2</v>
@@ -23719,18 +23689,18 @@
         <v>2</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A864" s="3" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>2</v>
@@ -23747,10 +23717,10 @@
     </row>
     <row r="865" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A865" s="3" t="s">
-        <v>1677</v>
+        <v>1688</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>2</v>
@@ -23759,18 +23729,18 @@
         <v>2</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A866" s="3" t="s">
-        <v>1679</v>
+        <v>1690</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1680</v>
+        <v>1691</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>2</v>
@@ -23787,10 +23757,10 @@
     </row>
     <row r="867" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A867" s="3" t="s">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1659</v>
+        <v>1693</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>2</v>
@@ -23807,10 +23777,10 @@
     </row>
     <row r="868" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A868" s="3" t="s">
-        <v>1682</v>
+        <v>1694</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>669</v>
+        <v>1695</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>2</v>
@@ -23819,18 +23789,18 @@
         <v>2</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A869" s="3" t="s">
-        <v>1683</v>
+        <v>1696</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1659</v>
+        <v>1695</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>2</v>
@@ -23847,10 +23817,10 @@
     </row>
     <row r="870" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A870" s="3" t="s">
-        <v>1684</v>
+        <v>1697</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>2</v>
@@ -23867,10 +23837,10 @@
     </row>
     <row r="871" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A871" s="3" t="s">
-        <v>1686</v>
+        <v>1698</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1687</v>
+        <v>1699</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>2</v>
@@ -23887,10 +23857,10 @@
     </row>
     <row r="872" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A872" s="3" t="s">
-        <v>1688</v>
+        <v>1700</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>2</v>
@@ -23907,10 +23877,10 @@
     </row>
     <row r="873" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A873" s="3" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>2</v>
@@ -23927,10 +23897,10 @@
     </row>
     <row r="874" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A874" s="3" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1691</v>
+        <v>1703</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>2</v>
@@ -23947,10 +23917,10 @@
     </row>
     <row r="875" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A875" s="3" t="s">
-        <v>1693</v>
+        <v>1704</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>2</v>
@@ -23967,10 +23937,10 @@
     </row>
     <row r="876" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A876" s="3" t="s">
-        <v>1694</v>
+        <v>1706</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1695</v>
+        <v>1707</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>2</v>
@@ -23987,10 +23957,10 @@
     </row>
     <row r="877" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A877" s="3" t="s">
-        <v>1696</v>
+        <v>1708</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1695</v>
+        <v>1663</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>2</v>
@@ -24007,10 +23977,10 @@
     </row>
     <row r="878" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A878" s="3" t="s">
-        <v>1697</v>
+        <v>1709</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1689</v>
+        <v>1710</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>2</v>
@@ -24027,10 +23997,10 @@
     </row>
     <row r="879" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A879" s="3" t="s">
-        <v>1698</v>
+        <v>1711</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1699</v>
+        <v>1712</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>2</v>
@@ -24047,10 +24017,10 @@
     </row>
     <row r="880" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A880" s="3" t="s">
-        <v>1700</v>
+        <v>1713</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1701</v>
+        <v>1714</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>2</v>
@@ -24067,10 +24037,10 @@
     </row>
     <row r="881" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A881" s="3" t="s">
-        <v>1702</v>
+        <v>1715</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1703</v>
+        <v>1716</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>2</v>
@@ -24087,10 +24057,10 @@
     </row>
     <row r="882" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A882" s="3" t="s">
-        <v>1704</v>
+        <v>1717</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1659</v>
+        <v>1718</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>2</v>
@@ -24107,10 +24077,10 @@
     </row>
     <row r="883" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A883" s="3" t="s">
-        <v>1705</v>
+        <v>1719</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1706</v>
+        <v>1720</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>2</v>
@@ -24127,10 +24097,10 @@
     </row>
     <row r="884" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A884" s="3" t="s">
-        <v>1707</v>
+        <v>1721</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1708</v>
+        <v>1722</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>2</v>
@@ -24147,10 +24117,10 @@
     </row>
     <row r="885" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A885" s="3" t="s">
-        <v>1709</v>
+        <v>1723</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1710</v>
+        <v>1724</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>2</v>
@@ -24167,10 +24137,10 @@
     </row>
     <row r="886" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A886" s="3" t="s">
-        <v>1711</v>
+        <v>1725</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1712</v>
+        <v>1726</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>2</v>
@@ -24187,10 +24157,10 @@
     </row>
     <row r="887" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A887" s="3" t="s">
-        <v>1713</v>
+        <v>1727</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1714</v>
+        <v>1728</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>2</v>
@@ -24207,10 +24177,10 @@
     </row>
     <row r="888" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A888" s="3" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1716</v>
+        <v>1730</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>2</v>
@@ -24227,10 +24197,10 @@
     </row>
     <row r="889" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A889" s="3" t="s">
-        <v>1717</v>
+        <v>1731</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1718</v>
+        <v>1732</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>2</v>
@@ -24247,10 +24217,10 @@
     </row>
     <row r="890" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A890" s="3" t="s">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1720</v>
+        <v>1734</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>2</v>
@@ -24267,10 +24237,10 @@
     </row>
     <row r="891" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A891" s="3" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>2</v>
@@ -24287,10 +24257,10 @@
     </row>
     <row r="892" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A892" s="3" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>2</v>
@@ -24307,10 +24277,10 @@
     </row>
     <row r="893" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A893" s="3" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>2</v>
@@ -24327,10 +24297,10 @@
     </row>
     <row r="894" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A894" s="3" t="s">
-        <v>1727</v>
+        <v>1741</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1728</v>
+        <v>1742</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>2</v>
@@ -24347,10 +24317,10 @@
     </row>
     <row r="895" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A895" s="3" t="s">
-        <v>1729</v>
+        <v>1743</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1730</v>
+        <v>1744</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>2</v>
@@ -24367,10 +24337,10 @@
     </row>
     <row r="896" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A896" s="3" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>2</v>
@@ -24387,10 +24357,10 @@
     </row>
     <row r="897" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A897" s="3" t="s">
-        <v>1733</v>
+        <v>1747</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>2</v>
@@ -24407,10 +24377,10 @@
     </row>
     <row r="898" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A898" s="3" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>2</v>
@@ -24427,10 +24397,10 @@
     </row>
     <row r="899" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A899" s="3" t="s">
-        <v>1737</v>
+        <v>1751</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1738</v>
+        <v>1752</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>2</v>
@@ -24447,10 +24417,10 @@
     </row>
     <row r="900" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A900" s="3" t="s">
-        <v>1739</v>
+        <v>1753</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>2</v>
@@ -24467,10 +24437,10 @@
     </row>
     <row r="901" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A901" s="3" t="s">
-        <v>1741</v>
+        <v>1754</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1742</v>
+        <v>1755</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>2</v>
@@ -24487,10 +24457,10 @@
     </row>
     <row r="902" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A902" s="3" t="s">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1744</v>
+        <v>1663</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>2</v>
@@ -24507,10 +24477,10 @@
     </row>
     <row r="903" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A903" s="3" t="s">
-        <v>1745</v>
+        <v>1757</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1746</v>
+        <v>1758</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>2</v>
@@ -24527,10 +24497,10 @@
     </row>
     <row r="904" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A904" s="3" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1748</v>
+        <v>1760</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>2</v>
@@ -24547,10 +24517,10 @@
     </row>
     <row r="905" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A905" s="3" t="s">
-        <v>1749</v>
+        <v>1761</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1734</v>
+        <v>1762</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>2</v>
@@ -24567,10 +24537,10 @@
     </row>
     <row r="906" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A906" s="3" t="s">
-        <v>1750</v>
+        <v>1763</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1751</v>
+        <v>1663</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>2</v>
@@ -24587,10 +24557,10 @@
     </row>
     <row r="907" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A907" s="3" t="s">
-        <v>1752</v>
+        <v>1764</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1659</v>
+        <v>1765</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>2</v>
@@ -24607,10 +24577,10 @@
     </row>
     <row r="908" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A908" s="3" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1754</v>
+        <v>1767</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>2</v>
@@ -24619,18 +24589,18 @@
         <v>2</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A909" s="3" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1756</v>
+        <v>1769</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>2</v>
@@ -24647,10 +24617,10 @@
     </row>
     <row r="910" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A910" s="3" t="s">
-        <v>1757</v>
+        <v>1770</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1758</v>
+        <v>1771</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>2</v>
@@ -24667,10 +24637,10 @@
     </row>
     <row r="911" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A911" s="3" t="s">
-        <v>1759</v>
+        <v>1772</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1659</v>
+        <v>1773</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>2</v>
@@ -24687,10 +24657,10 @@
     </row>
     <row r="912" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A912" s="3" t="s">
-        <v>1760</v>
+        <v>1774</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1761</v>
+        <v>1775</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>2</v>
@@ -24707,10 +24677,10 @@
     </row>
     <row r="913" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A913" s="3" t="s">
-        <v>1762</v>
+        <v>1776</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1763</v>
+        <v>1777</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>2</v>
@@ -24719,18 +24689,18 @@
         <v>2</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A914" s="3" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>2</v>
@@ -24747,10 +24717,10 @@
     </row>
     <row r="915" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A915" s="3" t="s">
-        <v>1766</v>
+        <v>1780</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1767</v>
+        <v>1781</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>2</v>
@@ -24767,10 +24737,10 @@
     </row>
     <row r="916" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A916" s="3" t="s">
-        <v>1768</v>
+        <v>1782</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1769</v>
+        <v>1783</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>2</v>
@@ -24787,10 +24757,10 @@
     </row>
     <row r="917" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A917" s="3" t="s">
-        <v>1770</v>
+        <v>1784</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1771</v>
+        <v>1785</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>2</v>
@@ -24807,10 +24777,10 @@
     </row>
     <row r="918" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A918" s="3" t="s">
-        <v>1772</v>
+        <v>1786</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1773</v>
+        <v>1978</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>2</v>
@@ -24827,10 +24797,10 @@
     </row>
     <row r="919" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A919" s="3" t="s">
-        <v>1774</v>
+        <v>1787</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1775</v>
+        <v>1979</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>2</v>
@@ -24847,10 +24817,10 @@
     </row>
     <row r="920" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A920" s="3" t="s">
-        <v>1776</v>
+        <v>1788</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1777</v>
+        <v>1789</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>2</v>
@@ -24867,10 +24837,10 @@
     </row>
     <row r="921" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A921" s="3" t="s">
-        <v>1778</v>
+        <v>1790</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1779</v>
+        <v>1791</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>2</v>
@@ -24887,10 +24857,10 @@
     </row>
     <row r="922" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A922" s="3" t="s">
-        <v>1780</v>
+        <v>1792</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1781</v>
+        <v>1793</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>2</v>
@@ -24907,10 +24877,10 @@
     </row>
     <row r="923" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A923" s="3" t="s">
-        <v>1782</v>
+        <v>1794</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1974</v>
+        <v>1795</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>2</v>
@@ -24927,10 +24897,10 @@
     </row>
     <row r="924" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A924" s="3" t="s">
-        <v>1783</v>
+        <v>1796</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1975</v>
+        <v>1795</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>2</v>
@@ -24947,10 +24917,10 @@
     </row>
     <row r="925" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A925" s="3" t="s">
-        <v>1784</v>
+        <v>1797</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>2</v>
@@ -24967,10 +24937,10 @@
     </row>
     <row r="926" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A926" s="3" t="s">
-        <v>1786</v>
+        <v>1798</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>2</v>
@@ -24987,10 +24957,10 @@
     </row>
     <row r="927" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A927" s="3" t="s">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>2</v>
@@ -25007,10 +24977,10 @@
     </row>
     <row r="928" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A928" s="3" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>2</v>
@@ -25027,10 +24997,10 @@
     </row>
     <row r="929" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A929" s="3" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1791</v>
+        <v>1803</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>2</v>
@@ -25047,10 +25017,10 @@
     </row>
     <row r="930" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A930" s="3" t="s">
-        <v>1793</v>
+        <v>1804</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1791</v>
+        <v>1805</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>2</v>
@@ -25067,10 +25037,10 @@
     </row>
     <row r="931" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A931" s="3" t="s">
-        <v>1794</v>
+        <v>1806</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1791</v>
+        <v>1807</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>2</v>
@@ -25087,10 +25057,10 @@
     </row>
     <row r="932" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A932" s="3" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1791</v>
+        <v>1809</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>2</v>
@@ -25107,10 +25077,10 @@
     </row>
     <row r="933" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A933" s="3" t="s">
-        <v>1796</v>
+        <v>1810</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1797</v>
+        <v>1811</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>2</v>
@@ -25127,10 +25097,10 @@
     </row>
     <row r="934" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A934" s="3" t="s">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1799</v>
+        <v>1813</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>2</v>
@@ -25147,10 +25117,10 @@
     </row>
     <row r="935" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A935" s="3" t="s">
-        <v>1800</v>
+        <v>1814</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1801</v>
+        <v>1815</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>2</v>
@@ -25167,10 +25137,10 @@
     </row>
     <row r="936" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A936" s="3" t="s">
-        <v>1802</v>
+        <v>1816</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1803</v>
+        <v>1817</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>2</v>
@@ -25187,10 +25157,10 @@
     </row>
     <row r="937" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A937" s="3" t="s">
-        <v>1804</v>
+        <v>1818</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1805</v>
+        <v>1819</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>2</v>
@@ -25207,10 +25177,10 @@
     </row>
     <row r="938" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A938" s="3" t="s">
-        <v>1806</v>
+        <v>1820</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1807</v>
+        <v>1821</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2</v>
@@ -25227,10 +25197,10 @@
     </row>
     <row r="939" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A939" s="3" t="s">
-        <v>1808</v>
+        <v>1822</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1809</v>
+        <v>1823</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>2</v>
@@ -25247,10 +25217,10 @@
     </row>
     <row r="940" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A940" s="3" t="s">
-        <v>1810</v>
+        <v>1824</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1811</v>
+        <v>1825</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>2</v>
@@ -25267,10 +25237,10 @@
     </row>
     <row r="941" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A941" s="3" t="s">
-        <v>1812</v>
+        <v>1826</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1813</v>
+        <v>1827</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>2</v>
@@ -25287,10 +25257,10 @@
     </row>
     <row r="942" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A942" s="3" t="s">
-        <v>1814</v>
+        <v>1828</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>2</v>
@@ -25307,10 +25277,10 @@
     </row>
     <row r="943" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A943" s="3" t="s">
-        <v>1816</v>
+        <v>1830</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1817</v>
+        <v>1831</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>2</v>
@@ -25327,10 +25297,10 @@
     </row>
     <row r="944" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A944" s="3" t="s">
-        <v>1818</v>
+        <v>1832</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1819</v>
+        <v>1795</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>2</v>
@@ -25347,10 +25317,10 @@
     </row>
     <row r="945" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A945" s="3" t="s">
-        <v>1820</v>
+        <v>1833</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1821</v>
+        <v>1795</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>2</v>
@@ -25367,10 +25337,10 @@
     </row>
     <row r="946" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A946" s="3" t="s">
-        <v>1822</v>
+        <v>1834</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1823</v>
+        <v>1795</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>2</v>
@@ -25387,10 +25357,10 @@
     </row>
     <row r="947" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A947" s="3" t="s">
-        <v>1824</v>
+        <v>1835</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>2</v>
@@ -25407,10 +25377,10 @@
     </row>
     <row r="948" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A948" s="3" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1827</v>
+        <v>1795</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>2</v>
@@ -25427,10 +25397,10 @@
     </row>
     <row r="949" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A949" s="3" t="s">
-        <v>1828</v>
+        <v>1837</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1791</v>
+        <v>1838</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>2</v>
@@ -25447,10 +25417,10 @@
     </row>
     <row r="950" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A950" s="3" t="s">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1791</v>
+        <v>1840</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>2</v>
@@ -25467,10 +25437,10 @@
     </row>
     <row r="951" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A951" s="3" t="s">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1791</v>
+        <v>1842</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>2</v>
@@ -25487,10 +25457,10 @@
     </row>
     <row r="952" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A952" s="3" t="s">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1809</v>
+        <v>1844</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>2</v>
@@ -25507,10 +25477,10 @@
     </row>
     <row r="953" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A953" s="3" t="s">
-        <v>1832</v>
+        <v>1845</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1791</v>
+        <v>1846</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>2</v>
@@ -25527,10 +25497,10 @@
     </row>
     <row r="954" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A954" s="3" t="s">
-        <v>1833</v>
+        <v>1847</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="C954" s="2" t="s">
         <v>2</v>
@@ -25547,10 +25517,10 @@
     </row>
     <row r="955" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A955" s="3" t="s">
-        <v>1835</v>
+        <v>1849</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1836</v>
+        <v>1850</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>2</v>
@@ -25559,18 +25529,18 @@
         <v>2</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A956" s="3" t="s">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1838</v>
+        <v>1852</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>2</v>
@@ -25587,10 +25557,10 @@
     </row>
     <row r="957" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A957" s="3" t="s">
-        <v>1839</v>
+        <v>1853</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1840</v>
+        <v>1854</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>2</v>
@@ -25607,10 +25577,10 @@
     </row>
     <row r="958" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A958" s="3" t="s">
-        <v>1841</v>
+        <v>1855</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1842</v>
+        <v>1856</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>2</v>
@@ -25627,10 +25597,10 @@
     </row>
     <row r="959" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A959" s="3" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1844</v>
+        <v>1858</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>2</v>
@@ -25647,10 +25617,10 @@
     </row>
     <row r="960" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A960" s="3" t="s">
-        <v>1845</v>
+        <v>1859</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1846</v>
+        <v>1860</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>2</v>
@@ -25667,10 +25637,10 @@
     </row>
     <row r="961" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A961" s="3" t="s">
-        <v>1847</v>
+        <v>1861</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1848</v>
+        <v>1862</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>2</v>
@@ -25687,10 +25657,10 @@
     </row>
     <row r="962" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A962" s="3" t="s">
-        <v>1849</v>
+        <v>1863</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1850</v>
+        <v>1864</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>2</v>
@@ -25707,10 +25677,10 @@
     </row>
     <row r="963" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A963" s="3" t="s">
-        <v>1851</v>
+        <v>1865</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1852</v>
+        <v>1866</v>
       </c>
       <c r="C963" s="2" t="s">
         <v>2</v>
@@ -25719,18 +25689,18 @@
         <v>2</v>
       </c>
       <c r="E963" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A964" s="3" t="s">
-        <v>1853</v>
+        <v>1867</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1854</v>
+        <v>1712</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>2</v>
@@ -25739,18 +25709,18 @@
         <v>2</v>
       </c>
       <c r="E964" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A965" s="3" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1856</v>
+        <v>1869</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>2</v>
@@ -25759,18 +25729,18 @@
         <v>2</v>
       </c>
       <c r="E965" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A966" s="3" t="s">
-        <v>1857</v>
+        <v>1870</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1858</v>
+        <v>1871</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>2</v>
@@ -25787,10 +25757,10 @@
     </row>
     <row r="967" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A967" s="3" t="s">
-        <v>1859</v>
+        <v>1872</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1860</v>
+        <v>1873</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>2</v>
@@ -25807,10 +25777,10 @@
     </row>
     <row r="968" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A968" s="3" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1862</v>
+        <v>1875</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>2</v>
@@ -25819,18 +25789,18 @@
         <v>2</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A969" s="3" t="s">
-        <v>1863</v>
+        <v>1876</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1708</v>
+        <v>1877</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>2</v>
@@ -25839,18 +25809,18 @@
         <v>2</v>
       </c>
       <c r="E969" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A970" s="3" t="s">
-        <v>1864</v>
+        <v>1878</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1865</v>
+        <v>1825</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>2</v>
@@ -25859,18 +25829,18 @@
         <v>2</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A971" s="3" t="s">
-        <v>1866</v>
+        <v>1879</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1867</v>
+        <v>1825</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>2</v>
@@ -25879,18 +25849,18 @@
         <v>2</v>
       </c>
       <c r="E971" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F971" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A972" s="3" t="s">
-        <v>1868</v>
+        <v>1880</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1869</v>
+        <v>1881</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>2</v>
@@ -25899,18 +25869,18 @@
         <v>2</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F972" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A973" s="3" t="s">
-        <v>1870</v>
+        <v>1882</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1871</v>
+        <v>1883</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>2</v>
@@ -25919,18 +25889,18 @@
         <v>2</v>
       </c>
       <c r="E973" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F973" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A974" s="3" t="s">
-        <v>1872</v>
+        <v>1884</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1873</v>
+        <v>1885</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>2</v>
@@ -25939,18 +25909,18 @@
         <v>2</v>
       </c>
       <c r="E974" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F974" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A975" s="3" t="s">
-        <v>1874</v>
+        <v>1886</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1821</v>
+        <v>1887</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>2</v>
@@ -25967,10 +25937,10 @@
     </row>
     <row r="976" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A976" s="3" t="s">
-        <v>1875</v>
+        <v>1888</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1821</v>
+        <v>1887</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>2</v>
@@ -25987,10 +25957,10 @@
     </row>
     <row r="977" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A977" s="3" t="s">
-        <v>1876</v>
+        <v>1889</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1877</v>
+        <v>1887</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>2</v>
@@ -26007,10 +25977,10 @@
     </row>
     <row r="978" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A978" s="3" t="s">
-        <v>1878</v>
+        <v>1890</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>2</v>
@@ -26019,18 +25989,18 @@
         <v>2</v>
       </c>
       <c r="E978" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A979" s="3" t="s">
-        <v>1880</v>
+        <v>1891</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1881</v>
+        <v>1887</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>2</v>
@@ -26039,18 +26009,18 @@
         <v>2</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A980" s="3" t="s">
-        <v>1882</v>
+        <v>1892</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1883</v>
+        <v>1893</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>2</v>
@@ -26067,10 +26037,10 @@
     </row>
     <row r="981" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A981" s="3" t="s">
-        <v>1884</v>
+        <v>1894</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1883</v>
+        <v>1895</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>2</v>
@@ -26079,18 +26049,18 @@
         <v>2</v>
       </c>
       <c r="E981" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A982" s="3" t="s">
-        <v>1885</v>
+        <v>1896</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1883</v>
+        <v>1897</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>2</v>
@@ -26107,10 +26077,10 @@
     </row>
     <row r="983" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A983" s="3" t="s">
-        <v>1886</v>
+        <v>1898</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1883</v>
+        <v>1899</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>2</v>
@@ -26119,18 +26089,18 @@
         <v>2</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A984" s="3" t="s">
-        <v>1887</v>
+        <v>1900</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1883</v>
+        <v>1901</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>2</v>
@@ -26142,15 +26112,15 @@
         <v>5</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A985" s="3" t="s">
-        <v>1888</v>
+        <v>1902</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>2</v>
@@ -26159,7 +26129,7 @@
         <v>2</v>
       </c>
       <c r="E985" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F985" s="2" t="s">
         <v>2</v>
@@ -26167,10 +26137,10 @@
     </row>
     <row r="986" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A986" s="3" t="s">
-        <v>1890</v>
+        <v>1904</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1891</v>
+        <v>1905</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>2</v>
@@ -26187,10 +26157,10 @@
     </row>
     <row r="987" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A987" s="3" t="s">
-        <v>1892</v>
+        <v>1906</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1893</v>
+        <v>1907</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>2</v>
@@ -26199,18 +26169,18 @@
         <v>2</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F987" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A988" s="3" t="s">
-        <v>1894</v>
+        <v>1908</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1895</v>
+        <v>1909</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>2</v>
@@ -26227,10 +26197,10 @@
     </row>
     <row r="989" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A989" s="3" t="s">
-        <v>1896</v>
+        <v>1910</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>1897</v>
+        <v>1911</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>2</v>
@@ -26242,15 +26212,15 @@
         <v>5</v>
       </c>
       <c r="F989" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A990" s="3" t="s">
-        <v>1898</v>
+        <v>1912</v>
       </c>
       <c r="B990" s="4" t="s">
-        <v>1899</v>
+        <v>1913</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>2</v>
@@ -26262,15 +26232,15 @@
         <v>5</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A991" s="3" t="s">
-        <v>1900</v>
+        <v>1914</v>
       </c>
       <c r="B991" s="4" t="s">
-        <v>1901</v>
+        <v>1915</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>2</v>
@@ -26287,10 +26257,10 @@
     </row>
     <row r="992" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A992" s="3" t="s">
-        <v>1902</v>
+        <v>1916</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>1903</v>
+        <v>1917</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>2</v>
@@ -26299,18 +26269,18 @@
         <v>2</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A993" s="3" t="s">
-        <v>1904</v>
+        <v>1918</v>
       </c>
       <c r="B993" s="4" t="s">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>2</v>
@@ -26327,10 +26297,10 @@
     </row>
     <row r="994" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A994" s="3" t="s">
-        <v>1906</v>
+        <v>1920</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>1907</v>
+        <v>1921</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>2</v>
@@ -26347,10 +26317,10 @@
     </row>
     <row r="995" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A995" s="3" t="s">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="B995" s="4" t="s">
-        <v>1909</v>
+        <v>1923</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>2</v>
@@ -26367,10 +26337,10 @@
     </row>
     <row r="996" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A996" s="3" t="s">
-        <v>1910</v>
+        <v>1924</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>1911</v>
+        <v>1925</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>2</v>
@@ -26387,10 +26357,10 @@
     </row>
     <row r="997" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A997" s="3" t="s">
-        <v>1912</v>
+        <v>1926</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1913</v>
+        <v>1927</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>2</v>
@@ -26407,10 +26377,10 @@
     </row>
     <row r="998" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A998" s="3" t="s">
-        <v>1914</v>
+        <v>1928</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>1915</v>
+        <v>1929</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>2</v>
@@ -26427,10 +26397,10 @@
     </row>
     <row r="999" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A999" s="3" t="s">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>1917</v>
+        <v>1931</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>2</v>
@@ -26439,18 +26409,18 @@
         <v>2</v>
       </c>
       <c r="E999" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F999" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1000" s="3" t="s">
-        <v>1918</v>
+        <v>1932</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>1919</v>
+        <v>1933</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>2</v>
@@ -26459,18 +26429,18 @@
         <v>2</v>
       </c>
       <c r="E1000" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1001" s="3" t="s">
-        <v>1920</v>
+        <v>1934</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1921</v>
+        <v>1935</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>2</v>
@@ -26479,18 +26449,18 @@
         <v>2</v>
       </c>
       <c r="E1001" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1002" s="3" t="s">
-        <v>1922</v>
+        <v>1936</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1923</v>
+        <v>1937</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>2</v>
@@ -26507,10 +26477,10 @@
     </row>
     <row r="1003" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1003" s="3" t="s">
-        <v>1924</v>
+        <v>1938</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1925</v>
+        <v>1939</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>2</v>
@@ -26527,10 +26497,10 @@
     </row>
     <row r="1004" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1004" s="3" t="s">
-        <v>1926</v>
+        <v>1940</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1927</v>
+        <v>1941</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>2</v>
@@ -26547,10 +26517,10 @@
     </row>
     <row r="1005" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1005" s="3" t="s">
-        <v>1928</v>
+        <v>1942</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="C1005" s="2" t="s">
         <v>2</v>
@@ -26567,10 +26537,10 @@
     </row>
     <row r="1006" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1006" s="3" t="s">
-        <v>1930</v>
+        <v>1944</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1931</v>
+        <v>1945</v>
       </c>
       <c r="C1006" s="2" t="s">
         <v>2</v>
@@ -26587,10 +26557,10 @@
     </row>
     <row r="1007" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1007" s="3" t="s">
-        <v>1932</v>
+        <v>1986</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>1933</v>
+        <v>1987</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>2</v>
@@ -26599,18 +26569,18 @@
         <v>2</v>
       </c>
       <c r="E1007" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1007" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1008" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1008" s="3" t="s">
-        <v>1934</v>
+        <v>1988</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>1935</v>
+        <v>1989</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>2</v>
@@ -26619,111 +26589,51 @@
         <v>2</v>
       </c>
       <c r="E1008" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1008" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1009" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B1009" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C1009" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1009" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1009" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1009" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1009" s="3"/>
+      <c r="B1009" s="4"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
     </row>
     <row r="1010" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1010" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B1010" s="4" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C1010" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1010" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1010" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1010" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1010" s="3"/>
+      <c r="B1010" s="4"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
     </row>
     <row r="1011" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1011" s="3" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B1011" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C1011" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1011" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1011" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1011" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1011" s="3"/>
+      <c r="B1011" s="4"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
     </row>
     <row r="1012" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1012" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B1012" s="4" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C1012" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1012" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1012" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1012" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1012" s="3"/>
+      <c r="B1012" s="4"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
     </row>
     <row r="1013" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1013" s="3" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B1013" s="4" t="s">
-        <v>1985</v>
-      </c>
-      <c r="C1013" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1013" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1013" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1013" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1013" s="3"/>
+      <c r="B1013" s="4"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
     </row>
     <row r="1014" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1014" s="3"/>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1E016-10C4-4C27-85B0-65088C00896C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D494F7F-A057-4B3D-A998-A4645A7A4A52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2001">
   <si>
     <t>0010</t>
   </si>
@@ -2983,15 +2983,9 @@
     <t>1500</t>
   </si>
   <si>
-    <t>สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1510</t>
   </si>
   <si>
-    <t>ฝ่ายบริการศุลกากร สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1511</t>
   </si>
   <si>
@@ -3007,15 +3001,9 @@
     <t>1520</t>
   </si>
   <si>
-    <t>ฝ่ายบริการผู้โดยสาร สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1555</t>
   </si>
   <si>
-    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สนามบินดอนเมือง</t>
-  </si>
-  <si>
     <t>1700</t>
   </si>
   <si>
@@ -6022,7 +6010,49 @@
     <t>ส่วนมาตรฐานวิเคราะห์สินค้า (สมศ.)</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 4 มี.ค. 2564</t>
+    <t>อัพเดทข้มูลล่าสุด : 31 มี.ค. 2564</t>
+  </si>
+  <si>
+    <t>สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>ส่วนบริการศุลกากร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>คลังสินค้า บ.เทคโนโลยี เอเชียแปซิฟิค จำกัด (EXPRESS)</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>คลังสินค้า บริษัท เอเซีย กราวด์ เซอร์วิส จำกัด (EXPRESS)</t>
+  </si>
+  <si>
+    <t>ส่วนบริการผู้โดยสาร สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>สถานที่ตรวจปล่อยสำหรับคลังสินค้าทัณฑ์บน สำนักงานศุลกากรท่าอากาศยานดอนเมือง</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>ด่านพรมแดนสิงขร</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>ที่มั่นคง คอนเทนเนอร์ บ. สยามคอมเมอร์เชียล ซีพอร์ท จำกัด</t>
+  </si>
+  <si>
+    <t>3579</t>
+  </si>
+  <si>
+    <t>สถานประกอบการของเร่งด่วนทางบก บริษัท สมาร์ท อะเลิร์ท จำกัด</t>
   </si>
 </sst>
 </file>
@@ -6428,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B1008"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6441,7 +6471,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6449,7 +6479,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -6457,22 +6487,22 @@
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.6">
@@ -10877,10 +10907,10 @@
     </row>
     <row r="223" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A223" s="3" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -10897,10 +10927,10 @@
     </row>
     <row r="224" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A224" s="3" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -11040,7 +11070,7 @@
         <v>454</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -16300,7 +16330,7 @@
         <v>976</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>977</v>
+        <v>1987</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>2</v>
@@ -16317,10 +16347,10 @@
     </row>
     <row r="495" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A495" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>979</v>
+        <v>1988</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>5</v>
@@ -16337,10 +16367,10 @@
     </row>
     <row r="496" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A496" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>5</v>
@@ -16357,10 +16387,10 @@
     </row>
     <row r="497" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A497" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>5</v>
@@ -16377,10 +16407,10 @@
     </row>
     <row r="498" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A498" s="3" t="s">
-        <v>984</v>
+        <v>1989</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>985</v>
+        <v>1990</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>5</v>
@@ -16397,13 +16427,13 @@
     </row>
     <row r="499" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A499" s="3" t="s">
-        <v>986</v>
+        <v>1991</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>987</v>
+        <v>1992</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>2</v>
@@ -16417,13 +16447,13 @@
     </row>
     <row r="500" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A500" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>989</v>
+        <v>1993</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>2</v>
@@ -16432,15 +16462,15 @@
         <v>5</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A501" s="3" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>991</v>
+        <v>1994</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>2</v>
@@ -16452,15 +16482,15 @@
         <v>5</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A502" s="3" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>2</v>
@@ -16477,10 +16507,10 @@
     </row>
     <row r="503" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A503" s="3" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>2</v>
@@ -16489,18 +16519,18 @@
         <v>2</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A504" s="3" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>2</v>
@@ -16517,10 +16547,10 @@
     </row>
     <row r="505" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A505" s="3" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>2</v>
@@ -16529,18 +16559,18 @@
         <v>2</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A506" s="3" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>2</v>
@@ -16557,10 +16587,10 @@
     </row>
     <row r="507" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A507" s="3" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>2</v>
@@ -16577,10 +16607,10 @@
     </row>
     <row r="508" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A508" s="3" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>2</v>
@@ -16597,10 +16627,10 @@
     </row>
     <row r="509" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A509" s="3" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>2</v>
@@ -16617,10 +16647,10 @@
     </row>
     <row r="510" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A510" s="3" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>2</v>
@@ -16637,10 +16667,10 @@
     </row>
     <row r="511" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A511" s="3" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>2</v>
@@ -16657,10 +16687,10 @@
     </row>
     <row r="512" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A512" s="3" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>2</v>
@@ -16672,15 +16702,15 @@
         <v>5</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A513" s="3" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>2</v>
@@ -16692,15 +16722,15 @@
         <v>5</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A514" s="3" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>2</v>
@@ -16712,15 +16742,15 @@
         <v>5</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A515" s="3" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>2</v>
@@ -16737,10 +16767,10 @@
     </row>
     <row r="516" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A516" s="3" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>2</v>
@@ -16752,15 +16782,15 @@
         <v>5</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A517" s="3" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>2</v>
@@ -16772,15 +16802,15 @@
         <v>5</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A518" s="3" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>2</v>
@@ -16792,15 +16822,15 @@
         <v>5</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A519" s="3" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>2</v>
@@ -16809,18 +16839,18 @@
         <v>2</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A520" s="3" t="s">
-        <v>1957</v>
+        <v>1020</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1958</v>
+        <v>1021</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2</v>
@@ -16829,18 +16859,18 @@
         <v>2</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A521" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>2</v>
@@ -16857,30 +16887,30 @@
     </row>
     <row r="522" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A522" s="3" t="s">
-        <v>1030</v>
+        <v>1953</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1031</v>
+        <v>1954</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A523" s="3" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>2</v>
@@ -16889,7 +16919,7 @@
         <v>2</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>2</v>
@@ -16897,16 +16927,16 @@
     </row>
     <row r="524" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A524" s="3" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>5</v>
@@ -16917,10 +16947,10 @@
     </row>
     <row r="525" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A525" s="3" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>2</v>
@@ -16937,16 +16967,16 @@
     </row>
     <row r="526" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A526" s="3" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>5</v>
@@ -16957,30 +16987,30 @@
     </row>
     <row r="527" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A527" s="3" t="s">
-        <v>1040</v>
+        <v>1995</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1041</v>
+        <v>1996</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A528" s="3" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>2</v>
@@ -16997,10 +17027,10 @@
     </row>
     <row r="529" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A529" s="3" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>5</v>
@@ -17017,13 +17047,13 @@
     </row>
     <row r="530" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A530" s="3" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>5</v>
@@ -17032,21 +17062,21 @@
         <v>5</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A531" s="3" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>5</v>
@@ -17057,13 +17087,13 @@
     </row>
     <row r="532" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A532" s="3" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>5</v>
@@ -17072,15 +17102,15 @@
         <v>5</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A533" s="3" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2</v>
@@ -17097,16 +17127,16 @@
     </row>
     <row r="534" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A534" s="3" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>5</v>
@@ -17117,16 +17147,16 @@
     </row>
     <row r="535" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A535" s="3" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>5</v>
@@ -17137,33 +17167,33 @@
     </row>
     <row r="536" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A536" s="3" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A537" s="3" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>2</v>
@@ -17177,10 +17207,10 @@
     </row>
     <row r="538" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A538" s="3" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2</v>
@@ -17197,16 +17227,16 @@
     </row>
     <row r="539" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A539" s="3" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>5</v>
@@ -17217,16 +17247,16 @@
     </row>
     <row r="540" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A540" s="3" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>5</v>
@@ -17237,16 +17267,16 @@
     </row>
     <row r="541" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A541" s="3" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>5</v>
@@ -17257,13 +17287,13 @@
     </row>
     <row r="542" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A542" s="3" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>5</v>
@@ -17272,15 +17302,15 @@
         <v>5</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A543" s="3" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>2</v>
@@ -17297,10 +17327,10 @@
     </row>
     <row r="544" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A544" s="3" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>2</v>
@@ -17317,16 +17347,16 @@
     </row>
     <row r="545" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A545" s="3" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>5</v>
@@ -17337,16 +17367,16 @@
     </row>
     <row r="546" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A546" s="3" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>5</v>
@@ -17357,16 +17387,16 @@
     </row>
     <row r="547" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A547" s="3" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>5</v>
@@ -17377,36 +17407,36 @@
     </row>
     <row r="548" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A548" s="3" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A549" s="3" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>5</v>
@@ -17417,16 +17447,16 @@
     </row>
     <row r="550" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A550" s="3" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>5</v>
@@ -17437,13 +17467,13 @@
     </row>
     <row r="551" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A551" s="3" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>5</v>
@@ -17452,15 +17482,15 @@
         <v>5</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A552" s="3" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>2</v>
@@ -17477,10 +17507,10 @@
     </row>
     <row r="553" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A553" s="3" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>2</v>
@@ -17497,16 +17527,16 @@
     </row>
     <row r="554" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A554" s="3" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>5</v>
@@ -17517,13 +17547,13 @@
     </row>
     <row r="555" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A555" s="3" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1980</v>
+        <v>1087</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>5</v>
@@ -17532,18 +17562,18 @@
         <v>5</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A556" s="3" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1981</v>
+        <v>1089</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>5</v>
@@ -17552,18 +17582,18 @@
         <v>5</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A557" s="3" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1982</v>
+        <v>1091</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>2</v>
@@ -17572,21 +17602,21 @@
         <v>5</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A558" s="3" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>5</v>
@@ -17597,30 +17627,30 @@
     </row>
     <row r="559" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A559" s="3" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1101</v>
+        <v>1977</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A560" s="3" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1103</v>
+        <v>1978</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>5</v>
@@ -17632,15 +17662,15 @@
         <v>5</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A561" s="3" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1105</v>
+        <v>1979</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2</v>
@@ -17657,13 +17687,13 @@
     </row>
     <row r="562" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A562" s="3" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>2</v>
@@ -17677,13 +17707,13 @@
     </row>
     <row r="563" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A563" s="3" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>2</v>
@@ -17697,10 +17727,10 @@
     </row>
     <row r="564" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A564" s="3" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2</v>
@@ -17712,18 +17742,18 @@
         <v>5</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A565" s="3" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>2</v>
@@ -17737,10 +17767,10 @@
     </row>
     <row r="566" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A566" s="3" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -17757,10 +17787,10 @@
     </row>
     <row r="567" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A567" s="3" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>2</v>
@@ -17777,10 +17807,10 @@
     </row>
     <row r="568" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A568" s="3" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>2</v>
@@ -17797,10 +17827,10 @@
     </row>
     <row r="569" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A569" s="3" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>2</v>
@@ -17817,10 +17847,10 @@
     </row>
     <row r="570" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A570" s="3" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2</v>
@@ -17837,10 +17867,10 @@
     </row>
     <row r="571" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A571" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1961</v>
+        <v>1115</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>2</v>
@@ -17857,10 +17887,10 @@
     </row>
     <row r="572" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A572" s="3" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1962</v>
+        <v>1117</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>2</v>
@@ -17869,7 +17899,7 @@
         <v>2</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>2</v>
@@ -17877,10 +17907,10 @@
     </row>
     <row r="573" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A573" s="3" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1963</v>
+        <v>1119</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>2</v>
@@ -17889,7 +17919,7 @@
         <v>2</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>2</v>
@@ -17897,39 +17927,39 @@
     </row>
     <row r="574" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A574" s="3" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1128</v>
+        <v>1957</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A575" s="3" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1130</v>
+        <v>1958</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>2</v>
@@ -17937,10 +17967,10 @@
     </row>
     <row r="576" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A576" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>2</v>
@@ -17949,7 +17979,7 @@
         <v>2</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>2</v>
@@ -17957,36 +17987,36 @@
     </row>
     <row r="577" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A577" s="3" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A578" s="3" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>5</v>
@@ -17997,10 +18027,10 @@
     </row>
     <row r="579" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A579" s="3" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1137</v>
+        <v>1960</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>2</v>
@@ -18012,35 +18042,35 @@
         <v>5</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A580" s="3" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A581" s="3" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>2</v>
@@ -18057,10 +18087,10 @@
     </row>
     <row r="582" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A582" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>2</v>
@@ -18072,35 +18102,35 @@
         <v>5</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A583" s="3" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A584" s="3" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>2</v>
@@ -18112,15 +18142,15 @@
         <v>5</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A585" s="3" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>2</v>
@@ -18129,7 +18159,7 @@
         <v>2</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>2</v>
@@ -18137,19 +18167,19 @@
     </row>
     <row r="586" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A586" s="3" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>2</v>
@@ -18157,16 +18187,16 @@
     </row>
     <row r="587" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A587" s="3" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>5</v>
@@ -18177,19 +18207,19 @@
     </row>
     <row r="588" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A588" s="3" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F588" s="2" t="s">
         <v>2</v>
@@ -18197,10 +18227,10 @@
     </row>
     <row r="589" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A589" s="3" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>5</v>
@@ -18217,30 +18247,30 @@
     </row>
     <row r="590" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A590" s="3" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A591" s="3" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>5</v>
@@ -18257,10 +18287,10 @@
     </row>
     <row r="592" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A592" s="3" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>5</v>
@@ -18277,10 +18307,10 @@
     </row>
     <row r="593" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A593" s="3" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>5</v>
@@ -18297,10 +18327,10 @@
     </row>
     <row r="594" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A594" s="3" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>5</v>
@@ -18317,10 +18347,10 @@
     </row>
     <row r="595" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A595" s="3" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>5</v>
@@ -18337,13 +18367,13 @@
     </row>
     <row r="596" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A596" s="3" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>2</v>
@@ -18357,10 +18387,10 @@
     </row>
     <row r="597" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A597" s="3" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>5</v>
@@ -18377,10 +18407,10 @@
     </row>
     <row r="598" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A598" s="3" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>5</v>
@@ -18397,13 +18427,13 @@
     </row>
     <row r="599" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A599" s="3" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>2</v>
@@ -18417,13 +18447,13 @@
     </row>
     <row r="600" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A600" s="3" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>2</v>
@@ -18432,18 +18462,18 @@
         <v>5</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A601" s="3" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>2</v>
@@ -18452,15 +18482,15 @@
         <v>5</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A602" s="3" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>5</v>
@@ -18477,10 +18507,10 @@
     </row>
     <row r="603" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A603" s="3" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>2</v>
@@ -18492,15 +18522,15 @@
         <v>5</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A604" s="3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>2</v>
@@ -18512,15 +18542,15 @@
         <v>5</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A605" s="3" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>5</v>
@@ -18537,13 +18567,13 @@
     </row>
     <row r="606" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A606" s="3" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>2</v>
@@ -18557,10 +18587,10 @@
     </row>
     <row r="607" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A607" s="3" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>2</v>
@@ -18577,13 +18607,13 @@
     </row>
     <row r="608" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A608" s="3" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>2</v>
@@ -18592,18 +18622,18 @@
         <v>5</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A609" s="3" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>2</v>
@@ -18617,13 +18647,13 @@
     </row>
     <row r="610" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A610" s="3" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>2</v>
@@ -18637,13 +18667,13 @@
     </row>
     <row r="611" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A611" s="3" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>2</v>
@@ -18652,18 +18682,18 @@
         <v>5</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A612" s="3" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>2</v>
@@ -18677,10 +18707,10 @@
     </row>
     <row r="613" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A613" s="3" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>5</v>
@@ -18697,13 +18727,13 @@
     </row>
     <row r="614" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A614" s="3" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>2</v>
@@ -18717,10 +18747,10 @@
     </row>
     <row r="615" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A615" s="3" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>5</v>
@@ -18737,13 +18767,13 @@
     </row>
     <row r="616" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A616" s="3" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>2</v>
@@ -18757,10 +18787,10 @@
     </row>
     <row r="617" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A617" s="3" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>2</v>
@@ -18772,18 +18802,18 @@
         <v>5</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A618" s="3" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>2</v>
@@ -18797,10 +18827,10 @@
     </row>
     <row r="619" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A619" s="3" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2</v>
@@ -18817,10 +18847,10 @@
     </row>
     <row r="620" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A620" s="3" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2</v>
@@ -18832,15 +18862,15 @@
         <v>5</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A621" s="3" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>2</v>
@@ -18857,10 +18887,10 @@
     </row>
     <row r="622" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A622" s="3" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2</v>
@@ -18877,10 +18907,10 @@
     </row>
     <row r="623" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A623" s="3" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2</v>
@@ -18897,10 +18927,10 @@
     </row>
     <row r="624" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A624" s="3" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1950</v>
+        <v>1217</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>2</v>
@@ -18917,10 +18947,10 @@
     </row>
     <row r="625" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A625" s="3" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2</v>
@@ -18937,13 +18967,13 @@
     </row>
     <row r="626" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A626" s="3" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>2</v>
@@ -18957,10 +18987,10 @@
     </row>
     <row r="627" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A627" s="3" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1232</v>
+        <v>1946</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>2</v>
@@ -18969,7 +18999,7 @@
         <v>2</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>2</v>
@@ -18977,10 +19007,10 @@
     </row>
     <row r="628" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A628" s="3" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>2</v>
@@ -18989,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>2</v>
@@ -18997,19 +19027,19 @@
     </row>
     <row r="629" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A629" s="3" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F629" s="2" t="s">
         <v>2</v>
@@ -19017,10 +19047,10 @@
     </row>
     <row r="630" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A630" s="3" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>2</v>
@@ -19037,10 +19067,10 @@
     </row>
     <row r="631" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A631" s="3" t="s">
-        <v>1239</v>
+        <v>1997</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1240</v>
+        <v>1998</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>2</v>
@@ -19057,10 +19087,10 @@
     </row>
     <row r="632" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A632" s="3" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>2</v>
@@ -19069,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>2</v>
@@ -19077,19 +19107,19 @@
     </row>
     <row r="633" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A633" s="3" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F633" s="2" t="s">
         <v>2</v>
@@ -19097,10 +19127,10 @@
     </row>
     <row r="634" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A634" s="3" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>2</v>
@@ -19109,7 +19139,7 @@
         <v>2</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>2</v>
@@ -19117,10 +19147,10 @@
     </row>
     <row r="635" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A635" s="3" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>2</v>
@@ -19132,15 +19162,15 @@
         <v>5</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A636" s="3" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>2</v>
@@ -19157,13 +19187,13 @@
     </row>
     <row r="637" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A637" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>2</v>
@@ -19172,15 +19202,15 @@
         <v>5</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A638" s="3" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>2</v>
@@ -19197,10 +19227,10 @@
     </row>
     <row r="639" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A639" s="3" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>2</v>
@@ -19212,15 +19242,15 @@
         <v>5</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A640" s="3" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>2</v>
@@ -19237,10 +19267,10 @@
     </row>
     <row r="641" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A641" s="3" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>2</v>
@@ -19252,15 +19282,15 @@
         <v>5</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A642" s="3" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>2</v>
@@ -19277,10 +19307,10 @@
     </row>
     <row r="643" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A643" s="3" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>2</v>
@@ -19297,10 +19327,10 @@
     </row>
     <row r="644" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A644" s="3" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>2</v>
@@ -19317,10 +19347,10 @@
     </row>
     <row r="645" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A645" s="3" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>2</v>
@@ -19337,10 +19367,10 @@
     </row>
     <row r="646" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A646" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>2</v>
@@ -19357,10 +19387,10 @@
     </row>
     <row r="647" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A647" s="3" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2</v>
@@ -19377,10 +19407,10 @@
     </row>
     <row r="648" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A648" s="3" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>2</v>
@@ -19397,10 +19427,10 @@
     </row>
     <row r="649" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A649" s="3" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>2</v>
@@ -19417,10 +19447,10 @@
     </row>
     <row r="650" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A650" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>2</v>
@@ -19437,10 +19467,10 @@
     </row>
     <row r="651" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A651" s="3" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>2</v>
@@ -19457,10 +19487,10 @@
     </row>
     <row r="652" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A652" s="3" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>2</v>
@@ -19469,7 +19499,7 @@
         <v>2</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>2</v>
@@ -19477,10 +19507,10 @@
     </row>
     <row r="653" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A653" s="3" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>2</v>
@@ -19489,7 +19519,7 @@
         <v>2</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>2</v>
@@ -19497,10 +19527,10 @@
     </row>
     <row r="654" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A654" s="3" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>2</v>
@@ -19509,7 +19539,7 @@
         <v>2</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>2</v>
@@ -19517,10 +19547,10 @@
     </row>
     <row r="655" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A655" s="3" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1965</v>
+        <v>1276</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>2</v>
@@ -19537,10 +19567,10 @@
     </row>
     <row r="656" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A656" s="3" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>2</v>
@@ -19549,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>2</v>
@@ -19557,10 +19587,10 @@
     </row>
     <row r="657" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A657" s="3" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>2</v>
@@ -19569,7 +19599,7 @@
         <v>2</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>2</v>
@@ -19577,10 +19607,10 @@
     </row>
     <row r="658" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A658" s="3" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>2</v>
@@ -19589,7 +19619,7 @@
         <v>2</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>2</v>
@@ -19597,10 +19627,10 @@
     </row>
     <row r="659" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A659" s="3" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1295</v>
+        <v>1961</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>2</v>
@@ -19617,10 +19647,10 @@
     </row>
     <row r="660" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A660" s="3" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>2</v>
@@ -19637,10 +19667,10 @@
     </row>
     <row r="661" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A661" s="3" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>2</v>
@@ -19657,10 +19687,10 @@
     </row>
     <row r="662" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A662" s="3" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>2</v>
@@ -19672,15 +19702,15 @@
         <v>5</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A663" s="3" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>2</v>
@@ -19697,10 +19727,10 @@
     </row>
     <row r="664" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A664" s="3" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2</v>
@@ -19717,10 +19747,10 @@
     </row>
     <row r="665" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A665" s="3" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2</v>
@@ -19729,7 +19759,7 @@
         <v>2</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F665" s="2" t="s">
         <v>2</v>
@@ -19737,16 +19767,16 @@
     </row>
     <row r="666" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A666" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>5</v>
@@ -19757,19 +19787,19 @@
     </row>
     <row r="667" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A667" s="3" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F667" s="2" t="s">
         <v>2</v>
@@ -19777,16 +19807,16 @@
     </row>
     <row r="668" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A668" s="3" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>5</v>
@@ -19797,16 +19827,16 @@
     </row>
     <row r="669" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A669" s="3" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>2</v>
@@ -19817,30 +19847,30 @@
     </row>
     <row r="670" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A670" s="3" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A671" s="3" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2</v>
@@ -19857,30 +19887,30 @@
     </row>
     <row r="672" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A672" s="3" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A673" s="3" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2</v>
@@ -19889,7 +19919,7 @@
         <v>5</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>2</v>
@@ -19897,39 +19927,39 @@
     </row>
     <row r="674" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A674" s="3" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A675" s="3" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>2</v>
@@ -19937,33 +19967,33 @@
     </row>
     <row r="676" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A676" s="3" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A677" s="3" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>5</v>
@@ -19972,21 +20002,21 @@
         <v>5</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A678" s="3" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>5</v>
@@ -19997,10 +20027,10 @@
     </row>
     <row r="679" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A679" s="3" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2</v>
@@ -20009,7 +20039,7 @@
         <v>2</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>2</v>
@@ -20017,13 +20047,13 @@
     </row>
     <row r="680" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A680" s="3" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>5</v>
@@ -20037,50 +20067,50 @@
     </row>
     <row r="681" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A681" s="3" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A682" s="3" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D682" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A683" s="3" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2</v>
@@ -20089,7 +20119,7 @@
         <v>2</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>2</v>
@@ -20097,16 +20127,16 @@
     </row>
     <row r="684" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A684" s="3" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>5</v>
@@ -20117,19 +20147,19 @@
     </row>
     <row r="685" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A685" s="3" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>2</v>
@@ -20137,39 +20167,39 @@
     </row>
     <row r="686" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A686" s="3" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A687" s="3" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>2</v>
@@ -20177,19 +20207,19 @@
     </row>
     <row r="688" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A688" s="3" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>2</v>
@@ -20197,19 +20227,19 @@
     </row>
     <row r="689" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A689" s="3" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F689" s="2" t="s">
         <v>2</v>
@@ -20217,39 +20247,39 @@
     </row>
     <row r="690" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A690" s="3" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D690" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A691" s="3" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>2</v>
@@ -20257,30 +20287,30 @@
     </row>
     <row r="692" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A692" s="3" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D692" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A693" s="3" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2</v>
@@ -20289,7 +20319,7 @@
         <v>5</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F693" s="2" t="s">
         <v>2</v>
@@ -20297,19 +20327,19 @@
     </row>
     <row r="694" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A694" s="3" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F694" s="2" t="s">
         <v>2</v>
@@ -20317,10 +20347,10 @@
     </row>
     <row r="695" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A695" s="3" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2</v>
@@ -20337,13 +20367,13 @@
     </row>
     <row r="696" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A696" s="3" t="s">
-        <v>1368</v>
+        <v>1999</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1369</v>
+        <v>2000</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D696" s="2" t="s">
         <v>2</v>
@@ -20357,36 +20387,36 @@
     </row>
     <row r="697" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A697" s="3" t="s">
-        <v>1984</v>
+        <v>1356</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1985</v>
+        <v>1357</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A698" s="3" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>5</v>
@@ -20397,19 +20427,19 @@
     </row>
     <row r="699" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A699" s="3" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F699" s="2" t="s">
         <v>2</v>
@@ -20417,10 +20447,10 @@
     </row>
     <row r="700" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A700" s="3" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>2</v>
@@ -20437,36 +20467,36 @@
     </row>
     <row r="701" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A701" s="3" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A702" s="3" t="s">
-        <v>1378</v>
+        <v>1980</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1379</v>
+        <v>1981</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>5</v>
@@ -20477,16 +20507,16 @@
     </row>
     <row r="703" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A703" s="3" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>5</v>
@@ -20497,19 +20527,19 @@
     </row>
     <row r="704" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A704" s="3" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F704" s="2" t="s">
         <v>2</v>
@@ -20517,33 +20547,33 @@
     </row>
     <row r="705" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A705" s="3" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A706" s="3" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>5</v>
@@ -20552,21 +20582,21 @@
         <v>5</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A707" s="3" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>5</v>
@@ -20577,13 +20607,13 @@
     </row>
     <row r="708" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A708" s="3" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>5</v>
@@ -20592,15 +20622,15 @@
         <v>5</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A709" s="3" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>2</v>
@@ -20617,33 +20647,33 @@
     </row>
     <row r="710" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A710" s="3" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A711" s="3" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>5</v>
@@ -20652,15 +20682,15 @@
         <v>5</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A712" s="3" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2</v>
@@ -20669,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F712" s="2" t="s">
         <v>2</v>
@@ -20677,13 +20707,13 @@
     </row>
     <row r="713" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A713" s="3" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D713" s="2" t="s">
         <v>5</v>
@@ -20692,21 +20722,21 @@
         <v>5</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A714" s="3" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>5</v>
@@ -20717,16 +20747,16 @@
     </row>
     <row r="715" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A715" s="3" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>5</v>
@@ -20737,50 +20767,50 @@
     </row>
     <row r="716" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A716" s="3" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A717" s="3" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A718" s="3" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2</v>
@@ -20797,10 +20827,10 @@
     </row>
     <row r="719" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A719" s="3" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2</v>
@@ -20817,10 +20847,10 @@
     </row>
     <row r="720" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A720" s="3" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2</v>
@@ -20837,10 +20867,10 @@
     </row>
     <row r="721" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A721" s="3" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2</v>
@@ -20857,33 +20887,33 @@
     </row>
     <row r="722" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A722" s="3" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A723" s="3" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D723" s="2" t="s">
         <v>5</v>
@@ -20892,41 +20922,41 @@
         <v>5</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A724" s="3" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A725" s="3" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>5</v>
@@ -20937,39 +20967,39 @@
     </row>
     <row r="726" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A726" s="3" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A727" s="3" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F727" s="2" t="s">
         <v>2</v>
@@ -20977,33 +21007,33 @@
     </row>
     <row r="728" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A728" s="3" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A729" s="3" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>2</v>
@@ -21012,15 +21042,15 @@
         <v>5</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A730" s="3" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>2</v>
@@ -21037,10 +21067,10 @@
     </row>
     <row r="731" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A731" s="3" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>5</v>
@@ -21057,16 +21087,16 @@
     </row>
     <row r="732" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A732" s="3" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>5</v>
@@ -21077,16 +21107,16 @@
     </row>
     <row r="733" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A733" s="3" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>5</v>
@@ -21097,16 +21127,16 @@
     </row>
     <row r="734" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A734" s="3" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>5</v>
@@ -21117,16 +21147,16 @@
     </row>
     <row r="735" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A735" s="3" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>5</v>
@@ -21137,13 +21167,13 @@
     </row>
     <row r="736" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A736" s="3" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D736" s="2" t="s">
         <v>5</v>
@@ -21152,15 +21182,15 @@
         <v>5</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A737" s="3" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2</v>
@@ -21177,10 +21207,10 @@
     </row>
     <row r="738" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A738" s="3" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2</v>
@@ -21197,10 +21227,10 @@
     </row>
     <row r="739" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A739" s="3" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2</v>
@@ -21217,16 +21247,16 @@
     </row>
     <row r="740" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A740" s="3" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>5</v>
@@ -21237,13 +21267,13 @@
     </row>
     <row r="741" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A741" s="3" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D741" s="2" t="s">
         <v>5</v>
@@ -21252,21 +21282,21 @@
         <v>5</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A742" s="3" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>5</v>
@@ -21277,13 +21307,13 @@
     </row>
     <row r="743" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A743" s="3" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D743" s="2" t="s">
         <v>5</v>
@@ -21292,21 +21322,21 @@
         <v>5</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A744" s="3" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>5</v>
@@ -21317,76 +21347,76 @@
     </row>
     <row r="745" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A745" s="3" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A746" s="3" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A747" s="3" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A748" s="3" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>5</v>
@@ -21397,10 +21427,10 @@
     </row>
     <row r="749" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A749" s="3" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>2</v>
@@ -21409,7 +21439,7 @@
         <v>2</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F749" s="2" t="s">
         <v>2</v>
@@ -21417,16 +21447,16 @@
     </row>
     <row r="750" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A750" s="3" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>5</v>
@@ -21437,10 +21467,10 @@
     </row>
     <row r="751" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A751" s="3" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>2</v>
@@ -21452,35 +21482,35 @@
         <v>5</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A752" s="3" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A753" s="3" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>2</v>
@@ -21492,24 +21522,24 @@
         <v>5</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A754" s="3" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>2</v>
@@ -21517,10 +21547,10 @@
     </row>
     <row r="755" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A755" s="3" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>2</v>
@@ -21532,15 +21562,15 @@
         <v>5</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A756" s="3" t="s">
-        <v>1966</v>
+        <v>1472</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1967</v>
+        <v>1473</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>2</v>
@@ -21552,24 +21582,24 @@
         <v>5</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A757" s="3" t="s">
-        <v>1968</v>
+        <v>1474</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1969</v>
+        <v>1475</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D757" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>2</v>
@@ -21577,33 +21607,33 @@
     </row>
     <row r="758" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A758" s="3" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A759" s="3" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D759" s="2" t="s">
         <v>5</v>
@@ -21617,16 +21647,16 @@
     </row>
     <row r="760" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A760" s="3" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>5</v>
@@ -21637,16 +21667,16 @@
     </row>
     <row r="761" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A761" s="3" t="s">
-        <v>1492</v>
+        <v>1962</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1493</v>
+        <v>1963</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>5</v>
@@ -21657,10 +21687,10 @@
     </row>
     <row r="762" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A762" s="3" t="s">
-        <v>1494</v>
+        <v>1964</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1495</v>
+        <v>1965</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2</v>
@@ -21669,7 +21699,7 @@
         <v>2</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F762" s="2" t="s">
         <v>2</v>
@@ -21677,10 +21707,10 @@
     </row>
     <row r="763" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A763" s="3" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>5</v>
@@ -21697,16 +21727,16 @@
     </row>
     <row r="764" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A764" s="3" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>5</v>
@@ -21717,33 +21747,33 @@
     </row>
     <row r="765" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A765" s="3" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A766" s="3" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>5</v>
@@ -21757,10 +21787,10 @@
     </row>
     <row r="767" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A767" s="3" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2</v>
@@ -21777,30 +21807,30 @@
     </row>
     <row r="768" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A768" s="3" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A769" s="3" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2</v>
@@ -21817,10 +21847,10 @@
     </row>
     <row r="770" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A770" s="3" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2</v>
@@ -21829,24 +21859,24 @@
         <v>2</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A771" s="3" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>5</v>
@@ -21857,10 +21887,10 @@
     </row>
     <row r="772" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A772" s="3" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>2</v>
@@ -21869,7 +21899,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F772" s="2" t="s">
         <v>2</v>
@@ -21877,10 +21907,10 @@
     </row>
     <row r="773" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A773" s="3" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2</v>
@@ -21889,7 +21919,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>2</v>
@@ -21897,10 +21927,10 @@
     </row>
     <row r="774" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A774" s="3" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>2</v>
@@ -21909,7 +21939,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>2</v>
@@ -21917,30 +21947,30 @@
     </row>
     <row r="775" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A775" s="3" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A776" s="3" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>2</v>
@@ -21957,10 +21987,10 @@
     </row>
     <row r="777" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A777" s="3" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>2</v>
@@ -21969,7 +21999,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>2</v>
@@ -21977,30 +22007,30 @@
     </row>
     <row r="778" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A778" s="3" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1970</v>
+        <v>1513</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A779" s="3" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2</v>
@@ -22009,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F779" s="2" t="s">
         <v>2</v>
@@ -22017,50 +22047,50 @@
     </row>
     <row r="780" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A780" s="3" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A781" s="3" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1971</v>
+        <v>1519</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A782" s="3" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>2</v>
@@ -22069,7 +22099,7 @@
         <v>2</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F782" s="2" t="s">
         <v>2</v>
@@ -22077,10 +22107,10 @@
     </row>
     <row r="783" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A783" s="3" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>5</v>
@@ -22097,10 +22127,10 @@
     </row>
     <row r="784" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A784" s="3" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>2</v>
@@ -22117,130 +22147,130 @@
     </row>
     <row r="785" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A785" s="3" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A786" s="3" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1540</v>
+        <v>1967</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A787" s="3" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1973</v>
+        <v>1529</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A788" s="3" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1543</v>
+        <v>1968</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A789" s="3" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A790" s="3" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A791" s="3" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2</v>
@@ -22257,16 +22287,16 @@
     </row>
     <row r="792" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A792" s="3" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1551</v>
+        <v>1969</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>5</v>
@@ -22277,10 +22307,10 @@
     </row>
     <row r="793" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A793" s="3" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>2</v>
@@ -22297,30 +22327,30 @@
     </row>
     <row r="794" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A794" s="3" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A795" s="3" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2</v>
@@ -22337,30 +22367,30 @@
     </row>
     <row r="796" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A796" s="3" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A797" s="3" t="s">
-        <v>1560</v>
+        <v>1546</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>2</v>
@@ -22372,15 +22402,15 @@
         <v>5</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A798" s="3" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>2</v>
@@ -22397,33 +22427,33 @@
     </row>
     <row r="799" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A799" s="3" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A800" s="3" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D800" s="2" t="s">
         <v>2</v>
@@ -22437,33 +22467,33 @@
     </row>
     <row r="801" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A801" s="3" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E801" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A802" s="3" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D802" s="2" t="s">
         <v>2</v>
@@ -22477,10 +22507,10 @@
     </row>
     <row r="803" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A803" s="3" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2</v>
@@ -22492,58 +22522,58 @@
         <v>5</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A804" s="3" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A805" s="3" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A806" s="3" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D806" s="2" t="s">
         <v>2</v>
@@ -22557,13 +22587,13 @@
     </row>
     <row r="807" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A807" s="3" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D807" s="2" t="s">
         <v>2</v>
@@ -22572,15 +22602,15 @@
         <v>5</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A808" s="3" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>2</v>
@@ -22592,75 +22622,75 @@
         <v>5</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A809" s="3" t="s">
-        <v>1584</v>
+        <v>1570</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A810" s="3" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E810" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A811" s="3" t="s">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1589</v>
+        <v>1575</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A812" s="3" t="s">
-        <v>1590</v>
+        <v>1576</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>2</v>
@@ -22672,78 +22702,78 @@
         <v>5</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A813" s="3" t="s">
-        <v>1592</v>
+        <v>1578</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A814" s="3" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A815" s="3" t="s">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1597</v>
+        <v>1583</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E815" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A816" s="3" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D816" s="2" t="s">
         <v>5</v>
@@ -22757,10 +22787,10 @@
     </row>
     <row r="817" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A817" s="3" t="s">
-        <v>1600</v>
+        <v>1586</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1601</v>
+        <v>1587</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>2</v>
@@ -22777,10 +22807,10 @@
     </row>
     <row r="818" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A818" s="3" t="s">
-        <v>1602</v>
+        <v>1588</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1603</v>
+        <v>1589</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>5</v>
@@ -22797,10 +22827,10 @@
     </row>
     <row r="819" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A819" s="3" t="s">
-        <v>1604</v>
+        <v>1590</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1605</v>
+        <v>1591</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2</v>
@@ -22817,10 +22847,10 @@
     </row>
     <row r="820" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A820" s="3" t="s">
-        <v>1606</v>
+        <v>1592</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1607</v>
+        <v>1593</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>5</v>
@@ -22837,30 +22867,30 @@
     </row>
     <row r="821" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A821" s="3" t="s">
-        <v>1608</v>
+        <v>1594</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1609</v>
+        <v>1595</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A822" s="3" t="s">
-        <v>1610</v>
+        <v>1596</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1611</v>
+        <v>1597</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>2</v>
@@ -22877,16 +22907,16 @@
     </row>
     <row r="823" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A823" s="3" t="s">
-        <v>1612</v>
+        <v>1598</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1613</v>
+        <v>1599</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>5</v>
@@ -22897,10 +22927,10 @@
     </row>
     <row r="824" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A824" s="3" t="s">
-        <v>1614</v>
+        <v>1600</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1615</v>
+        <v>1601</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>2</v>
@@ -22917,50 +22947,50 @@
     </row>
     <row r="825" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A825" s="3" t="s">
-        <v>1616</v>
+        <v>1602</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1617</v>
+        <v>1603</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A826" s="3" t="s">
-        <v>1618</v>
+        <v>1604</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A827" s="3" t="s">
-        <v>1620</v>
+        <v>1606</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1621</v>
+        <v>1607</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>2</v>
@@ -22977,16 +23007,16 @@
     </row>
     <row r="828" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A828" s="3" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1974</v>
+        <v>1609</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>5</v>
@@ -22997,10 +23027,10 @@
     </row>
     <row r="829" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A829" s="3" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>2</v>
@@ -23017,53 +23047,53 @@
     </row>
     <row r="830" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A830" s="3" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1975</v>
+        <v>1613</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A831" s="3" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A832" s="3" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D832" s="2" t="s">
         <v>2</v>
@@ -23077,30 +23107,30 @@
     </row>
     <row r="833" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A833" s="3" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1631</v>
+        <v>1970</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="834" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A834" s="3" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>2</v>
@@ -23117,10 +23147,10 @@
     </row>
     <row r="835" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A835" s="3" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>5</v>
@@ -23137,10 +23167,10 @@
     </row>
     <row r="836" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A836" s="3" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>2</v>
@@ -23157,30 +23187,30 @@
     </row>
     <row r="837" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A837" s="3" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1977</v>
+        <v>1625</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A838" s="3" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>5</v>
@@ -23197,13 +23227,13 @@
     </row>
     <row r="839" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A839" s="3" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D839" s="2" t="s">
         <v>2</v>
@@ -23217,93 +23247,93 @@
     </row>
     <row r="840" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A840" s="3" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1643</v>
+        <v>1972</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A841" s="3" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A842" s="3" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1647</v>
+        <v>1973</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A843" s="3" t="s">
-        <v>1648</v>
+        <v>1634</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A844" s="3" t="s">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1651</v>
+        <v>1637</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D844" s="2" t="s">
         <v>2</v>
@@ -23317,50 +23347,50 @@
     </row>
     <row r="845" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A845" s="3" t="s">
-        <v>1652</v>
+        <v>1638</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A846" s="3" t="s">
-        <v>1654</v>
+        <v>1640</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1655</v>
+        <v>1641</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A847" s="3" t="s">
-        <v>1656</v>
+        <v>1642</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1657</v>
+        <v>1643</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>2</v>
@@ -23372,21 +23402,21 @@
         <v>5</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A848" s="3" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>5</v>
@@ -23397,10 +23427,10 @@
     </row>
     <row r="849" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A849" s="3" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>2</v>
@@ -23412,21 +23442,21 @@
         <v>5</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A850" s="3" t="s">
-        <v>1662</v>
+        <v>1648</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E850" s="2" t="s">
         <v>5</v>
@@ -23437,10 +23467,10 @@
     </row>
     <row r="851" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A851" s="3" t="s">
-        <v>1664</v>
+        <v>1650</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>2</v>
@@ -23452,15 +23482,15 @@
         <v>5</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A852" s="3" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>2</v>
@@ -23477,10 +23507,10 @@
     </row>
     <row r="853" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A853" s="3" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>2</v>
@@ -23497,10 +23527,10 @@
     </row>
     <row r="854" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A854" s="3" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>2</v>
@@ -23509,18 +23539,18 @@
         <v>2</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A855" s="3" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>2</v>
@@ -23537,10 +23567,10 @@
     </row>
     <row r="856" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A856" s="3" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>2</v>
@@ -23557,10 +23587,10 @@
     </row>
     <row r="857" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A857" s="3" t="s">
-        <v>1675</v>
+        <v>1661</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1676</v>
+        <v>1662</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>2</v>
@@ -23577,10 +23607,10 @@
     </row>
     <row r="858" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A858" s="3" t="s">
-        <v>1677</v>
+        <v>1663</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1678</v>
+        <v>1664</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>2</v>
@@ -23597,10 +23627,10 @@
     </row>
     <row r="859" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A859" s="3" t="s">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1680</v>
+        <v>1666</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>2</v>
@@ -23609,18 +23639,18 @@
         <v>2</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A860" s="3" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>2</v>
@@ -23629,18 +23659,18 @@
         <v>2</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A861" s="3" t="s">
-        <v>1683</v>
+        <v>1669</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1684</v>
+        <v>1670</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>2</v>
@@ -23657,10 +23687,10 @@
     </row>
     <row r="862" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A862" s="3" t="s">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1663</v>
+        <v>1672</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>2</v>
@@ -23677,10 +23707,10 @@
     </row>
     <row r="863" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A863" s="3" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>669</v>
+        <v>1674</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>2</v>
@@ -23689,18 +23719,18 @@
         <v>2</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A864" s="3" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>2</v>
@@ -23717,10 +23747,10 @@
     </row>
     <row r="865" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A865" s="3" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>2</v>
@@ -23729,18 +23759,18 @@
         <v>2</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A866" s="3" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>2</v>
@@ -23757,10 +23787,10 @@
     </row>
     <row r="867" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A867" s="3" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1693</v>
+        <v>1659</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>2</v>
@@ -23777,10 +23807,10 @@
     </row>
     <row r="868" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A868" s="3" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1695</v>
+        <v>669</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>2</v>
@@ -23789,18 +23819,18 @@
         <v>2</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A869" s="3" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1695</v>
+        <v>1659</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>2</v>
@@ -23817,10 +23847,10 @@
     </row>
     <row r="870" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A870" s="3" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>2</v>
@@ -23837,10 +23867,10 @@
     </row>
     <row r="871" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A871" s="3" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>2</v>
@@ -23857,10 +23887,10 @@
     </row>
     <row r="872" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A872" s="3" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>2</v>
@@ -23877,10 +23907,10 @@
     </row>
     <row r="873" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A873" s="3" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>2</v>
@@ -23897,10 +23927,10 @@
     </row>
     <row r="874" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A874" s="3" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>2</v>
@@ -23917,10 +23947,10 @@
     </row>
     <row r="875" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A875" s="3" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>2</v>
@@ -23937,10 +23967,10 @@
     </row>
     <row r="876" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A876" s="3" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>2</v>
@@ -23957,10 +23987,10 @@
     </row>
     <row r="877" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A877" s="3" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1663</v>
+        <v>1695</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>2</v>
@@ -23977,10 +24007,10 @@
     </row>
     <row r="878" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A878" s="3" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>2</v>
@@ -23997,10 +24027,10 @@
     </row>
     <row r="879" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A879" s="3" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>2</v>
@@ -24017,10 +24047,10 @@
     </row>
     <row r="880" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A880" s="3" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>2</v>
@@ -24037,10 +24067,10 @@
     </row>
     <row r="881" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A881" s="3" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>2</v>
@@ -24057,10 +24087,10 @@
     </row>
     <row r="882" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A882" s="3" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1718</v>
+        <v>1659</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>2</v>
@@ -24077,10 +24107,10 @@
     </row>
     <row r="883" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A883" s="3" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1720</v>
+        <v>1706</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>2</v>
@@ -24097,10 +24127,10 @@
     </row>
     <row r="884" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A884" s="3" t="s">
-        <v>1721</v>
+        <v>1707</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1722</v>
+        <v>1708</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>2</v>
@@ -24117,10 +24147,10 @@
     </row>
     <row r="885" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A885" s="3" t="s">
-        <v>1723</v>
+        <v>1709</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1724</v>
+        <v>1710</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>2</v>
@@ -24137,10 +24167,10 @@
     </row>
     <row r="886" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A886" s="3" t="s">
-        <v>1725</v>
+        <v>1711</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1726</v>
+        <v>1712</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>2</v>
@@ -24157,10 +24187,10 @@
     </row>
     <row r="887" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A887" s="3" t="s">
-        <v>1727</v>
+        <v>1713</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1728</v>
+        <v>1714</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>2</v>
@@ -24177,10 +24207,10 @@
     </row>
     <row r="888" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A888" s="3" t="s">
-        <v>1729</v>
+        <v>1715</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1730</v>
+        <v>1716</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>2</v>
@@ -24197,10 +24227,10 @@
     </row>
     <row r="889" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A889" s="3" t="s">
-        <v>1731</v>
+        <v>1717</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1732</v>
+        <v>1718</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>2</v>
@@ -24217,10 +24247,10 @@
     </row>
     <row r="890" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A890" s="3" t="s">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1734</v>
+        <v>1720</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>2</v>
@@ -24237,10 +24267,10 @@
     </row>
     <row r="891" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A891" s="3" t="s">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1736</v>
+        <v>1722</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>2</v>
@@ -24257,10 +24287,10 @@
     </row>
     <row r="892" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A892" s="3" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>2</v>
@@ -24277,10 +24307,10 @@
     </row>
     <row r="893" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A893" s="3" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1740</v>
+        <v>1726</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>2</v>
@@ -24297,10 +24327,10 @@
     </row>
     <row r="894" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A894" s="3" t="s">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>2</v>
@@ -24317,10 +24347,10 @@
     </row>
     <row r="895" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A895" s="3" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1744</v>
+        <v>1730</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>2</v>
@@ -24337,10 +24367,10 @@
     </row>
     <row r="896" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A896" s="3" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>2</v>
@@ -24357,10 +24387,10 @@
     </row>
     <row r="897" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A897" s="3" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>2</v>
@@ -24377,10 +24407,10 @@
     </row>
     <row r="898" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A898" s="3" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>2</v>
@@ -24397,10 +24427,10 @@
     </row>
     <row r="899" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A899" s="3" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>2</v>
@@ -24417,10 +24447,10 @@
     </row>
     <row r="900" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A900" s="3" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>2</v>
@@ -24437,10 +24467,10 @@
     </row>
     <row r="901" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A901" s="3" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>2</v>
@@ -24457,10 +24487,10 @@
     </row>
     <row r="902" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A902" s="3" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1663</v>
+        <v>1744</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>2</v>
@@ -24477,10 +24507,10 @@
     </row>
     <row r="903" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A903" s="3" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>2</v>
@@ -24497,10 +24527,10 @@
     </row>
     <row r="904" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A904" s="3" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>2</v>
@@ -24517,10 +24547,10 @@
     </row>
     <row r="905" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A905" s="3" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1762</v>
+        <v>1734</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>2</v>
@@ -24537,10 +24567,10 @@
     </row>
     <row r="906" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A906" s="3" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1663</v>
+        <v>1751</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>2</v>
@@ -24557,10 +24587,10 @@
     </row>
     <row r="907" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A907" s="3" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1765</v>
+        <v>1659</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>2</v>
@@ -24577,10 +24607,10 @@
     </row>
     <row r="908" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A908" s="3" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>2</v>
@@ -24589,18 +24619,18 @@
         <v>2</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A909" s="3" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>2</v>
@@ -24617,10 +24647,10 @@
     </row>
     <row r="910" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A910" s="3" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>2</v>
@@ -24637,10 +24667,10 @@
     </row>
     <row r="911" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A911" s="3" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1773</v>
+        <v>1659</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>2</v>
@@ -24657,10 +24687,10 @@
     </row>
     <row r="912" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A912" s="3" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>2</v>
@@ -24677,10 +24707,10 @@
     </row>
     <row r="913" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A913" s="3" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>2</v>
@@ -24689,18 +24719,18 @@
         <v>2</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A914" s="3" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1779</v>
+        <v>1765</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>2</v>
@@ -24717,10 +24747,10 @@
     </row>
     <row r="915" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A915" s="3" t="s">
-        <v>1780</v>
+        <v>1766</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1781</v>
+        <v>1767</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>2</v>
@@ -24737,10 +24767,10 @@
     </row>
     <row r="916" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A916" s="3" t="s">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1783</v>
+        <v>1769</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>2</v>
@@ -24757,10 +24787,10 @@
     </row>
     <row r="917" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A917" s="3" t="s">
-        <v>1784</v>
+        <v>1770</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>2</v>
@@ -24777,10 +24807,10 @@
     </row>
     <row r="918" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A918" s="3" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1978</v>
+        <v>1773</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>2</v>
@@ -24797,10 +24827,10 @@
     </row>
     <row r="919" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A919" s="3" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1979</v>
+        <v>1775</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>2</v>
@@ -24817,10 +24847,10 @@
     </row>
     <row r="920" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A920" s="3" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>2</v>
@@ -24837,10 +24867,10 @@
     </row>
     <row r="921" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A921" s="3" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>2</v>
@@ -24857,10 +24887,10 @@
     </row>
     <row r="922" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A922" s="3" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>2</v>
@@ -24877,10 +24907,10 @@
     </row>
     <row r="923" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A923" s="3" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1795</v>
+        <v>1974</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>2</v>
@@ -24897,10 +24927,10 @@
     </row>
     <row r="924" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A924" s="3" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1795</v>
+        <v>1975</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>2</v>
@@ -24917,10 +24947,10 @@
     </row>
     <row r="925" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A925" s="3" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>2</v>
@@ -24937,10 +24967,10 @@
     </row>
     <row r="926" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A926" s="3" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>2</v>
@@ -24957,10 +24987,10 @@
     </row>
     <row r="927" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A927" s="3" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>2</v>
@@ -24977,10 +25007,10 @@
     </row>
     <row r="928" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A928" s="3" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>2</v>
@@ -24997,10 +25027,10 @@
     </row>
     <row r="929" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A929" s="3" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>2</v>
@@ -25017,10 +25047,10 @@
     </row>
     <row r="930" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A930" s="3" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>2</v>
@@ -25037,10 +25067,10 @@
     </row>
     <row r="931" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A931" s="3" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>2</v>
@@ -25057,10 +25087,10 @@
     </row>
     <row r="932" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A932" s="3" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>2</v>
@@ -25077,10 +25107,10 @@
     </row>
     <row r="933" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A933" s="3" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>2</v>
@@ -25097,10 +25127,10 @@
     </row>
     <row r="934" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A934" s="3" t="s">
-        <v>1812</v>
+        <v>1798</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>2</v>
@@ -25117,10 +25147,10 @@
     </row>
     <row r="935" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A935" s="3" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>2</v>
@@ -25137,10 +25167,10 @@
     </row>
     <row r="936" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A936" s="3" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>2</v>
@@ -25157,10 +25187,10 @@
     </row>
     <row r="937" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A937" s="3" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>2</v>
@@ -25177,10 +25207,10 @@
     </row>
     <row r="938" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A938" s="3" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2</v>
@@ -25197,10 +25227,10 @@
     </row>
     <row r="939" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A939" s="3" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>2</v>
@@ -25217,10 +25247,10 @@
     </row>
     <row r="940" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A940" s="3" t="s">
-        <v>1824</v>
+        <v>1810</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1825</v>
+        <v>1811</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>2</v>
@@ -25237,10 +25267,10 @@
     </row>
     <row r="941" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A941" s="3" t="s">
-        <v>1826</v>
+        <v>1812</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1827</v>
+        <v>1813</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>2</v>
@@ -25257,10 +25287,10 @@
     </row>
     <row r="942" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A942" s="3" t="s">
-        <v>1828</v>
+        <v>1814</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>2</v>
@@ -25277,10 +25307,10 @@
     </row>
     <row r="943" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A943" s="3" t="s">
-        <v>1830</v>
+        <v>1816</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>2</v>
@@ -25297,10 +25327,10 @@
     </row>
     <row r="944" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A944" s="3" t="s">
-        <v>1832</v>
+        <v>1818</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1795</v>
+        <v>1819</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>2</v>
@@ -25317,10 +25347,10 @@
     </row>
     <row r="945" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A945" s="3" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1795</v>
+        <v>1821</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>2</v>
@@ -25337,10 +25367,10 @@
     </row>
     <row r="946" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A946" s="3" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1795</v>
+        <v>1823</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>2</v>
@@ -25357,10 +25387,10 @@
     </row>
     <row r="947" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A947" s="3" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1813</v>
+        <v>1825</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>2</v>
@@ -25377,10 +25407,10 @@
     </row>
     <row r="948" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A948" s="3" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1795</v>
+        <v>1827</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>2</v>
@@ -25397,10 +25427,10 @@
     </row>
     <row r="949" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A949" s="3" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1838</v>
+        <v>1791</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>2</v>
@@ -25417,10 +25447,10 @@
     </row>
     <row r="950" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A950" s="3" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1840</v>
+        <v>1791</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>2</v>
@@ -25437,10 +25467,10 @@
     </row>
     <row r="951" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A951" s="3" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1842</v>
+        <v>1791</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>2</v>
@@ -25457,10 +25487,10 @@
     </row>
     <row r="952" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A952" s="3" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1844</v>
+        <v>1809</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>2</v>
@@ -25477,10 +25507,10 @@
     </row>
     <row r="953" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A953" s="3" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1846</v>
+        <v>1791</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>2</v>
@@ -25497,10 +25527,10 @@
     </row>
     <row r="954" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A954" s="3" t="s">
-        <v>1847</v>
+        <v>1833</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1848</v>
+        <v>1834</v>
       </c>
       <c r="C954" s="2" t="s">
         <v>2</v>
@@ -25517,10 +25547,10 @@
     </row>
     <row r="955" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A955" s="3" t="s">
-        <v>1849</v>
+        <v>1835</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1850</v>
+        <v>1836</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>2</v>
@@ -25529,18 +25559,18 @@
         <v>2</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A956" s="3" t="s">
-        <v>1851</v>
+        <v>1837</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1852</v>
+        <v>1838</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>2</v>
@@ -25557,10 +25587,10 @@
     </row>
     <row r="957" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A957" s="3" t="s">
-        <v>1853</v>
+        <v>1839</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1854</v>
+        <v>1840</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>2</v>
@@ -25577,10 +25607,10 @@
     </row>
     <row r="958" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A958" s="3" t="s">
-        <v>1855</v>
+        <v>1841</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1856</v>
+        <v>1842</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>2</v>
@@ -25597,10 +25627,10 @@
     </row>
     <row r="959" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A959" s="3" t="s">
-        <v>1857</v>
+        <v>1843</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>2</v>
@@ -25617,10 +25647,10 @@
     </row>
     <row r="960" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A960" s="3" t="s">
-        <v>1859</v>
+        <v>1845</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1860</v>
+        <v>1846</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>2</v>
@@ -25637,10 +25667,10 @@
     </row>
     <row r="961" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A961" s="3" t="s">
-        <v>1861</v>
+        <v>1847</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1862</v>
+        <v>1848</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>2</v>
@@ -25657,10 +25687,10 @@
     </row>
     <row r="962" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A962" s="3" t="s">
-        <v>1863</v>
+        <v>1849</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1864</v>
+        <v>1850</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>2</v>
@@ -25677,10 +25707,10 @@
     </row>
     <row r="963" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A963" s="3" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="C963" s="2" t="s">
         <v>2</v>
@@ -25689,18 +25719,18 @@
         <v>2</v>
       </c>
       <c r="E963" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A964" s="3" t="s">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1712</v>
+        <v>1854</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>2</v>
@@ -25709,18 +25739,18 @@
         <v>2</v>
       </c>
       <c r="E964" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A965" s="3" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>2</v>
@@ -25729,18 +25759,18 @@
         <v>2</v>
       </c>
       <c r="E965" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A966" s="3" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>2</v>
@@ -25757,10 +25787,10 @@
     </row>
     <row r="967" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A967" s="3" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>2</v>
@@ -25777,10 +25807,10 @@
     </row>
     <row r="968" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A968" s="3" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>2</v>
@@ -25789,18 +25819,18 @@
         <v>2</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A969" s="3" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1877</v>
+        <v>1708</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>2</v>
@@ -25809,18 +25839,18 @@
         <v>2</v>
       </c>
       <c r="E969" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A970" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1825</v>
+        <v>1865</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>2</v>
@@ -25829,18 +25859,18 @@
         <v>2</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A971" s="3" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1825</v>
+        <v>1867</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>2</v>
@@ -25849,18 +25879,18 @@
         <v>2</v>
       </c>
       <c r="E971" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F971" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A972" s="3" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>2</v>
@@ -25869,18 +25899,18 @@
         <v>2</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F972" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A973" s="3" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>2</v>
@@ -25889,18 +25919,18 @@
         <v>2</v>
       </c>
       <c r="E973" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F973" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A974" s="3" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>2</v>
@@ -25909,18 +25939,18 @@
         <v>2</v>
       </c>
       <c r="E974" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F974" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A975" s="3" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1887</v>
+        <v>1821</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>2</v>
@@ -25937,10 +25967,10 @@
     </row>
     <row r="976" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A976" s="3" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1887</v>
+        <v>1821</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>2</v>
@@ -25957,10 +25987,10 @@
     </row>
     <row r="977" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A977" s="3" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>2</v>
@@ -25977,10 +26007,10 @@
     </row>
     <row r="978" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A978" s="3" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>2</v>
@@ -25989,18 +26019,18 @@
         <v>2</v>
       </c>
       <c r="E978" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A979" s="3" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>2</v>
@@ -26009,18 +26039,18 @@
         <v>2</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A980" s="3" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>2</v>
@@ -26037,10 +26067,10 @@
     </row>
     <row r="981" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A981" s="3" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>2</v>
@@ -26049,18 +26079,18 @@
         <v>2</v>
       </c>
       <c r="E981" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A982" s="3" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1897</v>
+        <v>1883</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>2</v>
@@ -26077,10 +26107,10 @@
     </row>
     <row r="983" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A983" s="3" t="s">
-        <v>1898</v>
+        <v>1886</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>2</v>
@@ -26089,18 +26119,18 @@
         <v>2</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A984" s="3" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1901</v>
+        <v>1883</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>2</v>
@@ -26112,15 +26142,15 @@
         <v>5</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A985" s="3" t="s">
-        <v>1902</v>
+        <v>1888</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1903</v>
+        <v>1889</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>2</v>
@@ -26129,7 +26159,7 @@
         <v>2</v>
       </c>
       <c r="E985" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F985" s="2" t="s">
         <v>2</v>
@@ -26137,10 +26167,10 @@
     </row>
     <row r="986" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A986" s="3" t="s">
-        <v>1904</v>
+        <v>1890</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1905</v>
+        <v>1891</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>2</v>
@@ -26157,10 +26187,10 @@
     </row>
     <row r="987" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A987" s="3" t="s">
-        <v>1906</v>
+        <v>1892</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1907</v>
+        <v>1893</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>2</v>
@@ -26169,18 +26199,18 @@
         <v>2</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F987" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A988" s="3" t="s">
-        <v>1908</v>
+        <v>1894</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1909</v>
+        <v>1895</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>2</v>
@@ -26197,10 +26227,10 @@
     </row>
     <row r="989" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A989" s="3" t="s">
-        <v>1910</v>
+        <v>1896</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>1911</v>
+        <v>1897</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>2</v>
@@ -26212,15 +26242,15 @@
         <v>5</v>
       </c>
       <c r="F989" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A990" s="3" t="s">
-        <v>1912</v>
+        <v>1898</v>
       </c>
       <c r="B990" s="4" t="s">
-        <v>1913</v>
+        <v>1899</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>2</v>
@@ -26232,15 +26262,15 @@
         <v>5</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A991" s="3" t="s">
-        <v>1914</v>
+        <v>1900</v>
       </c>
       <c r="B991" s="4" t="s">
-        <v>1915</v>
+        <v>1901</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>2</v>
@@ -26257,10 +26287,10 @@
     </row>
     <row r="992" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A992" s="3" t="s">
-        <v>1916</v>
+        <v>1902</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>1917</v>
+        <v>1903</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>2</v>
@@ -26269,18 +26299,18 @@
         <v>2</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A993" s="3" t="s">
-        <v>1918</v>
+        <v>1904</v>
       </c>
       <c r="B993" s="4" t="s">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>2</v>
@@ -26297,10 +26327,10 @@
     </row>
     <row r="994" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A994" s="3" t="s">
-        <v>1920</v>
+        <v>1906</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>1921</v>
+        <v>1907</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>2</v>
@@ -26317,10 +26347,10 @@
     </row>
     <row r="995" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A995" s="3" t="s">
-        <v>1922</v>
+        <v>1908</v>
       </c>
       <c r="B995" s="4" t="s">
-        <v>1923</v>
+        <v>1909</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>2</v>
@@ -26337,10 +26367,10 @@
     </row>
     <row r="996" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A996" s="3" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>1925</v>
+        <v>1911</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>2</v>
@@ -26357,10 +26387,10 @@
     </row>
     <row r="997" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A997" s="3" t="s">
-        <v>1926</v>
+        <v>1912</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1927</v>
+        <v>1913</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>2</v>
@@ -26377,10 +26407,10 @@
     </row>
     <row r="998" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A998" s="3" t="s">
-        <v>1928</v>
+        <v>1914</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>1929</v>
+        <v>1915</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>2</v>
@@ -26397,10 +26427,10 @@
     </row>
     <row r="999" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A999" s="3" t="s">
-        <v>1930</v>
+        <v>1916</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>1931</v>
+        <v>1917</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>2</v>
@@ -26409,18 +26439,18 @@
         <v>2</v>
       </c>
       <c r="E999" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F999" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1000" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1000" s="3" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>1933</v>
+        <v>1919</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>2</v>
@@ -26429,18 +26459,18 @@
         <v>2</v>
       </c>
       <c r="E1000" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1001" s="3" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>2</v>
@@ -26449,18 +26479,18 @@
         <v>2</v>
       </c>
       <c r="E1001" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1002" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1002" s="3" t="s">
-        <v>1936</v>
+        <v>1922</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>2</v>
@@ -26477,10 +26507,10 @@
     </row>
     <row r="1003" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1003" s="3" t="s">
-        <v>1938</v>
+        <v>1924</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>2</v>
@@ -26497,10 +26527,10 @@
     </row>
     <row r="1004" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1004" s="3" t="s">
-        <v>1940</v>
+        <v>1926</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1941</v>
+        <v>1927</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>2</v>
@@ -26517,10 +26547,10 @@
     </row>
     <row r="1005" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1005" s="3" t="s">
-        <v>1942</v>
+        <v>1928</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="C1005" s="2" t="s">
         <v>2</v>
@@ -26537,10 +26567,10 @@
     </row>
     <row r="1006" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1006" s="3" t="s">
-        <v>1944</v>
+        <v>1930</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1945</v>
+        <v>1931</v>
       </c>
       <c r="C1006" s="2" t="s">
         <v>2</v>
@@ -26557,10 +26587,10 @@
     </row>
     <row r="1007" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1007" s="3" t="s">
-        <v>1986</v>
+        <v>1932</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>1987</v>
+        <v>1933</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>2</v>
@@ -26569,18 +26599,18 @@
         <v>2</v>
       </c>
       <c r="E1007" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1007" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1008" s="3" t="s">
-        <v>1988</v>
+        <v>1934</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>1989</v>
+        <v>1935</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>2</v>
@@ -26589,51 +26619,111 @@
         <v>2</v>
       </c>
       <c r="E1008" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1008" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1009" s="3"/>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
+      <c r="A1009" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1010" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1010" s="3"/>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="2"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="2"/>
-      <c r="F1010" s="2"/>
+      <c r="A1010" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1011" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1011" s="3"/>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="2"/>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
+      <c r="A1011" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="1012" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1012" s="3"/>
-      <c r="B1012" s="4"/>
-      <c r="C1012" s="2"/>
-      <c r="D1012" s="2"/>
-      <c r="E1012" s="2"/>
-      <c r="F1012" s="2"/>
+      <c r="A1012" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1013" spans="1:6" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1013" s="3"/>
-      <c r="B1013" s="4"/>
-      <c r="C1013" s="2"/>
-      <c r="D1013" s="2"/>
-      <c r="E1013" s="2"/>
-      <c r="F1013" s="2"/>
+      <c r="A1013" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1014" spans="1:6" ht="27" x14ac:dyDescent="0.6">
       <c r="A1014" s="3"/>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\GitHub\ecs-support\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3064AD-88B7-4821-9E6A-DD9C7C5203ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E644643B-C698-4E81-8C98-5BF15896951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="1113">
   <si>
     <t>N</t>
   </si>
@@ -2345,12 +2345,6 @@
     <t>จุดผ่อนปรนการค้าท่าเทียบเรืออำเภอบ้านแพง บ้านโพธิ์ไทร</t>
   </si>
   <si>
-    <t>3505</t>
-  </si>
-  <si>
-    <t>จุดผ่อนปรนการค้าอำเภอท่าอุเทน</t>
-  </si>
-  <si>
     <t>3506</t>
   </si>
   <si>
@@ -3365,9 +3359,6 @@
     <t>ด่านพรมแดนสิงขร</t>
   </si>
   <si>
-    <t>เขตปลอดอากร บรษัท เกรท วอลล์ มอเตอร์ แมนูแฟคเจอริ่ง (ประเทศไทย) จำกัด</t>
-  </si>
-  <si>
     <t>7113</t>
   </si>
   <si>
@@ -3404,7 +3395,10 @@
     <t>Load</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 15 ก.พ. 2565</t>
+    <t>เขตปลอดอากร บริษัท เกรท วอลล์ มอเตอร์ แมนูแฟคเจอริ่ง (ประเทศไทย) จำกัด</t>
+  </si>
+  <si>
+    <t>อัพเดทข้มูลล่าสุด : 02/06/2022</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3614,9 +3608,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3633,6 +3624,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4013,10 +4007,10 @@
   <dimension ref="A1:L1047"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,50 +4022,50 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="I1" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1113</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30.75" x14ac:dyDescent="0.85">
@@ -4276,10 +4270,10 @@
     </row>
     <row r="14" spans="1:12" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A14" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>3</v>
@@ -5576,10 +5570,10 @@
     </row>
     <row r="79" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A79" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>0</v>
@@ -8499,7 +8493,7 @@
         <v>440</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>0</v>
@@ -8519,7 +8513,7 @@
         <v>441</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>3</v>
@@ -8539,7 +8533,7 @@
         <v>442</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>3</v>
@@ -8559,7 +8553,7 @@
         <v>443</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>0</v>
@@ -8976,10 +8970,10 @@
     </row>
     <row r="249" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A249" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>0</v>
@@ -9056,10 +9050,10 @@
     </row>
     <row r="253" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A253" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>0</v>
@@ -9599,7 +9593,7 @@
         <v>542</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>3</v>
@@ -9619,7 +9613,7 @@
         <v>543</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>3</v>
@@ -9639,7 +9633,7 @@
         <v>544</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>3</v>
@@ -9659,7 +9653,7 @@
         <v>545</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>0</v>
@@ -9879,7 +9873,7 @@
         <v>566</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>0</v>
@@ -10279,7 +10273,7 @@
         <v>605</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>0</v>
@@ -10839,7 +10833,7 @@
         <v>660</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>0</v>
@@ -11159,7 +11153,7 @@
         <v>691</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C358" s="8" t="s">
         <v>0</v>
@@ -11339,7 +11333,7 @@
         <v>708</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>0</v>
@@ -11925,10 +11919,10 @@
         <v>0</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E396" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F396" s="8" t="s">
         <v>0</v>
@@ -11942,16 +11936,16 @@
         <v>768</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E397" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F397" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -11962,7 +11956,7 @@
         <v>770</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>3</v>
@@ -11971,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="F398" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -11985,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E399" s="8" t="s">
         <v>3</v>
@@ -12016,13 +12010,13 @@
     </row>
     <row r="401" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A401" s="3" t="s">
-        <v>775</v>
+        <v>1087</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>776</v>
+        <v>1088</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>0</v>
@@ -12036,13 +12030,13 @@
     </row>
     <row r="402" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A402" s="3" t="s">
-        <v>1089</v>
+        <v>775</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1090</v>
+        <v>776</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>0</v>
@@ -12062,13 +12056,13 @@
         <v>778</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F403" s="8" t="s">
         <v>0</v>
@@ -12082,13 +12076,13 @@
         <v>780</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F404" s="8" t="s">
         <v>0</v>
@@ -12102,16 +12096,16 @@
         <v>782</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E405" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F405" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12122,16 +12116,16 @@
         <v>784</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E406" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12142,16 +12136,16 @@
         <v>786</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E407" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12162,16 +12156,16 @@
         <v>788</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E408" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F408" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12182,16 +12176,16 @@
         <v>790</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E409" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F409" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12202,16 +12196,16 @@
         <v>792</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E410" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12222,16 +12216,16 @@
         <v>794</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E411" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F411" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12242,16 +12236,16 @@
         <v>796</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E412" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12265,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E413" s="8" t="s">
         <v>3</v>
@@ -12322,7 +12316,7 @@
         <v>804</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D416" s="8" t="s">
         <v>3</v>
@@ -12331,7 +12325,7 @@
         <v>3</v>
       </c>
       <c r="F416" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12342,7 +12336,7 @@
         <v>806</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D417" s="8" t="s">
         <v>3</v>
@@ -12351,7 +12345,7 @@
         <v>3</v>
       </c>
       <c r="F417" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12365,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E418" s="8" t="s">
         <v>3</v>
@@ -12382,16 +12376,16 @@
         <v>810</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E419" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F419" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12402,10 +12396,10 @@
         <v>812</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E420" s="8" t="s">
         <v>3</v>
@@ -12431,7 +12425,7 @@
         <v>3</v>
       </c>
       <c r="F421" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12442,16 +12436,16 @@
         <v>816</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D422" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E422" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F422" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12462,16 +12456,16 @@
         <v>818</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E423" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F423" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12482,16 +12476,16 @@
         <v>820</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E424" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F424" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12502,7 +12496,7 @@
         <v>822</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>3</v>
@@ -12511,7 +12505,7 @@
         <v>3</v>
       </c>
       <c r="F425" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12665,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E433" s="8" t="s">
         <v>3</v>
@@ -12682,16 +12676,16 @@
         <v>840</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E434" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F434" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12702,16 +12696,16 @@
         <v>842</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E435" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F435" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12722,16 +12716,16 @@
         <v>844</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E436" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F436" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12742,16 +12736,16 @@
         <v>846</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E437" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F437" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12762,16 +12756,16 @@
         <v>848</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E438" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F438" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12782,16 +12776,16 @@
         <v>850</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E439" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F439" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12802,16 +12796,16 @@
         <v>852</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E440" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F440" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12822,10 +12816,10 @@
         <v>854</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E441" s="8" t="s">
         <v>3</v>
@@ -12848,10 +12842,10 @@
         <v>0</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F442" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12868,10 +12862,10 @@
         <v>0</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F443" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12902,7 +12896,7 @@
         <v>862</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D445" s="8" t="s">
         <v>0</v>
@@ -12911,7 +12905,7 @@
         <v>3</v>
       </c>
       <c r="F445" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -12922,7 +12916,7 @@
         <v>864</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D446" s="8" t="s">
         <v>0</v>
@@ -12976,10 +12970,10 @@
     </row>
     <row r="449" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A449" s="3" t="s">
-        <v>869</v>
+        <v>1071</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>870</v>
+        <v>1072</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>0</v>
@@ -13008,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="E450" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F450" s="8" t="s">
         <v>0</v>
@@ -13016,22 +13010,22 @@
     </row>
     <row r="451" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A451" s="3" t="s">
-        <v>1075</v>
+        <v>869</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1076</v>
+        <v>870</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E451" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F451" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13042,7 +13036,7 @@
         <v>872</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D452" s="8" t="s">
         <v>3</v>
@@ -13051,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="F452" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13105,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E455" s="8" t="s">
         <v>3</v>
@@ -13122,16 +13116,16 @@
         <v>880</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E456" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F456" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13142,16 +13136,16 @@
         <v>882</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E457" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F457" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13171,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="F458" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13182,16 +13176,16 @@
         <v>886</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D459" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E459" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F459" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13202,10 +13196,10 @@
         <v>888</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D460" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E460" s="8" t="s">
         <v>3</v>
@@ -13268,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="E463" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F463" s="8" t="s">
         <v>0</v>
@@ -13288,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="E464" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F464" s="8" t="s">
         <v>0</v>
@@ -13302,16 +13296,16 @@
         <v>898</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E465" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F465" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13322,16 +13316,16 @@
         <v>900</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E466" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F466" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13339,39 +13333,39 @@
         <v>901</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>902</v>
+        <v>1075</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D467" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E467" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F467" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A468" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B468" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="B468" s="4" t="s">
-        <v>1077</v>
-      </c>
       <c r="C468" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D468" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E468" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F468" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13379,39 +13373,39 @@
         <v>904</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>905</v>
+        <v>1076</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D469" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E469" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F469" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A470" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B470" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1078</v>
-      </c>
       <c r="C470" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D470" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E470" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F470" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13419,39 +13413,39 @@
         <v>907</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>908</v>
+        <v>1077</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D471" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E471" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F471" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A472" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B472" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="C472" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E472" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F472" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13462,16 +13456,16 @@
         <v>911</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D473" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E473" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F473" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13482,16 +13476,16 @@
         <v>913</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D474" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E474" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F474" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13499,39 +13493,39 @@
         <v>914</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>915</v>
+        <v>1078</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D475" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E475" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F475" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A476" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B476" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>1080</v>
-      </c>
       <c r="C476" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D476" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E476" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F476" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13542,16 +13536,16 @@
         <v>918</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D477" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E477" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F477" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13562,16 +13556,16 @@
         <v>920</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D478" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E478" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F478" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13611,7 +13605,7 @@
         <v>3</v>
       </c>
       <c r="F480" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13631,7 +13625,7 @@
         <v>3</v>
       </c>
       <c r="F481" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13682,16 +13676,16 @@
         <v>932</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D484" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E484" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F484" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13702,16 +13696,16 @@
         <v>934</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D485" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E485" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F485" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13742,16 +13736,16 @@
         <v>938</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E487" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F487" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13765,13 +13759,13 @@
         <v>3</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E488" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F488" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13822,7 +13816,7 @@
         <v>946</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D491" s="8" t="s">
         <v>0</v>
@@ -13831,7 +13825,7 @@
         <v>3</v>
       </c>
       <c r="F491" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13851,7 +13845,7 @@
         <v>3</v>
       </c>
       <c r="F492" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13862,16 +13856,16 @@
         <v>950</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D493" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E493" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F493" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13882,16 +13876,16 @@
         <v>952</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E494" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F494" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13911,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="F495" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13931,7 +13925,7 @@
         <v>3</v>
       </c>
       <c r="F496" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13942,16 +13936,16 @@
         <v>958</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E497" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F497" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13962,16 +13956,16 @@
         <v>960</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E498" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F498" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -13982,16 +13976,16 @@
         <v>962</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D499" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E499" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F499" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14002,16 +13996,16 @@
         <v>964</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E500" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F500" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14022,16 +14016,16 @@
         <v>966</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E501" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F501" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14042,16 +14036,16 @@
         <v>968</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E502" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F502" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14062,16 +14056,16 @@
         <v>970</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E503" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F503" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14082,16 +14076,16 @@
         <v>972</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E504" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F504" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14102,16 +14096,16 @@
         <v>974</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E505" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F505" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14122,16 +14116,16 @@
         <v>976</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E506" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F506" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14142,16 +14136,16 @@
         <v>978</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E507" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F507" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14162,16 +14156,16 @@
         <v>980</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E508" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F508" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14222,16 +14216,16 @@
         <v>986</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E511" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F511" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14242,16 +14236,16 @@
         <v>988</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E512" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F512" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14259,39 +14253,39 @@
         <v>989</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>990</v>
+        <v>1079</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E513" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F513" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A514" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B514" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B514" s="4" t="s">
-        <v>1081</v>
-      </c>
       <c r="C514" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E514" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F514" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14299,47 +14293,47 @@
         <v>992</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>993</v>
+        <v>1080</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E515" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F515" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A516" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B516" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B516" s="4" t="s">
-        <v>1082</v>
-      </c>
       <c r="C516" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E516" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F516" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A517" s="3" t="s">
-        <v>995</v>
+        <v>1099</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>996</v>
+        <v>1100</v>
       </c>
       <c r="C517" s="8" t="s">
         <v>3</v>
@@ -14356,13 +14350,13 @@
     </row>
     <row r="518" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A518" s="3" t="s">
-        <v>1102</v>
+        <v>995</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1103</v>
+        <v>996</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D518" s="8" t="s">
         <v>0</v>
@@ -14379,39 +14373,39 @@
         <v>997</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>998</v>
+        <v>1081</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E519" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F519" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A520" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B520" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="B520" s="4" t="s">
-        <v>1083</v>
-      </c>
       <c r="C520" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E520" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F520" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14419,39 +14413,39 @@
         <v>1000</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1001</v>
+        <v>1082</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E521" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F521" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A522" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B522" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B522" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="C522" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D522" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E522" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F522" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14462,7 +14456,7 @@
         <v>1004</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D523" s="8" t="s">
         <v>0</v>
@@ -14482,16 +14476,16 @@
         <v>1006</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D524" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E524" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F524" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14502,16 +14496,16 @@
         <v>1008</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D525" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E525" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F525" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14522,16 +14516,16 @@
         <v>1010</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D526" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E526" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F526" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14542,16 +14536,16 @@
         <v>1012</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D527" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E527" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F527" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14562,16 +14556,16 @@
         <v>1014</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D528" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E528" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F528" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14582,16 +14576,16 @@
         <v>1016</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E529" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F529" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14611,7 +14605,7 @@
         <v>3</v>
       </c>
       <c r="F530" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14619,7 +14613,7 @@
         <v>1019</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C531" s="8" t="s">
         <v>0</v>
@@ -14636,10 +14630,10 @@
     </row>
     <row r="532" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A532" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B532" s="4" t="s">
         <v>1021</v>
-      </c>
-      <c r="B532" s="4" t="s">
-        <v>1020</v>
       </c>
       <c r="C532" s="8" t="s">
         <v>0</v>
@@ -14656,10 +14650,10 @@
     </row>
     <row r="533" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A533" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B533" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="B533" s="4" t="s">
-        <v>1023</v>
       </c>
       <c r="C533" s="8" t="s">
         <v>0</v>
@@ -14676,10 +14670,10 @@
     </row>
     <row r="534" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A534" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B534" s="4" t="s">
         <v>1025</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>1024</v>
       </c>
       <c r="C534" s="8" t="s">
         <v>0</v>
@@ -14708,10 +14702,10 @@
         <v>0</v>
       </c>
       <c r="E535" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F535" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14748,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="E537" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F537" s="8" t="s">
         <v>0</v>
@@ -14791,7 +14785,7 @@
         <v>3</v>
       </c>
       <c r="F539" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14828,10 +14822,10 @@
         <v>0</v>
       </c>
       <c r="E541" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F541" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14848,10 +14842,10 @@
         <v>0</v>
       </c>
       <c r="E542" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F542" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14908,10 +14902,10 @@
         <v>0</v>
       </c>
       <c r="E545" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F545" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14928,10 +14922,10 @@
         <v>0</v>
       </c>
       <c r="E546" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F546" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -14988,10 +14982,10 @@
         <v>0</v>
       </c>
       <c r="E549" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F549" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -15076,10 +15070,10 @@
     </row>
     <row r="554" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A554" s="3" t="s">
-        <v>1064</v>
+        <v>1089</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1065</v>
+        <v>1090</v>
       </c>
       <c r="C554" s="8" t="s">
         <v>0</v>
@@ -15088,10 +15082,10 @@
         <v>0</v>
       </c>
       <c r="E554" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F554" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
@@ -15115,24 +15109,12 @@
       </c>
     </row>
     <row r="556" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
-      <c r="A556" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C556" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D556" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E556" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F556" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A556" s="3"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="8"/>
+      <c r="D556" s="8"/>
+      <c r="E556" s="8"/>
+      <c r="F556" s="8"/>
     </row>
     <row r="557" spans="1:6" ht="30.75" x14ac:dyDescent="0.85">
       <c r="A557" s="3"/>

--- a/reference/static/files/area_code.xlsx
+++ b/reference/static/files/area_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Web\Git\ECS\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349ECB4A-5CFA-4999-829B-5929F6015F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6234CC-C56B-48A2-9D73-9D9C510F1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34650" yWindow="3435" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6436" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="2124">
   <si>
     <t>N</t>
   </si>
@@ -6425,7 +6425,13 @@
     <t>เขตปลอดอากร INVENTEC SAMUT PRAKAN FREE ZONE</t>
   </si>
   <si>
-    <t>อัพเดทข้มูลล่าสุด : 25/10/2024</t>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>จุดผ่านแดนถาวรสะพานมิตรภาพไทย-กัมพูชา (หนองเอี่ยน-สตึงบท)</t>
+  </si>
+  <si>
+    <t>อัพเดทข้มูลล่าสุด : 31-10-2024</t>
   </si>
 </sst>
 </file>
@@ -6624,9 +6630,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6644,6 +6647,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7004,13 +7010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1074"/>
+  <dimension ref="A1:L1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.6" x14ac:dyDescent="1.05"/>
@@ -7032,32 +7038,32 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="I1" s="10" t="s">
-        <v>2121</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="16" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>1095</v>
       </c>
@@ -18533,19 +18539,19 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A577" s="5" t="s">
-        <v>499</v>
+        <v>2121</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>500</v>
+        <v>2122</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D577" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F577" s="7" t="s">
         <v>0</v>
@@ -18553,10 +18559,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A578" s="5" t="s">
-        <v>1667</v>
+        <v>499</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>1668</v>
+        <v>500</v>
       </c>
       <c r="C578" s="7" t="s">
         <v>0</v>
@@ -18573,13 +18579,13 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A579" s="5" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>0</v>
@@ -18593,13 +18599,13 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A580" s="5" t="s">
-        <v>501</v>
+        <v>1669</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>502</v>
+        <v>1670</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D580" s="7" t="s">
         <v>0</v>
@@ -18613,13 +18619,13 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A581" s="5" t="s">
-        <v>1671</v>
+        <v>501</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>1672</v>
+        <v>502</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D581" s="7" t="s">
         <v>0</v>
@@ -18633,10 +18639,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A582" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>2054</v>
+        <v>1672</v>
       </c>
       <c r="C582" s="7" t="s">
         <v>3</v>
@@ -18653,33 +18659,33 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A583" s="5" t="s">
-        <v>503</v>
+        <v>1673</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>504</v>
+        <v>2054</v>
       </c>
       <c r="C583" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D583" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E583" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F583" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A584" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D584" s="7" t="s">
         <v>3</v>
@@ -18688,15 +18694,15 @@
         <v>3</v>
       </c>
       <c r="F584" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A585" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C585" s="7" t="s">
         <v>0</v>
@@ -18713,10 +18719,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A586" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C586" s="7" t="s">
         <v>0</v>
@@ -18733,10 +18739,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A587" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B587" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C587" s="7" t="s">
         <v>0</v>
@@ -18753,10 +18759,10 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A588" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C588" s="7" t="s">
         <v>0</v>
@@ -18773,16 +18779,16 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A589" s="5" t="s">
-        <v>1674</v>
+        <v>513</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>1675</v>
+        <v>514</v>
       </c>
       <c r="C589" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D589" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E589" s="7" t="s">
         <v>3</v>
@@ -18793,10 +18799,10 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A590" s="5" t="s">
-        <v>515</v>
+        <v>1674</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>516</v>
+        <v>1675</v>
       </c>
       <c r="C590" s="7" t="s">
         <v>0</v>
@@ -18813,10 +18819,10 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A591" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C591" s="7" t="s">
         <v>0</v>
@@ -18833,33 +18839,33 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A592" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D592" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E592" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F592" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A593" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D593" s="7" t="s">
         <v>3</v>
@@ -18868,15 +18874,15 @@
         <v>3</v>
       </c>
       <c r="F593" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A594" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C594" s="7" t="s">
         <v>0</v>
@@ -18893,10 +18899,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A595" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C595" s="7" t="s">
         <v>0</v>
@@ -18913,10 +18919,10 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A596" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C596" s="7" t="s">
         <v>0</v>
@@ -18933,10 +18939,10 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A597" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C597" s="7" t="s">
         <v>0</v>
@@ -18953,16 +18959,16 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A598" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C598" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D598" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E598" s="7" t="s">
         <v>3</v>
@@ -18973,30 +18979,30 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A599" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>1069</v>
+        <v>532</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D599" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E599" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F599" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A600" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C600" s="7" t="s">
         <v>3</v>
@@ -19013,33 +19019,33 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A601" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C601" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D601" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E601" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F601" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A602" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D602" s="7" t="s">
         <v>0</v>
@@ -19048,15 +19054,15 @@
         <v>3</v>
       </c>
       <c r="F602" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A603" s="5" t="s">
-        <v>1676</v>
+        <v>536</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>1677</v>
+        <v>1072</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>0</v>
@@ -19068,18 +19074,18 @@
         <v>3</v>
       </c>
       <c r="F603" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A604" s="5" t="s">
-        <v>537</v>
+        <v>1676</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>538</v>
+        <v>1677</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D604" s="7" t="s">
         <v>0</v>
@@ -19093,13 +19099,13 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A605" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D605" s="7" t="s">
         <v>0</v>
@@ -19108,18 +19114,18 @@
         <v>3</v>
       </c>
       <c r="F605" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A606" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>2100</v>
+        <v>540</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D606" s="7" t="s">
         <v>0</v>
@@ -19128,18 +19134,18 @@
         <v>3</v>
       </c>
       <c r="F606" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A607" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>543</v>
+        <v>2100</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D607" s="7" t="s">
         <v>0</v>
@@ -19153,10 +19159,10 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A608" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C608" s="7" t="s">
         <v>0</v>
@@ -19173,10 +19179,10 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A609" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C609" s="7" t="s">
         <v>0</v>
@@ -19193,10 +19199,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A610" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>0</v>
@@ -19213,10 +19219,10 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A611" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C611" s="7" t="s">
         <v>0</v>
@@ -19233,10 +19239,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A612" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C612" s="7" t="s">
         <v>0</v>
@@ -19253,10 +19259,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A613" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C613" s="7" t="s">
         <v>0</v>
@@ -19273,10 +19279,10 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A614" s="5" t="s">
-        <v>1678</v>
+        <v>554</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>1679</v>
+        <v>555</v>
       </c>
       <c r="C614" s="7" t="s">
         <v>0</v>
@@ -19293,13 +19299,13 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A615" s="5" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D615" s="7" t="s">
         <v>0</v>
@@ -19313,10 +19319,10 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A616" s="5" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C616" s="7" t="s">
         <v>3</v>
@@ -19333,13 +19339,13 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A617" s="5" t="s">
-        <v>556</v>
+        <v>1682</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>1056</v>
+        <v>1683</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D617" s="7" t="s">
         <v>0</v>
@@ -19353,10 +19359,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A618" s="5" t="s">
-        <v>1684</v>
+        <v>556</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>2055</v>
+        <v>1056</v>
       </c>
       <c r="C618" s="7" t="s">
         <v>0</v>
@@ -19373,13 +19379,13 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A619" s="5" t="s">
-        <v>2056</v>
+        <v>1684</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D619" s="7" t="s">
         <v>0</v>
@@ -19393,13 +19399,13 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A620" s="5" t="s">
-        <v>1685</v>
+        <v>2056</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>1686</v>
+        <v>2057</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D620" s="7" t="s">
         <v>0</v>
@@ -19413,33 +19419,33 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A621" s="5" t="s">
-        <v>557</v>
+        <v>1685</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>558</v>
+        <v>1686</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D621" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E621" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F621" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A622" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D622" s="7" t="s">
         <v>3</v>
@@ -19448,21 +19454,21 @@
         <v>3</v>
       </c>
       <c r="F622" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A623" s="5" t="s">
-        <v>1687</v>
+        <v>559</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>1688</v>
+        <v>560</v>
       </c>
       <c r="C623" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D623" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E623" s="7" t="s">
         <v>3</v>
@@ -19473,10 +19479,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A624" s="5" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C624" s="7" t="s">
         <v>0</v>
@@ -19493,10 +19499,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A625" s="5" t="s">
-        <v>561</v>
+        <v>1689</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>562</v>
+        <v>1690</v>
       </c>
       <c r="C625" s="7" t="s">
         <v>0</v>
@@ -19513,10 +19519,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A626" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C626" s="7" t="s">
         <v>0</v>
@@ -19533,50 +19539,50 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A627" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C627" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D627" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E627" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F627" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A628" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C628" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D628" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E628" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F628" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A629" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C629" s="7" t="s">
         <v>0</v>
@@ -19593,10 +19599,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A630" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C630" s="7" t="s">
         <v>0</v>
@@ -19605,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="E630" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F630" s="7" t="s">
         <v>0</v>
@@ -19613,10 +19619,10 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A631" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C631" s="7" t="s">
         <v>0</v>
@@ -19625,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E631" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F631" s="7" t="s">
         <v>0</v>
@@ -19633,10 +19639,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A632" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C632" s="7" t="s">
         <v>0</v>
@@ -19645,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="E632" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F632" s="7" t="s">
         <v>0</v>
@@ -19653,19 +19659,19 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A633" s="5" t="s">
-        <v>1691</v>
+        <v>575</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>1692</v>
+        <v>576</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D633" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E633" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F633" s="7" t="s">
         <v>0</v>
@@ -19673,50 +19679,50 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A634" s="5" t="s">
-        <v>577</v>
+        <v>1691</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>578</v>
+        <v>1692</v>
       </c>
       <c r="C634" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E634" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F634" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A635" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C635" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D635" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E635" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F635" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A636" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>3</v>
@@ -19733,10 +19739,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A637" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C637" s="7" t="s">
         <v>3</v>
@@ -19753,10 +19759,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A638" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C638" s="7" t="s">
         <v>3</v>
@@ -19773,10 +19779,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A639" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C639" s="7" t="s">
         <v>3</v>
@@ -19793,10 +19799,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A640" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C640" s="7" t="s">
         <v>3</v>
@@ -19813,10 +19819,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A641" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C641" s="7" t="s">
         <v>3</v>
@@ -19833,10 +19839,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A642" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C642" s="7" t="s">
         <v>3</v>
@@ -19853,13 +19859,13 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A643" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>1097</v>
+        <v>594</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D643" s="7" t="s">
         <v>0</v>
@@ -19873,13 +19879,13 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A644" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>597</v>
+        <v>1097</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D644" s="7" t="s">
         <v>0</v>
@@ -19893,10 +19899,10 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A645" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C645" s="7" t="s">
         <v>3</v>
@@ -19913,10 +19919,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A646" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C646" s="7" t="s">
         <v>3</v>
@@ -19933,13 +19939,13 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A647" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D647" s="7" t="s">
         <v>0</v>
@@ -19948,15 +19954,15 @@
         <v>3</v>
       </c>
       <c r="F647" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A648" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C648" s="7" t="s">
         <v>0</v>
@@ -19973,13 +19979,13 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A649" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D649" s="7" t="s">
         <v>0</v>
@@ -19988,18 +19994,18 @@
         <v>3</v>
       </c>
       <c r="F649" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A650" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D650" s="7" t="s">
         <v>0</v>
@@ -20013,10 +20019,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A651" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C651" s="7" t="s">
         <v>0</v>
@@ -20033,13 +20039,13 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A652" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D652" s="7" t="s">
         <v>0</v>
@@ -20053,10 +20059,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A653" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C653" s="7" t="s">
         <v>3</v>
@@ -20073,13 +20079,13 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A654" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D654" s="7" t="s">
         <v>0</v>
@@ -20093,10 +20099,10 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A655" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C655" s="7" t="s">
         <v>0</v>
@@ -20108,15 +20114,15 @@
         <v>3</v>
       </c>
       <c r="F655" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A656" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C656" s="7" t="s">
         <v>0</v>
@@ -20128,18 +20134,18 @@
         <v>3</v>
       </c>
       <c r="F656" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A657" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D657" s="7" t="s">
         <v>0</v>
@@ -20153,10 +20159,10 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A658" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>3</v>
@@ -20173,10 +20179,10 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A659" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C659" s="7" t="s">
         <v>3</v>
@@ -20193,10 +20199,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A660" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C660" s="7" t="s">
         <v>3</v>
@@ -20213,13 +20219,13 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A661" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D661" s="7" t="s">
         <v>0</v>
@@ -20233,13 +20239,13 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A662" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D662" s="7" t="s">
         <v>0</v>
@@ -20253,13 +20259,13 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A663" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D663" s="7" t="s">
         <v>0</v>
@@ -20273,10 +20279,10 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A664" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C664" s="7" t="s">
         <v>0</v>
@@ -20288,15 +20294,15 @@
         <v>3</v>
       </c>
       <c r="F664" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A665" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C665" s="7" t="s">
         <v>0</v>
@@ -20308,15 +20314,15 @@
         <v>3</v>
       </c>
       <c r="F665" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A666" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C666" s="7" t="s">
         <v>0</v>
@@ -20333,10 +20339,10 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A667" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>0</v>
@@ -20353,10 +20359,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A668" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>0</v>
@@ -20373,10 +20379,10 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A669" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C669" s="7" t="s">
         <v>0</v>
@@ -20393,10 +20399,10 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A670" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C670" s="7" t="s">
         <v>0</v>
@@ -20413,10 +20419,10 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A671" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>1052</v>
+        <v>649</v>
       </c>
       <c r="C671" s="7" t="s">
         <v>0</v>
@@ -20433,10 +20439,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A672" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>652</v>
+        <v>1052</v>
       </c>
       <c r="C672" s="7" t="s">
         <v>0</v>
@@ -20453,13 +20459,13 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A673" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D673" s="7" t="s">
         <v>0</v>
@@ -20473,19 +20479,19 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A674" s="5" t="s">
-        <v>1693</v>
+        <v>653</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>1694</v>
+        <v>654</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D674" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E674" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F674" s="7" t="s">
         <v>0</v>
@@ -20493,10 +20499,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A675" s="5" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C675" s="7" t="s">
         <v>0</v>
@@ -20505,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="E675" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F675" s="7" t="s">
         <v>0</v>
@@ -20513,10 +20519,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A676" s="5" t="s">
-        <v>655</v>
+        <v>1695</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>656</v>
+        <v>1696</v>
       </c>
       <c r="C676" s="7" t="s">
         <v>0</v>
@@ -20525,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="E676" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F676" s="7" t="s">
         <v>0</v>
@@ -20533,10 +20539,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A677" s="5" t="s">
-        <v>1697</v>
+        <v>655</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>1698</v>
+        <v>656</v>
       </c>
       <c r="C677" s="7" t="s">
         <v>0</v>
@@ -20553,10 +20559,10 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A678" s="5" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C678" s="7" t="s">
         <v>0</v>
@@ -20573,10 +20579,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A679" s="5" t="s">
-        <v>657</v>
+        <v>1699</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>658</v>
+        <v>1700</v>
       </c>
       <c r="C679" s="7" t="s">
         <v>0</v>
@@ -20585,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="E679" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F679" s="7" t="s">
         <v>0</v>
@@ -20593,10 +20599,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A680" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C680" s="7" t="s">
         <v>0</v>
@@ -20613,13 +20619,13 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A681" s="5" t="s">
-        <v>1701</v>
+        <v>659</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>1702</v>
+        <v>660</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D681" s="7" t="s">
         <v>0</v>
@@ -20633,13 +20639,13 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A682" s="5" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D682" s="7" t="s">
         <v>0</v>
@@ -20653,10 +20659,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A683" s="5" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C683" s="7" t="s">
         <v>0</v>
@@ -20668,15 +20674,15 @@
         <v>3</v>
       </c>
       <c r="F683" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A684" s="5" t="s">
-        <v>661</v>
+        <v>1705</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>662</v>
+        <v>1706</v>
       </c>
       <c r="C684" s="7" t="s">
         <v>0</v>
@@ -20688,15 +20694,15 @@
         <v>3</v>
       </c>
       <c r="F684" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A685" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C685" s="7" t="s">
         <v>0</v>
@@ -20708,15 +20714,15 @@
         <v>3</v>
       </c>
       <c r="F685" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A686" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B686" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C686" s="7" t="s">
         <v>0</v>
@@ -20728,15 +20734,15 @@
         <v>3</v>
       </c>
       <c r="F686" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A687" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C687" s="7" t="s">
         <v>0</v>
@@ -20753,10 +20759,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A688" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C688" s="7" t="s">
         <v>0</v>
@@ -20773,10 +20779,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A689" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C689" s="7" t="s">
         <v>0</v>
@@ -20793,10 +20799,10 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A690" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B690" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C690" s="7" t="s">
         <v>0</v>
@@ -20813,10 +20819,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A691" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B691" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C691" s="7" t="s">
         <v>0</v>
@@ -20833,10 +20839,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A692" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B692" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C692" s="7" t="s">
         <v>0</v>
@@ -20853,10 +20859,10 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A693" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B693" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C693" s="7" t="s">
         <v>0</v>
@@ -20873,10 +20879,10 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A694" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B694" s="6" t="s">
-        <v>1091</v>
+        <v>680</v>
       </c>
       <c r="C694" s="7" t="s">
         <v>0</v>
@@ -20893,10 +20899,10 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A695" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B695" s="6" t="s">
-        <v>683</v>
+        <v>1091</v>
       </c>
       <c r="C695" s="7" t="s">
         <v>0</v>
@@ -20913,10 +20919,10 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A696" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C696" s="7" t="s">
         <v>0</v>
@@ -20933,10 +20939,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A697" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C697" s="7" t="s">
         <v>0</v>
@@ -20953,10 +20959,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A698" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C698" s="7" t="s">
         <v>0</v>
@@ -20973,10 +20979,10 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A699" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C699" s="7" t="s">
         <v>0</v>
@@ -20993,10 +20999,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A700" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C700" s="7" t="s">
         <v>0</v>
@@ -21005,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="E700" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F700" s="7" t="s">
         <v>0</v>
@@ -21013,10 +21019,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A701" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C701" s="7" t="s">
         <v>0</v>
@@ -21033,10 +21039,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A702" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C702" s="7" t="s">
         <v>0</v>
@@ -21053,10 +21059,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A703" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>1057</v>
+        <v>697</v>
       </c>
       <c r="C703" s="7" t="s">
         <v>0</v>
@@ -21065,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="E703" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F703" s="7" t="s">
         <v>0</v>
@@ -21073,10 +21079,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A704" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>700</v>
+        <v>1057</v>
       </c>
       <c r="C704" s="7" t="s">
         <v>0</v>
@@ -21093,10 +21099,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A705" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C705" s="7" t="s">
         <v>0</v>
@@ -21113,10 +21119,10 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A706" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C706" s="7" t="s">
         <v>0</v>
@@ -21133,10 +21139,10 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A707" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C707" s="7" t="s">
         <v>0</v>
@@ -21153,10 +21159,10 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A708" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C708" s="7" t="s">
         <v>0</v>
@@ -21173,10 +21179,10 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A709" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C709" s="7" t="s">
         <v>0</v>
@@ -21193,10 +21199,10 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A710" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>0</v>
@@ -21208,15 +21214,15 @@
         <v>3</v>
       </c>
       <c r="F710" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A711" s="5" t="s">
-        <v>1707</v>
+        <v>711</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>1708</v>
+        <v>712</v>
       </c>
       <c r="C711" s="7" t="s">
         <v>0</v>
@@ -21228,15 +21234,15 @@
         <v>3</v>
       </c>
       <c r="F711" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A712" s="5" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C712" s="7" t="s">
         <v>0</v>
@@ -21253,10 +21259,10 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A713" s="5" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C713" s="7" t="s">
         <v>0</v>
@@ -21265,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="E713" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F713" s="7" t="s">
         <v>0</v>
@@ -21273,33 +21279,33 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A714" s="5" t="s">
-        <v>713</v>
+        <v>1711</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D714" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E714" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F714" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A715" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>715</v>
+        <v>1713</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D715" s="7" t="s">
         <v>3</v>
@@ -21308,15 +21314,15 @@
         <v>3</v>
       </c>
       <c r="F715" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A716" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C716" s="7" t="s">
         <v>0</v>
@@ -21333,10 +21339,10 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A717" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C717" s="7" t="s">
         <v>0</v>
@@ -21353,10 +21359,10 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A718" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C718" s="7" t="s">
         <v>0</v>
@@ -21373,10 +21379,10 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A719" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C719" s="7" t="s">
         <v>0</v>
@@ -21393,56 +21399,56 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A720" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C720" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D720" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E720" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F720" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A721" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D721" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E721" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F721" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A722" s="5" t="s">
-        <v>1714</v>
+        <v>726</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>2043</v>
+        <v>727</v>
       </c>
       <c r="C722" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D722" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E722" s="7" t="s">
         <v>3</v>
@@ -21453,10 +21459,10 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A723" s="5" t="s">
-        <v>2033</v>
+        <v>1714</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>2034</v>
+        <v>2043</v>
       </c>
       <c r="C723" s="7" t="s">
         <v>3</v>
@@ -21473,13 +21479,13 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A724" s="5" t="s">
-        <v>1715</v>
+        <v>2033</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>1716</v>
+        <v>2034</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D724" s="7" t="s">
         <v>0</v>
@@ -21493,13 +21499,13 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A725" s="5" t="s">
-        <v>2035</v>
+        <v>1715</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>2036</v>
+        <v>1716</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D725" s="7" t="s">
         <v>0</v>
@@ -21513,10 +21519,10 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A726" s="5" t="s">
-        <v>2101</v>
+        <v>2035</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>2102</v>
+        <v>2036</v>
       </c>
       <c r="C726" s="7" t="s">
         <v>3</v>
@@ -21533,13 +21539,13 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A727" s="5" t="s">
-        <v>728</v>
+        <v>2101</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>729</v>
+        <v>2102</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D727" s="7" t="s">
         <v>0</v>
@@ -21553,16 +21559,16 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A728" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B728" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D728" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E728" s="7" t="s">
         <v>3</v>
@@ -21573,10 +21579,10 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A729" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C729" s="7" t="s">
         <v>3</v>
@@ -21588,15 +21594,15 @@
         <v>3</v>
       </c>
       <c r="F729" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A730" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C730" s="7" t="s">
         <v>3</v>
@@ -21613,39 +21619,39 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A731" s="5" t="s">
-        <v>1717</v>
+        <v>734</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>1718</v>
+        <v>735</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D731" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E731" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F731" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A732" s="5" t="s">
-        <v>736</v>
+        <v>1717</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>737</v>
+        <v>1718</v>
       </c>
       <c r="C732" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D732" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E732" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F732" s="7" t="s">
         <v>0</v>
@@ -21653,10 +21659,10 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A733" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C733" s="7" t="s">
         <v>0</v>
@@ -21665,7 +21671,7 @@
         <v>3</v>
       </c>
       <c r="E733" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F733" s="7" t="s">
         <v>0</v>
@@ -21673,10 +21679,10 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A734" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C734" s="7" t="s">
         <v>0</v>
@@ -21693,19 +21699,19 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A735" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C735" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D735" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E735" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F735" s="7" t="s">
         <v>0</v>
@@ -21713,10 +21719,10 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A736" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C736" s="7" t="s">
         <v>0</v>
@@ -21733,10 +21739,10 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A737" s="5" t="s">
-        <v>1719</v>
+        <v>744</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>1720</v>
+        <v>745</v>
       </c>
       <c r="C737" s="7" t="s">
         <v>0</v>
@@ -21753,50 +21759,50 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A738" s="5" t="s">
-        <v>746</v>
+        <v>1719</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>747</v>
+        <v>1720</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D738" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E738" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F738" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A739" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D739" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E739" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F739" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A740" s="5" t="s">
-        <v>1721</v>
+        <v>748</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>1722</v>
+        <v>749</v>
       </c>
       <c r="C740" s="7" t="s">
         <v>0</v>
@@ -21805,7 +21811,7 @@
         <v>3</v>
       </c>
       <c r="E740" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F740" s="7" t="s">
         <v>0</v>
@@ -21813,10 +21819,10 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A741" s="5" t="s">
-        <v>750</v>
+        <v>1721</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>751</v>
+        <v>1722</v>
       </c>
       <c r="C741" s="7" t="s">
         <v>0</v>
@@ -21825,7 +21831,7 @@
         <v>3</v>
       </c>
       <c r="E741" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F741" s="7" t="s">
         <v>0</v>
@@ -21833,10 +21839,10 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A742" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C742" s="7" t="s">
         <v>0</v>
@@ -21853,19 +21859,19 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A743" s="5" t="s">
-        <v>1723</v>
+        <v>752</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>1724</v>
+        <v>753</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D743" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E743" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F743" s="7" t="s">
         <v>0</v>
@@ -21873,10 +21879,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A744" s="5" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B744" s="6" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C744" s="7" t="s">
         <v>3</v>
@@ -21893,10 +21899,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A745" s="5" t="s">
-        <v>2115</v>
+        <v>1725</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>2116</v>
+        <v>1726</v>
       </c>
       <c r="C745" s="7" t="s">
         <v>3</v>
@@ -21913,13 +21919,13 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A746" s="5" t="s">
-        <v>754</v>
+        <v>2115</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>755</v>
+        <v>2116</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D746" s="7" t="s">
         <v>0</v>
@@ -21933,13 +21939,13 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A747" s="5" t="s">
-        <v>1727</v>
+        <v>754</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>1728</v>
+        <v>755</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D747" s="7" t="s">
         <v>0</v>
@@ -21953,33 +21959,33 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A748" s="5" t="s">
-        <v>756</v>
+        <v>1727</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>757</v>
+        <v>1728</v>
       </c>
       <c r="C748" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D748" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E748" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F748" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A749" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D749" s="7" t="s">
         <v>3</v>
@@ -21988,21 +21994,21 @@
         <v>3</v>
       </c>
       <c r="F749" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A750" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C750" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D750" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E750" s="7" t="s">
         <v>3</v>
@@ -22013,10 +22019,10 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A751" s="5" t="s">
-        <v>1729</v>
+        <v>760</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>1730</v>
+        <v>761</v>
       </c>
       <c r="C751" s="7" t="s">
         <v>0</v>
@@ -22033,10 +22039,10 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A752" s="5" t="s">
-        <v>762</v>
+        <v>1729</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>763</v>
+        <v>1730</v>
       </c>
       <c r="C752" s="7" t="s">
         <v>0</v>
@@ -22053,13 +22059,13 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A753" s="5" t="s">
-        <v>1073</v>
+        <v>762</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>1074</v>
+        <v>763</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D753" s="7" t="s">
         <v>0</v>
@@ -22073,10 +22079,10 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A754" s="5" t="s">
-        <v>1731</v>
+        <v>1073</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>1732</v>
+        <v>1074</v>
       </c>
       <c r="C754" s="7" t="s">
         <v>3</v>
@@ -22093,13 +22099,13 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A755" s="5" t="s">
-        <v>2044</v>
+        <v>1731</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>2045</v>
+        <v>1732</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D755" s="7" t="s">
         <v>0</v>
@@ -22113,10 +22119,10 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A756" s="5" t="s">
-        <v>764</v>
+        <v>2044</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>765</v>
+        <v>2045</v>
       </c>
       <c r="C756" s="7" t="s">
         <v>0</v>
@@ -22133,19 +22139,19 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A757" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D757" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E757" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F757" s="7" t="s">
         <v>0</v>
@@ -22153,19 +22159,19 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A758" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D758" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E758" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F758" s="7" t="s">
         <v>0</v>
@@ -22173,33 +22179,33 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A759" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D759" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E759" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F759" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A760" s="5" t="s">
-        <v>1733</v>
+        <v>770</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>1734</v>
+        <v>771</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D760" s="7" t="s">
         <v>3</v>
@@ -22208,15 +22214,15 @@
         <v>3</v>
       </c>
       <c r="F760" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A761" s="5" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C761" s="7" t="s">
         <v>0</v>
@@ -22233,16 +22239,16 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A762" s="5" t="s">
-        <v>772</v>
+        <v>1735</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>773</v>
+        <v>1736</v>
       </c>
       <c r="C762" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D762" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E762" s="7" t="s">
         <v>3</v>
@@ -22253,33 +22259,33 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A763" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D763" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E763" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F763" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A764" s="5" t="s">
-        <v>1737</v>
+        <v>774</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>1738</v>
+        <v>775</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D764" s="7" t="s">
         <v>3</v>
@@ -22288,21 +22294,21 @@
         <v>3</v>
       </c>
       <c r="F764" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A765" s="5" t="s">
-        <v>776</v>
+        <v>1737</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>777</v>
+        <v>1738</v>
       </c>
       <c r="C765" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D765" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E765" s="7" t="s">
         <v>3</v>
@@ -22313,56 +22319,56 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A766" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D766" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E766" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F766" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A767" s="5" t="s">
-        <v>1739</v>
+        <v>778</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>1740</v>
+        <v>779</v>
       </c>
       <c r="C767" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D767" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E767" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F767" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A768" s="5" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C768" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D768" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E768" s="7" t="s">
         <v>3</v>
@@ -22373,16 +22379,16 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A769" s="5" t="s">
-        <v>780</v>
+        <v>1741</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>781</v>
+        <v>1742</v>
       </c>
       <c r="C769" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D769" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E769" s="7" t="s">
         <v>3</v>
@@ -22393,19 +22399,19 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A770" s="5" t="s">
-        <v>1743</v>
+        <v>780</v>
       </c>
       <c r="B770" s="6" t="s">
-        <v>1744</v>
+        <v>781</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D770" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E770" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F770" s="7" t="s">
         <v>0</v>
@@ -22413,10 +22419,10 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A771" s="5" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C771" s="7" t="s">
         <v>3</v>
@@ -22433,10 +22439,10 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A772" s="5" t="s">
-        <v>782</v>
+        <v>1745</v>
       </c>
       <c r="B772" s="6" t="s">
-        <v>783</v>
+        <v>1746</v>
       </c>
       <c r="C772" s="7" t="s">
         <v>3</v>
@@ -22445,44 +22451,44 @@
         <v>3</v>
       </c>
       <c r="E772" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F772" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A773" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B773" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D773" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E773" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F773" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A774" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B774" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D774" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E774" s="7" t="s">
         <v>3</v>
@@ -22493,10 +22499,10 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A775" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>0</v>
@@ -22513,10 +22519,10 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A776" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B776" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C776" s="7" t="s">
         <v>0</v>
@@ -22533,13 +22539,13 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A777" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B777" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D777" s="7" t="s">
         <v>3</v>
@@ -22548,18 +22554,18 @@
         <v>3</v>
       </c>
       <c r="F777" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A778" s="5" t="s">
-        <v>1747</v>
+        <v>792</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>1748</v>
+        <v>793</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D778" s="7" t="s">
         <v>3</v>
@@ -22568,15 +22574,15 @@
         <v>3</v>
       </c>
       <c r="F778" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A779" s="5" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B779" s="6" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C779" s="7" t="s">
         <v>0</v>
@@ -22593,10 +22599,10 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A780" s="5" t="s">
-        <v>794</v>
+        <v>1749</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>795</v>
+        <v>1750</v>
       </c>
       <c r="C780" s="7" t="s">
         <v>0</v>
@@ -22613,16 +22619,16 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A781" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C781" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D781" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E781" s="7" t="s">
         <v>3</v>
@@ -22633,10 +22639,10 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A782" s="5" t="s">
-        <v>1751</v>
+        <v>796</v>
       </c>
       <c r="B782" s="6" t="s">
-        <v>1752</v>
+        <v>797</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>0</v>
@@ -22645,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="E782" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F782" s="7" t="s">
         <v>0</v>
@@ -22653,36 +22659,36 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A783" s="5" t="s">
-        <v>798</v>
+        <v>1751</v>
       </c>
       <c r="B783" s="6" t="s">
-        <v>2046</v>
+        <v>1752</v>
       </c>
       <c r="C783" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D783" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E783" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F783" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A784" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>800</v>
+        <v>2046</v>
       </c>
       <c r="C784" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D784" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E784" s="7" t="s">
         <v>3</v>
@@ -22693,36 +22699,36 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A785" s="5" t="s">
-        <v>2047</v>
+        <v>799</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>2048</v>
+        <v>800</v>
       </c>
       <c r="C785" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D785" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E785" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F785" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A786" s="5" t="s">
-        <v>801</v>
+        <v>2047</v>
       </c>
       <c r="B786" s="6" t="s">
-        <v>802</v>
+        <v>2048</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D786" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E786" s="7" t="s">
         <v>3</v>
@@ -22733,50 +22739,50 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A787" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B787" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C787" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D787" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E787" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F787" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A788" s="5" t="s">
-        <v>1753</v>
+        <v>803</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>1754</v>
+        <v>804</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D788" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E788" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F788" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A789" s="5" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>3</v>
@@ -22793,10 +22799,10 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A790" s="5" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>3</v>
@@ -22813,13 +22819,13 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A791" s="5" t="s">
-        <v>805</v>
+        <v>1757</v>
       </c>
       <c r="B791" s="6" t="s">
-        <v>806</v>
+        <v>1758</v>
       </c>
       <c r="C791" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D791" s="7" t="s">
         <v>0</v>
@@ -22833,33 +22839,33 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A792" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B792" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C792" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D792" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E792" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F792" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A793" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B793" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C793" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D793" s="7" t="s">
         <v>3</v>
@@ -22868,15 +22874,15 @@
         <v>3</v>
       </c>
       <c r="F793" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A794" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B794" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>0</v>
@@ -22893,10 +22899,10 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A795" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B795" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C795" s="7" t="s">
         <v>0</v>
@@ -22913,10 +22919,10 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A796" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B796" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C796" s="7" t="s">
         <v>0</v>
@@ -22933,10 +22939,10 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A797" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C797" s="7" t="s">
         <v>0</v>
@@ -22953,10 +22959,10 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A798" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C798" s="7" t="s">
         <v>0</v>
@@ -22973,10 +22979,10 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A799" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B799" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C799" s="7" t="s">
         <v>0</v>
@@ -22993,10 +22999,10 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A800" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B800" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C800" s="7" t="s">
         <v>0</v>
@@ -23013,16 +23019,16 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A801" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B801" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C801" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D801" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E801" s="7" t="s">
         <v>3</v>
@@ -23033,156 +23039,156 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A802" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B802" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D802" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E802" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F802" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A803" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B803" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D803" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E803" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F803" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A804" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B804" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D804" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E804" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F804" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A805" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B805" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D805" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E805" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F805" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A806" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B806" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D806" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E806" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F806" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A807" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D807" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E807" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F807" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A808" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D808" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E808" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F808" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A809" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B809" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D809" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E809" s="7" t="s">
         <v>3</v>
@@ -23193,10 +23199,10 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A810" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C810" s="7" t="s">
         <v>0</v>
@@ -23205,18 +23211,18 @@
         <v>0</v>
       </c>
       <c r="E810" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F810" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A811" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C811" s="7" t="s">
         <v>0</v>
@@ -23225,18 +23231,18 @@
         <v>0</v>
       </c>
       <c r="E811" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F811" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A812" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B812" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C812" s="7" t="s">
         <v>0</v>
@@ -23253,13 +23259,13 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A813" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B813" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C813" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D813" s="7" t="s">
         <v>0</v>
@@ -23268,18 +23274,18 @@
         <v>3</v>
       </c>
       <c r="F813" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A814" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B814" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D814" s="7" t="s">
         <v>0</v>
@@ -23293,10 +23299,10 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A815" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B815" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C815" s="7" t="s">
         <v>0</v>
@@ -23313,10 +23319,10 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A816" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B816" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C816" s="7" t="s">
         <v>0</v>
@@ -23333,10 +23339,10 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A817" s="5" t="s">
-        <v>1058</v>
+        <v>855</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>1059</v>
+        <v>856</v>
       </c>
       <c r="C817" s="7" t="s">
         <v>0</v>
@@ -23353,13 +23359,13 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A818" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B818" s="6" t="s">
-        <v>2058</v>
+        <v>1059</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D818" s="7" t="s">
         <v>0</v>
@@ -23373,33 +23379,33 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A819" s="5" t="s">
-        <v>857</v>
+        <v>1060</v>
       </c>
       <c r="B819" s="6" t="s">
-        <v>858</v>
+        <v>2058</v>
       </c>
       <c r="C819" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D819" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E819" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F819" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A820" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B820" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D820" s="7" t="s">
         <v>3</v>
@@ -23408,15 +23414,15 @@
         <v>3</v>
       </c>
       <c r="F820" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A821" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B821" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C821" s="7" t="s">
         <v>0</v>
@@ -23433,10 +23439,10 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A822" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B822" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C822" s="7" t="s">
         <v>0</v>
@@ -23453,16 +23459,16 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A823" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C823" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D823" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E823" s="7" t="s">
         <v>3</v>
@@ -23473,50 +23479,50 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A824" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B824" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D824" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E824" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F824" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A825" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B825" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C825" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D825" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E825" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F825" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A826" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B826" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C826" s="7" t="s">
         <v>0</v>
@@ -23528,41 +23534,41 @@
         <v>3</v>
       </c>
       <c r="F826" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A827" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B827" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D827" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E827" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F827" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A828" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D828" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E828" s="7" t="s">
         <v>3</v>
@@ -23573,10 +23579,10 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A829" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B829" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C829" s="7" t="s">
         <v>0</v>
@@ -23593,10 +23599,10 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A830" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B830" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C830" s="7" t="s">
         <v>0</v>
@@ -23613,10 +23619,10 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A831" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B831" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C831" s="7" t="s">
         <v>0</v>
@@ -23625,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="E831" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F831" s="7" t="s">
         <v>0</v>
@@ -23633,10 +23639,10 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A832" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B832" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C832" s="7" t="s">
         <v>0</v>
@@ -23645,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="E832" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F832" s="7" t="s">
         <v>0</v>
@@ -23653,10 +23659,10 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A833" s="5" t="s">
-        <v>1759</v>
+        <v>883</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>1760</v>
+        <v>884</v>
       </c>
       <c r="C833" s="7" t="s">
         <v>0</v>
@@ -23673,10 +23679,10 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A834" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B834" s="6" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C834" s="7" t="s">
         <v>0</v>
@@ -23685,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="E834" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F834" s="7" t="s">
         <v>0</v>
@@ -23693,10 +23699,10 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A835" s="5" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C835" s="7" t="s">
         <v>0</v>
@@ -23713,50 +23719,50 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A836" s="5" t="s">
-        <v>885</v>
+        <v>1763</v>
       </c>
       <c r="B836" s="6" t="s">
-        <v>886</v>
+        <v>1764</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D836" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E836" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F836" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A837" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B837" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D837" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E837" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F837" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A838" s="5" t="s">
-        <v>1765</v>
+        <v>887</v>
       </c>
       <c r="B838" s="6" t="s">
-        <v>1766</v>
+        <v>888</v>
       </c>
       <c r="C838" s="7" t="s">
         <v>0</v>
@@ -23765,7 +23771,7 @@
         <v>0</v>
       </c>
       <c r="E838" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F838" s="7" t="s">
         <v>0</v>
@@ -23773,50 +23779,50 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A839" s="5" t="s">
-        <v>889</v>
+        <v>1765</v>
       </c>
       <c r="B839" s="6" t="s">
-        <v>1061</v>
+        <v>1766</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D839" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E839" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F839" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A840" s="5" t="s">
-        <v>1767</v>
+        <v>889</v>
       </c>
       <c r="B840" s="6" t="s">
-        <v>1768</v>
+        <v>1061</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D840" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E840" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F840" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A841" s="5" t="s">
-        <v>890</v>
+        <v>1767</v>
       </c>
       <c r="B841" s="6" t="s">
-        <v>891</v>
+        <v>1768</v>
       </c>
       <c r="C841" s="7" t="s">
         <v>0</v>
@@ -23833,210 +23839,210 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A842" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B842" s="6" t="s">
-        <v>1062</v>
+        <v>891</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D842" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E842" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F842" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A843" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B843" s="6" t="s">
-        <v>894</v>
+        <v>1062</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D843" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E843" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F843" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A844" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B844" s="6" t="s">
-        <v>1063</v>
+        <v>894</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D844" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E844" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F844" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A845" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B845" s="6" t="s">
-        <v>897</v>
+        <v>1063</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D845" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E845" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F845" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A846" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D846" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E846" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F846" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A847" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B847" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D847" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E847" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F847" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A848" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B848" s="6" t="s">
-        <v>1064</v>
+        <v>901</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D848" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E848" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F848" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A849" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B849" s="6" t="s">
-        <v>904</v>
+        <v>1064</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D849" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E849" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F849" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A850" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B850" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D850" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E850" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F850" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A851" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B851" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D851" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E851" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F851" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A852" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B852" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C852" s="7" t="s">
         <v>0</v>
@@ -24053,10 +24059,10 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A853" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B853" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C853" s="7" t="s">
         <v>0</v>
@@ -24068,15 +24074,15 @@
         <v>3</v>
       </c>
       <c r="F853" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A854" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B854" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C854" s="7" t="s">
         <v>0</v>
@@ -24088,15 +24094,15 @@
         <v>3</v>
       </c>
       <c r="F854" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A855" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B855" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C855" s="7" t="s">
         <v>0</v>
@@ -24113,10 +24119,10 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A856" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B856" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C856" s="7" t="s">
         <v>0</v>
@@ -24133,50 +24139,50 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A857" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B857" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D857" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E857" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F857" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A858" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B858" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D858" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E858" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F858" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A859" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C859" s="7" t="s">
         <v>0</v>
@@ -24193,19 +24199,19 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A860" s="5" t="s">
-        <v>1769</v>
+        <v>923</v>
       </c>
       <c r="B860" s="6" t="s">
-        <v>1770</v>
+        <v>924</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D860" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E860" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F860" s="7" t="s">
         <v>0</v>
@@ -24213,10 +24219,10 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A861" s="5" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B861" s="6" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C861" s="7" t="s">
         <v>3</v>
@@ -24233,10 +24239,10 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A862" s="5" t="s">
-        <v>925</v>
+        <v>1771</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>926</v>
+        <v>1772</v>
       </c>
       <c r="C862" s="7" t="s">
         <v>3</v>
@@ -24245,38 +24251,38 @@
         <v>3</v>
       </c>
       <c r="E862" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F862" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A863" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B863" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C863" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D863" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E863" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F863" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A864" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B864" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C864" s="7" t="s">
         <v>3</v>
@@ -24293,10 +24299,10 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A865" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B865" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C865" s="7" t="s">
         <v>3</v>
@@ -24313,13 +24319,13 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A866" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B866" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D866" s="7" t="s">
         <v>0</v>
@@ -24328,15 +24334,15 @@
         <v>3</v>
       </c>
       <c r="F866" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A867" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B867" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C867" s="7" t="s">
         <v>0</v>
@@ -24348,55 +24354,55 @@
         <v>3</v>
       </c>
       <c r="F867" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A868" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B868" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D868" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E868" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F868" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A869" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B869" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D869" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E869" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F869" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A870" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C870" s="7" t="s">
         <v>0</v>
@@ -24408,15 +24414,15 @@
         <v>3</v>
       </c>
       <c r="F870" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A871" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B871" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C871" s="7" t="s">
         <v>0</v>
@@ -24428,158 +24434,158 @@
         <v>3</v>
       </c>
       <c r="F871" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A872" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B872" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D872" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E872" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F872" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A873" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B873" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D873" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E873" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F873" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A874" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B874" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D874" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E874" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F874" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A875" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B875" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D875" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E875" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F875" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A876" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B876" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E876" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F876" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A877" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B877" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D877" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E877" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F877" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A878" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B878" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D878" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E878" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F878" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A879" s="5" t="s">
-        <v>1773</v>
+        <v>957</v>
       </c>
       <c r="B879" s="6" t="s">
-        <v>2037</v>
+        <v>958</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D879" s="7" t="s">
         <v>3</v>
@@ -24588,21 +24594,21 @@
         <v>3</v>
       </c>
       <c r="F879" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A880" s="5" t="s">
-        <v>959</v>
+        <v>1773</v>
       </c>
       <c r="B880" s="6" t="s">
-        <v>960</v>
+        <v>2037</v>
       </c>
       <c r="C880" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D880" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E880" s="7" t="s">
         <v>3</v>
@@ -24613,90 +24619,90 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A881" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D881" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E881" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F881" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A882" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B882" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D882" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E882" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F882" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A883" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D883" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E883" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F883" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A884" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D884" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E884" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F884" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A885" s="5" t="s">
-        <v>1774</v>
+        <v>967</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="C885" s="7" t="s">
         <v>0</v>
@@ -24713,10 +24719,10 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A886" s="5" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B886" s="6" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C886" s="7" t="s">
         <v>0</v>
@@ -24728,15 +24734,15 @@
         <v>3</v>
       </c>
       <c r="F886" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A887" s="5" t="s">
-        <v>969</v>
+        <v>1776</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>970</v>
+        <v>1777</v>
       </c>
       <c r="C887" s="7" t="s">
         <v>0</v>
@@ -24748,15 +24754,15 @@
         <v>3</v>
       </c>
       <c r="F887" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A888" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B888" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C888" s="7" t="s">
         <v>0</v>
@@ -24773,50 +24779,50 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A889" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B889" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D889" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E889" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F889" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A890" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B890" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D890" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E890" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F890" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A891" s="5" t="s">
-        <v>2049</v>
+        <v>975</v>
       </c>
       <c r="B891" s="6" t="s">
-        <v>2050</v>
+        <v>976</v>
       </c>
       <c r="C891" s="7" t="s">
         <v>0</v>
@@ -24825,7 +24831,7 @@
         <v>0</v>
       </c>
       <c r="E891" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F891" s="7" t="s">
         <v>0</v>
@@ -24833,93 +24839,93 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A892" s="5" t="s">
-        <v>977</v>
+        <v>2049</v>
       </c>
       <c r="B892" s="6" t="s">
-        <v>1065</v>
+        <v>2050</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D892" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E892" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F892" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A893" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B893" s="6" t="s">
-        <v>979</v>
+        <v>1065</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D893" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E893" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F893" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A894" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B894" s="6" t="s">
-        <v>1066</v>
+        <v>979</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D894" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E894" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F894" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A895" s="5" t="s">
-        <v>1778</v>
+        <v>980</v>
       </c>
       <c r="B895" s="6" t="s">
-        <v>1779</v>
+        <v>1066</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D895" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E895" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F895" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A896" s="5" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B896" s="6" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D896" s="7" t="s">
         <v>0</v>
@@ -24933,10 +24939,10 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A897" s="5" t="s">
-        <v>981</v>
+        <v>1780</v>
       </c>
       <c r="B897" s="6" t="s">
-        <v>982</v>
+        <v>1781</v>
       </c>
       <c r="C897" s="7" t="s">
         <v>3</v>
@@ -24953,10 +24959,10 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A898" s="5" t="s">
-        <v>1085</v>
+        <v>981</v>
       </c>
       <c r="B898" s="6" t="s">
-        <v>1086</v>
+        <v>982</v>
       </c>
       <c r="C898" s="7" t="s">
         <v>3</v>
@@ -24973,13 +24979,13 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A899" s="5" t="s">
-        <v>983</v>
+        <v>1085</v>
       </c>
       <c r="B899" s="6" t="s">
-        <v>984</v>
+        <v>1086</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D899" s="7" t="s">
         <v>0</v>
@@ -24993,90 +24999,90 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A900" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>1067</v>
+        <v>984</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D900" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E900" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F900" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A901" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>987</v>
+        <v>1067</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D901" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E901" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F901" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A902" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B902" s="6" t="s">
-        <v>1068</v>
+        <v>987</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D902" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E902" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F902" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A903" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B903" s="6" t="s">
-        <v>990</v>
+        <v>1068</v>
       </c>
       <c r="C903" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D903" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E903" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F903" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A904" s="5" t="s">
-        <v>1782</v>
+        <v>989</v>
       </c>
       <c r="B904" s="6" t="s">
-        <v>1783</v>
+        <v>990</v>
       </c>
       <c r="C904" s="7" t="s">
         <v>3</v>
@@ -25093,13 +25099,13 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A905" s="5" t="s">
-        <v>991</v>
+        <v>1782</v>
       </c>
       <c r="B905" s="6" t="s">
-        <v>992</v>
+        <v>1783</v>
       </c>
       <c r="C905" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D905" s="7" t="s">
         <v>0</v>
@@ -25113,130 +25119,130 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A906" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B906" s="6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C906" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D906" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E906" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F906" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A907" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B907" s="6" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C907" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D907" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E907" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F907" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A908" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B908" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C908" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D908" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E908" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F908" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A909" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B909" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C909" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D909" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E909" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F909" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A910" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B910" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C910" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D910" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E910" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F910" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A911" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B911" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C911" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D911" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E911" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F911" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A912" s="5" t="s">
-        <v>1784</v>
+        <v>1003</v>
       </c>
       <c r="B912" s="6" t="s">
-        <v>1785</v>
+        <v>1004</v>
       </c>
       <c r="C912" s="7" t="s">
         <v>0</v>
@@ -25248,15 +25254,15 @@
         <v>3</v>
       </c>
       <c r="F912" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A913" s="5" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B913" s="6" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C913" s="7" t="s">
         <v>0</v>
@@ -25273,10 +25279,10 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A914" s="5" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B914" s="6" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="C914" s="7" t="s">
         <v>0</v>
@@ -25293,10 +25299,10 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A915" s="5" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B915" s="6" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C915" s="7" t="s">
         <v>0</v>
@@ -25313,7 +25319,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A916" s="5" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B916" s="6" t="s">
         <v>1791</v>
@@ -25333,10 +25339,10 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A917" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C917" s="7" t="s">
         <v>0</v>
@@ -25353,10 +25359,10 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A918" s="5" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B918" s="6" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C918" s="7" t="s">
         <v>0</v>
@@ -25373,10 +25379,10 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A919" s="5" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B919" s="6" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C919" s="7" t="s">
         <v>0</v>
@@ -25385,18 +25391,18 @@
         <v>0</v>
       </c>
       <c r="E919" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F919" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A920" s="5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B920" s="6" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C920" s="7" t="s">
         <v>0</v>
@@ -25405,18 +25411,18 @@
         <v>0</v>
       </c>
       <c r="E920" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F920" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A921" s="5" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B921" s="6" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C921" s="7" t="s">
         <v>0</v>
@@ -25433,10 +25439,10 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A922" s="5" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C922" s="7" t="s">
         <v>0</v>
@@ -25453,10 +25459,10 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A923" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B923" s="6" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C923" s="7" t="s">
         <v>0</v>
@@ -25473,10 +25479,10 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A924" s="5" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B924" s="6" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C924" s="7" t="s">
         <v>0</v>
@@ -25493,10 +25499,10 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A925" s="5" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B925" s="6" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C925" s="7" t="s">
         <v>0</v>
@@ -25505,18 +25511,18 @@
         <v>0</v>
       </c>
       <c r="E925" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F925" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A926" s="5" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B926" s="6" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C926" s="7" t="s">
         <v>0</v>
@@ -25525,18 +25531,18 @@
         <v>0</v>
       </c>
       <c r="E926" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F926" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A927" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B927" s="6" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="C927" s="7" t="s">
         <v>0</v>
@@ -25553,10 +25559,10 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A928" s="5" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B928" s="6" t="s">
-        <v>1410</v>
+        <v>1791</v>
       </c>
       <c r="C928" s="7" t="s">
         <v>0</v>
@@ -25565,18 +25571,18 @@
         <v>0</v>
       </c>
       <c r="E928" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F928" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A929" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B929" s="6" t="s">
-        <v>1791</v>
+        <v>1410</v>
       </c>
       <c r="C929" s="7" t="s">
         <v>0</v>
@@ -25585,18 +25591,18 @@
         <v>0</v>
       </c>
       <c r="E929" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F929" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A930" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B930" s="6" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="C930" s="7" t="s">
         <v>0</v>
@@ -25613,10 +25619,10 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A931" s="5" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B931" s="6" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C931" s="7" t="s">
         <v>0</v>
@@ -25633,10 +25639,10 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A932" s="5" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B932" s="6" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C932" s="7" t="s">
         <v>0</v>
@@ -25653,10 +25659,10 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A933" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B933" s="6" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C933" s="7" t="s">
         <v>0</v>
@@ -25673,7 +25679,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A934" s="5" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B934" s="6" t="s">
         <v>1823</v>
@@ -25693,7 +25699,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A935" s="5" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B935" s="6" t="s">
         <v>1823</v>
@@ -25713,10 +25719,10 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A936" s="5" t="s">
-        <v>1005</v>
+        <v>1825</v>
       </c>
       <c r="B936" s="6" t="s">
-        <v>1006</v>
+        <v>1823</v>
       </c>
       <c r="C936" s="7" t="s">
         <v>0</v>
@@ -25728,12 +25734,12 @@
         <v>3</v>
       </c>
       <c r="F936" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A937" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B937" s="6" t="s">
         <v>1006</v>
@@ -25753,10 +25759,10 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A938" s="5" t="s">
-        <v>1826</v>
+        <v>1007</v>
       </c>
       <c r="B938" s="6" t="s">
-        <v>1821</v>
+        <v>1006</v>
       </c>
       <c r="C938" s="7" t="s">
         <v>0</v>
@@ -25768,15 +25774,15 @@
         <v>3</v>
       </c>
       <c r="F938" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A939" s="5" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B939" s="6" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="C939" s="7" t="s">
         <v>0</v>
@@ -25793,10 +25799,10 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A940" s="5" t="s">
-        <v>1008</v>
+        <v>1827</v>
       </c>
       <c r="B940" s="6" t="s">
-        <v>1009</v>
+        <v>1828</v>
       </c>
       <c r="C940" s="7" t="s">
         <v>0</v>
@@ -25808,15 +25814,15 @@
         <v>3</v>
       </c>
       <c r="F940" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A941" s="5" t="s">
-        <v>1829</v>
+        <v>1008</v>
       </c>
       <c r="B941" s="6" t="s">
-        <v>1830</v>
+        <v>1009</v>
       </c>
       <c r="C941" s="7" t="s">
         <v>0</v>
@@ -25828,15 +25834,15 @@
         <v>3</v>
       </c>
       <c r="F941" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A942" s="5" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B942" s="6" t="s">
-        <v>1791</v>
+        <v>1830</v>
       </c>
       <c r="C942" s="7" t="s">
         <v>0</v>
@@ -25853,10 +25859,10 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A943" s="5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>1833</v>
+        <v>1791</v>
       </c>
       <c r="C943" s="7" t="s">
         <v>0</v>
@@ -25873,10 +25879,10 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A944" s="5" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B944" s="6" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C944" s="7" t="s">
         <v>0</v>
@@ -25893,10 +25899,10 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A945" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B945" s="6" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C945" s="7" t="s">
         <v>0</v>
@@ -25913,10 +25919,10 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A946" s="5" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B946" s="6" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C946" s="7" t="s">
         <v>0</v>
@@ -25933,10 +25939,10 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A947" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B947" s="6" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C947" s="7" t="s">
         <v>0</v>
@@ -25953,10 +25959,10 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A948" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B948" s="6" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C948" s="7" t="s">
         <v>0</v>
@@ -25973,10 +25979,10 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A949" s="5" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B949" s="6" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C949" s="7" t="s">
         <v>0</v>
@@ -25993,10 +25999,10 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A950" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B950" s="6" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C950" s="7" t="s">
         <v>0</v>
@@ -26013,10 +26019,10 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A951" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B951" s="6" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C951" s="7" t="s">
         <v>0</v>
@@ -26033,10 +26039,10 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A952" s="5" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B952" s="6" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C952" s="7" t="s">
         <v>0</v>
@@ -26053,10 +26059,10 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A953" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B953" s="6" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C953" s="7" t="s">
         <v>0</v>
@@ -26073,10 +26079,10 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A954" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B954" s="6" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C954" s="7" t="s">
         <v>0</v>
@@ -26093,10 +26099,10 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A955" s="5" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B955" s="6" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C955" s="7" t="s">
         <v>0</v>
@@ -26113,10 +26119,10 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A956" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B956" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C956" s="7" t="s">
         <v>0</v>
@@ -26133,10 +26139,10 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A957" s="5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B957" s="6" t="s">
-        <v>1010</v>
+        <v>1859</v>
       </c>
       <c r="C957" s="7" t="s">
         <v>0</v>
@@ -26153,10 +26159,10 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A958" s="5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B958" s="6" t="s">
-        <v>1862</v>
+        <v>1010</v>
       </c>
       <c r="C958" s="7" t="s">
         <v>0</v>
@@ -26173,10 +26179,10 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A959" s="5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B959" s="6" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C959" s="7" t="s">
         <v>0</v>
@@ -26193,10 +26199,10 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A960" s="5" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B960" s="6" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C960" s="7" t="s">
         <v>0</v>
@@ -26213,10 +26219,10 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A961" s="5" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B961" s="6" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C961" s="7" t="s">
         <v>0</v>
@@ -26233,10 +26239,10 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A962" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B962" s="6" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C962" s="7" t="s">
         <v>0</v>
@@ -26253,10 +26259,10 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A963" s="5" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B963" s="6" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C963" s="7" t="s">
         <v>0</v>
@@ -26273,10 +26279,10 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A964" s="5" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B964" s="6" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C964" s="7" t="s">
         <v>0</v>
@@ -26293,10 +26299,10 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A965" s="5" t="s">
-        <v>1011</v>
+        <v>1873</v>
       </c>
       <c r="B965" s="6" t="s">
-        <v>1010</v>
+        <v>1874</v>
       </c>
       <c r="C965" s="7" t="s">
         <v>0</v>
@@ -26313,10 +26319,10 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A966" s="5" t="s">
-        <v>1875</v>
+        <v>1011</v>
       </c>
       <c r="B966" s="6" t="s">
-        <v>1876</v>
+        <v>1010</v>
       </c>
       <c r="C966" s="7" t="s">
         <v>0</v>
@@ -26333,10 +26339,10 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A967" s="5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B967" s="6" t="s">
-        <v>1791</v>
+        <v>1876</v>
       </c>
       <c r="C967" s="7" t="s">
         <v>0</v>
@@ -26353,10 +26359,10 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A968" s="5" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B968" s="6" t="s">
-        <v>1879</v>
+        <v>1791</v>
       </c>
       <c r="C968" s="7" t="s">
         <v>0</v>
@@ -26373,10 +26379,10 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A969" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C969" s="7" t="s">
         <v>0</v>
@@ -26393,10 +26399,10 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A970" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C970" s="7" t="s">
         <v>0</v>
@@ -26413,10 +26419,10 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A971" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B971" s="6" t="s">
-        <v>1791</v>
+        <v>1883</v>
       </c>
       <c r="C971" s="7" t="s">
         <v>0</v>
@@ -26433,10 +26439,10 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A972" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B972" s="6" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
       <c r="C972" s="7" t="s">
         <v>0</v>
@@ -26453,10 +26459,10 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A973" s="5" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B973" s="6" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C973" s="7" t="s">
         <v>0</v>
@@ -26465,18 +26471,18 @@
         <v>0</v>
       </c>
       <c r="E973" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F973" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A974" s="5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B974" s="6" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C974" s="7" t="s">
         <v>0</v>
@@ -26485,18 +26491,18 @@
         <v>0</v>
       </c>
       <c r="E974" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F974" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A975" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B975" s="6" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C975" s="7" t="s">
         <v>0</v>
@@ -26513,10 +26519,10 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A976" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B976" s="6" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C976" s="7" t="s">
         <v>0</v>
@@ -26533,10 +26539,10 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A977" s="5" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B977" s="6" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C977" s="7" t="s">
         <v>0</v>
@@ -26553,10 +26559,10 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A978" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B978" s="6" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C978" s="7" t="s">
         <v>0</v>
@@ -26573,10 +26579,10 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A979" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B979" s="6" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C979" s="7" t="s">
         <v>0</v>
@@ -26593,10 +26599,10 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A980" s="5" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B980" s="6" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C980" s="7" t="s">
         <v>0</v>
@@ -26613,10 +26619,10 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A981" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B981" s="6" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="C981" s="7" t="s">
         <v>0</v>
@@ -26633,10 +26639,10 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A982" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B982" s="6" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C982" s="7" t="s">
         <v>0</v>
@@ -26653,10 +26659,10 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A983" s="5" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B983" s="6" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C983" s="7" t="s">
         <v>0</v>
@@ -26673,10 +26679,10 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A984" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="B984" s="6" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="C984" s="7" t="s">
         <v>0</v>
@@ -26693,10 +26699,10 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A985" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B985" s="6" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C985" s="7" t="s">
         <v>0</v>
@@ -26713,10 +26719,10 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A986" s="5" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B986" s="6" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C986" s="7" t="s">
         <v>0</v>
@@ -26733,10 +26739,10 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A987" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B987" s="6" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="C987" s="7" t="s">
         <v>0</v>
@@ -26753,10 +26759,10 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A988" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B988" s="6" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="C988" s="7" t="s">
         <v>0</v>
@@ -26773,7 +26779,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A989" s="5" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B989" s="6" t="s">
         <v>1918</v>
@@ -26793,7 +26799,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A990" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B990" s="6" t="s">
         <v>1918</v>
@@ -26813,7 +26819,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A991" s="5" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B991" s="6" t="s">
         <v>1918</v>
@@ -26833,7 +26839,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A992" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B992" s="6" t="s">
         <v>1918</v>
@@ -26853,10 +26859,10 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A993" s="5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B993" s="6" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="C993" s="7" t="s">
         <v>0</v>
@@ -26873,10 +26879,10 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A994" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B994" s="6" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C994" s="7" t="s">
         <v>0</v>
@@ -26893,10 +26899,10 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A995" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B995" s="6" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C995" s="7" t="s">
         <v>0</v>
@@ -26913,10 +26919,10 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A996" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B996" s="6" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="C996" s="7" t="s">
         <v>0</v>
@@ -26933,10 +26939,10 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A997" s="5" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B997" s="6" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C997" s="7" t="s">
         <v>0</v>
@@ -26953,10 +26959,10 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A998" s="5" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B998" s="6" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="C998" s="7" t="s">
         <v>0</v>
@@ -26973,10 +26979,10 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A999" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B999" s="6" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="C999" s="7" t="s">
         <v>0</v>
@@ -26993,10 +26999,10 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1000" s="5" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B1000" s="6" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C1000" s="7" t="s">
         <v>0</v>
@@ -27013,10 +27019,10 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1001" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B1001" s="6" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C1001" s="7" t="s">
         <v>0</v>
@@ -27033,10 +27039,10 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1002" s="5" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B1002" s="6" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C1002" s="7" t="s">
         <v>0</v>
@@ -27053,10 +27059,10 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1003" s="5" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B1003" s="6" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C1003" s="7" t="s">
         <v>0</v>
@@ -27073,10 +27079,10 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1004" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B1004" s="6" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C1004" s="7" t="s">
         <v>0</v>
@@ -27093,10 +27099,10 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1005" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B1005" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C1005" s="7" t="s">
         <v>0</v>
@@ -27113,10 +27119,10 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1006" s="5" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1006" s="6" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C1006" s="7" t="s">
         <v>0</v>
@@ -27133,10 +27139,10 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1007" s="5" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B1007" s="6" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="C1007" s="7" t="s">
         <v>0</v>
@@ -27153,10 +27159,10 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1008" s="5" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1008" s="6" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C1008" s="7" t="s">
         <v>0</v>
@@ -27173,10 +27179,10 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1009" s="5" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1009" s="6" t="s">
-        <v>1918</v>
+        <v>1954</v>
       </c>
       <c r="C1009" s="7" t="s">
         <v>0</v>
@@ -27193,7 +27199,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1010" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1010" s="6" t="s">
         <v>1918</v>
@@ -27213,7 +27219,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1011" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1011" s="6" t="s">
         <v>1918</v>
@@ -27233,10 +27239,10 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1012" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1012" s="6" t="s">
-        <v>1936</v>
+        <v>1918</v>
       </c>
       <c r="C1012" s="7" t="s">
         <v>0</v>
@@ -27253,10 +27259,10 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1013" s="5" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1013" s="6" t="s">
-        <v>1918</v>
+        <v>1936</v>
       </c>
       <c r="C1013" s="7" t="s">
         <v>0</v>
@@ -27273,10 +27279,10 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1014" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1014" s="6" t="s">
-        <v>1961</v>
+        <v>1918</v>
       </c>
       <c r="C1014" s="7" t="s">
         <v>0</v>
@@ -27293,10 +27299,10 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1015" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B1015" s="6" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C1015" s="7" t="s">
         <v>0</v>
@@ -27313,10 +27319,10 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1016" s="5" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B1016" s="6" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C1016" s="7" t="s">
         <v>0</v>
@@ -27333,10 +27339,10 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1017" s="5" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B1017" s="6" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C1017" s="7" t="s">
         <v>0</v>
@@ -27353,10 +27359,10 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1018" s="5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B1018" s="6" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C1018" s="7" t="s">
         <v>0</v>
@@ -27373,10 +27379,10 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1019" s="5" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1019" s="6" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C1019" s="7" t="s">
         <v>0</v>
@@ -27393,10 +27399,10 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1020" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B1020" s="6" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="C1020" s="7" t="s">
         <v>0</v>
@@ -27405,18 +27411,18 @@
         <v>0</v>
       </c>
       <c r="E1020" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1020" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1021" s="5" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B1021" s="6" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C1021" s="7" t="s">
         <v>0</v>
@@ -27425,18 +27431,18 @@
         <v>0</v>
       </c>
       <c r="E1021" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1021" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1022" s="5" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1022" s="6" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C1022" s="7" t="s">
         <v>0</v>
@@ -27453,10 +27459,10 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1023" s="5" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1023" s="6" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C1023" s="7" t="s">
         <v>0</v>
@@ -27473,10 +27479,10 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1024" s="5" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B1024" s="6" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C1024" s="7" t="s">
         <v>0</v>
@@ -27493,10 +27499,10 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1025" s="5" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1025" s="6" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C1025" s="7" t="s">
         <v>0</v>
@@ -27505,18 +27511,18 @@
         <v>0</v>
       </c>
       <c r="E1025" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1025" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1026" s="5" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B1026" s="6" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C1026" s="7" t="s">
         <v>0</v>
@@ -27525,18 +27531,18 @@
         <v>0</v>
       </c>
       <c r="E1026" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1026" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1027" s="5" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1027" s="6" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C1027" s="7" t="s">
         <v>0</v>
@@ -27553,10 +27559,10 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1028" s="5" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1028" s="6" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C1028" s="7" t="s">
         <v>0</v>
@@ -27565,18 +27571,18 @@
         <v>0</v>
       </c>
       <c r="E1028" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1028" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1029" s="5" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1029" s="6" t="s">
-        <v>1835</v>
+        <v>1989</v>
       </c>
       <c r="C1029" s="7" t="s">
         <v>0</v>
@@ -27593,10 +27599,10 @@
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1030" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1030" s="6" t="s">
-        <v>1992</v>
+        <v>1835</v>
       </c>
       <c r="C1030" s="7" t="s">
         <v>0</v>
@@ -27605,18 +27611,18 @@
         <v>0</v>
       </c>
       <c r="E1030" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1030" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1031" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1031" s="6" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C1031" s="7" t="s">
         <v>0</v>
@@ -27633,10 +27639,10 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1032" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1032" s="6" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C1032" s="7" t="s">
         <v>0</v>
@@ -27653,10 +27659,10 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1033" s="5" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1033" s="6" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C1033" s="7" t="s">
         <v>0</v>
@@ -27673,10 +27679,10 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1034" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B1034" s="6" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C1034" s="7" t="s">
         <v>0</v>
@@ -27693,10 +27699,10 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1035" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B1035" s="6" t="s">
-        <v>1948</v>
+        <v>2000</v>
       </c>
       <c r="C1035" s="7" t="s">
         <v>0</v>
@@ -27705,15 +27711,15 @@
         <v>0</v>
       </c>
       <c r="E1035" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1035" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1036" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1036" s="6" t="s">
         <v>1948</v>
@@ -27733,10 +27739,10 @@
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1037" s="5" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1037" s="6" t="s">
-        <v>2004</v>
+        <v>1948</v>
       </c>
       <c r="C1037" s="7" t="s">
         <v>0</v>
@@ -27753,10 +27759,10 @@
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1038" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B1038" s="6" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C1038" s="7" t="s">
         <v>0</v>
@@ -27773,10 +27779,10 @@
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1039" s="5" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B1039" s="6" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C1039" s="7" t="s">
         <v>0</v>
@@ -27793,10 +27799,10 @@
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1040" s="5" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B1040" s="6" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C1040" s="7" t="s">
         <v>0</v>
@@ -27813,7 +27819,7 @@
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1041" s="5" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1041" s="6" t="s">
         <v>2010</v>
@@ -27833,7 +27839,7 @@
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1042" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1042" s="6" t="s">
         <v>2010</v>
@@ -27853,7 +27859,7 @@
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1043" s="5" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1043" s="6" t="s">
         <v>2010</v>
@@ -27865,18 +27871,18 @@
         <v>0</v>
       </c>
       <c r="E1043" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1043" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1044" s="5" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1044" s="6" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C1044" s="7" t="s">
         <v>0</v>
@@ -27885,18 +27891,18 @@
         <v>0</v>
       </c>
       <c r="E1044" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1044" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1045" s="5" t="s">
-        <v>1012</v>
+        <v>2014</v>
       </c>
       <c r="B1045" s="6" t="s">
-        <v>1013</v>
+        <v>2015</v>
       </c>
       <c r="C1045" s="7" t="s">
         <v>0</v>
@@ -27905,18 +27911,18 @@
         <v>0</v>
       </c>
       <c r="E1045" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1045" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1046" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1046" s="6" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C1046" s="7" t="s">
         <v>0</v>
@@ -27925,18 +27931,18 @@
         <v>0</v>
       </c>
       <c r="E1046" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1046" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1047" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1047" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C1047" s="7" t="s">
         <v>0</v>
@@ -27953,10 +27959,10 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1048" s="8" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1048" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C1048" s="8" t="s">
         <v>0</v>
@@ -27965,7 +27971,7 @@
         <v>0</v>
       </c>
       <c r="E1048" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1048" s="8" t="s">
         <v>0</v>
@@ -27973,10 +27979,10 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1049" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1049" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C1049" s="8" t="s">
         <v>0</v>
@@ -27993,10 +27999,10 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1050" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B1050" s="6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C1050" s="8" t="s">
         <v>0</v>
@@ -28008,15 +28014,15 @@
         <v>3</v>
       </c>
       <c r="F1050" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1051" s="8" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B1051" s="6" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C1051" s="8" t="s">
         <v>0</v>
@@ -28033,10 +28039,10 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1052" s="8" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B1052" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C1052" s="8" t="s">
         <v>0</v>
@@ -28045,18 +28051,18 @@
         <v>0</v>
       </c>
       <c r="E1052" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1052" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1053" s="8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B1053" s="6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C1053" s="8" t="s">
         <v>0</v>
@@ -28065,18 +28071,18 @@
         <v>0</v>
       </c>
       <c r="E1053" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1053" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1054" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B1054" s="6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C1054" s="8" t="s">
         <v>0</v>
@@ -28093,10 +28099,10 @@
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1055" s="8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B1055" s="6" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C1055" s="8" t="s">
         <v>0</v>
@@ -28113,10 +28119,10 @@
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1056" s="8" t="s">
-        <v>2016</v>
+        <v>1032</v>
       </c>
       <c r="B1056" s="6" t="s">
-        <v>2017</v>
+        <v>1033</v>
       </c>
       <c r="C1056" s="8" t="s">
         <v>0</v>
@@ -28125,18 +28131,18 @@
         <v>0</v>
       </c>
       <c r="E1056" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1056" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1057" s="8" t="s">
-        <v>1034</v>
+        <v>2016</v>
       </c>
       <c r="B1057" s="6" t="s">
-        <v>1035</v>
+        <v>2017</v>
       </c>
       <c r="C1057" s="8" t="s">
         <v>0</v>
@@ -28153,10 +28159,10 @@
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1058" s="8" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B1058" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C1058" s="8" t="s">
         <v>0</v>
@@ -28165,18 +28171,18 @@
         <v>0</v>
       </c>
       <c r="E1058" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1058" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1059" s="8" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B1059" s="6" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C1059" s="8" t="s">
         <v>0</v>
@@ -28193,10 +28199,10 @@
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1060" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B1060" s="6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C1060" s="8" t="s">
         <v>0</v>
@@ -28213,10 +28219,10 @@
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1061" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B1061" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C1061" s="8" t="s">
         <v>0</v>
@@ -28225,18 +28231,18 @@
         <v>0</v>
       </c>
       <c r="E1061" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1061" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1062" s="8" t="s">
-        <v>2018</v>
+        <v>1042</v>
       </c>
       <c r="B1062" s="6" t="s">
-        <v>2019</v>
+        <v>1043</v>
       </c>
       <c r="C1062" s="8" t="s">
         <v>0</v>
@@ -28253,10 +28259,10 @@
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1063" s="8" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B1063" s="6" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C1063" s="8" t="s">
         <v>0</v>
@@ -28273,10 +28279,10 @@
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1064" s="8" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B1064" s="6" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C1064" s="8" t="s">
         <v>0</v>
@@ -28293,10 +28299,10 @@
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1065" s="8" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B1065" s="6" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C1065" s="8" t="s">
         <v>0</v>
@@ -28313,10 +28319,10 @@
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1066" s="8" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C1066" s="8" t="s">
         <v>0</v>
@@ -28333,10 +28339,10 @@
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1067" s="8" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B1067" s="6" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C1067" s="8" t="s">
         <v>0</v>
@@ -28353,10 +28359,10 @@
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1068" s="8" t="s">
-        <v>1044</v>
+        <v>2028</v>
       </c>
       <c r="B1068" s="6" t="s">
-        <v>1045</v>
+        <v>2029</v>
       </c>
       <c r="C1068" s="8" t="s">
         <v>0</v>
@@ -28373,10 +28379,10 @@
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1069" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B1069" s="6" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C1069" s="8" t="s">
         <v>0</v>
@@ -28393,10 +28399,10 @@
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1070" s="8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B1070" s="6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>0</v>
@@ -28413,10 +28419,10 @@
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1071" s="8" t="s">
-        <v>2030</v>
+        <v>1048</v>
       </c>
       <c r="B1071" s="6" t="s">
-        <v>2031</v>
+        <v>1049</v>
       </c>
       <c r="C1071" s="8" t="s">
         <v>0</v>
@@ -28433,10 +28439,10 @@
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1072" s="8" t="s">
-        <v>1050</v>
+        <v>2030</v>
       </c>
       <c r="B1072" s="6" t="s">
-        <v>1051</v>
+        <v>2031</v>
       </c>
       <c r="C1072" s="8" t="s">
         <v>0</v>
@@ -28453,10 +28459,10 @@
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1073" s="8" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="B1073" s="6" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="C1073" s="8" t="s">
         <v>0</v>
@@ -28465,29 +28471,49 @@
         <v>0</v>
       </c>
       <c r="E1073" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1073" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1074" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1074" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1074" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1074" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1074" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="1.05">
+      <c r="A1075" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="B1074" s="6" t="s">
+      <c r="B1075" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="C1074" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1074" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1074" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1074" s="8" t="s">
+      <c r="C1075" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1075" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1075" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1075" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28514,7 +28540,7 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F1074">
+  <conditionalFormatting sqref="C4:F1075">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
